--- a/data/base_itens.xlsx
+++ b/data/base_itens.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rprimi/Dropbox (Personal)/B5_NLP/colB5BERT/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2747CB20-A4A5-AD46-A2D4-22450A13400D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0427F44F-8FC8-B54E-8B5C-D9FA23C0E6A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14760" yWindow="3500" windowWidth="27840" windowHeight="16740" xr2:uid="{25D298BA-05F0-AF4E-A774-9981CC55351A}"/>
   </bookViews>
   <sheets>
-    <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
+    <sheet name="base" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -4562,7 +4562,7 @@
   <dimension ref="A1:I577"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A2:A417"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/data/base_itens.xlsx
+++ b/data/base_itens.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rprimi/Dropbox (Personal)/B5_NLP/colB5BERT/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0427F44F-8FC8-B54E-8B5C-D9FA23C0E6A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3D9CA83-54B7-A149-B673-0208AC5B7B1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14760" yWindow="3500" windowWidth="27840" windowHeight="16740" xr2:uid="{25D298BA-05F0-AF4E-A774-9981CC55351A}"/>
+    <workbookView xWindow="14620" yWindow="3500" windowWidth="27840" windowHeight="16740" xr2:uid="{25D298BA-05F0-AF4E-A774-9981CC55351A}"/>
   </bookViews>
   <sheets>
     <sheet name="base" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2496" uniqueCount="1310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2495" uniqueCount="1310">
   <si>
     <t>Posso ser indiferente, frio e distante dos outros</t>
   </si>
@@ -4206,41 +4206,40 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -4559,17 +4558,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FBC26B7-DF65-4541-ACF8-B0300BE691B9}">
-  <dimension ref="A1:I577"/>
+  <dimension ref="A1:I576"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" topLeftCell="A386" workbookViewId="0">
+      <selection activeCell="A385" sqref="A385:A416"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.83203125" style="1"/>
     <col min="2" max="2" width="12.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5" style="1" customWidth="1"/>
     <col min="4" max="4" width="57.5" style="2" customWidth="1"/>
     <col min="5" max="5" width="57.5" style="1" customWidth="1"/>
     <col min="6" max="9" width="10.5" style="1" customWidth="1"/>
@@ -4598,10 +4597,10 @@
       <c r="G1" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="1" t="s">
         <v>210</v>
       </c>
     </row>
@@ -5076,10 +5075,10 @@
       <c r="C18" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="D18" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E18" s="5" t="s">
+      <c r="E18" s="4" t="s">
         <v>32</v>
       </c>
       <c r="F18" s="1" t="s">
@@ -5088,10 +5087,10 @@
       <c r="G18" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="H18" s="5">
+      <c r="H18" s="4">
         <v>0</v>
       </c>
-      <c r="I18" s="5">
+      <c r="I18" s="4">
         <v>9</v>
       </c>
     </row>
@@ -5105,10 +5104,10 @@
       <c r="C19" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="D19" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="E19" s="5" t="s">
+      <c r="E19" s="4" t="s">
         <v>34</v>
       </c>
       <c r="F19" s="1" t="s">
@@ -5117,10 +5116,10 @@
       <c r="G19" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="H19" s="5">
-        <v>1</v>
-      </c>
-      <c r="I19" s="5">
+      <c r="H19" s="4">
+        <v>1</v>
+      </c>
+      <c r="I19" s="4">
         <v>10</v>
       </c>
     </row>
@@ -5134,10 +5133,10 @@
       <c r="C20" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="D20" s="4" t="s">
+      <c r="D20" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E20" s="5" t="s">
+      <c r="E20" s="4" t="s">
         <v>36</v>
       </c>
       <c r="F20" s="1" t="s">
@@ -5146,10 +5145,10 @@
       <c r="G20" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="H20" s="5">
-        <v>1</v>
-      </c>
-      <c r="I20" s="5">
+      <c r="H20" s="4">
+        <v>1</v>
+      </c>
+      <c r="I20" s="4">
         <v>9</v>
       </c>
     </row>
@@ -5163,10 +5162,10 @@
       <c r="C21" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="D21" s="4" t="s">
+      <c r="D21" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="E21" s="5" t="s">
+      <c r="E21" s="4" t="s">
         <v>38</v>
       </c>
       <c r="F21" s="1" t="s">
@@ -5175,10 +5174,10 @@
       <c r="G21" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="H21" s="5">
+      <c r="H21" s="4">
         <v>0</v>
       </c>
-      <c r="I21" s="5">
+      <c r="I21" s="4">
         <v>10</v>
       </c>
     </row>
@@ -5189,10 +5188,10 @@
       <c r="B22" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="C22" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="D22" s="4" t="s">
+      <c r="D22" s="3" t="s">
         <v>39</v>
       </c>
       <c r="E22" s="1" t="s">
@@ -5204,10 +5203,10 @@
       <c r="G22" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="H22" s="5">
+      <c r="H22" s="4">
         <v>0</v>
       </c>
-      <c r="I22" s="5"/>
+      <c r="I22" s="4"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
@@ -5216,10 +5215,10 @@
       <c r="B23" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="C23" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="D23" s="4" t="s">
+      <c r="D23" s="3" t="s">
         <v>1295</v>
       </c>
       <c r="E23" s="1" t="s">
@@ -5231,10 +5230,10 @@
       <c r="G23" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="H23" s="5">
+      <c r="H23" s="4">
         <v>0</v>
       </c>
-      <c r="I23" s="5">
+      <c r="I23" s="4">
         <v>12</v>
       </c>
     </row>
@@ -5292,7 +5291,7 @@
       <c r="H25" s="1">
         <v>1</v>
       </c>
-      <c r="I25" s="5">
+      <c r="I25" s="4">
         <v>12</v>
       </c>
     </row>
@@ -5677,7 +5676,7 @@
       <c r="B39" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="C39" s="5" t="s">
+      <c r="C39" s="4" t="s">
         <v>161</v>
       </c>
       <c r="D39" s="2" t="s">
@@ -5784,7 +5783,7 @@
       <c r="B43" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="C43" s="5" t="s">
+      <c r="C43" s="4" t="s">
         <v>165</v>
       </c>
       <c r="D43" s="2" t="s">
@@ -5804,7 +5803,7 @@
       <c r="B44" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="C44" s="5" t="s">
+      <c r="C44" s="4" t="s">
         <v>166</v>
       </c>
       <c r="D44" s="2" t="s">
@@ -5833,10 +5832,10 @@
       <c r="B45" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="C45" s="5" t="s">
+      <c r="C45" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="D45" s="4" t="s">
+      <c r="D45" s="3" t="s">
         <v>81</v>
       </c>
       <c r="E45" s="1" t="s">
@@ -6410,10 +6409,10 @@
       <c r="B65" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="C65" s="5" t="s">
+      <c r="C65" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="D65" s="6" t="s">
+      <c r="D65" s="5" t="s">
         <v>213</v>
       </c>
       <c r="E65" s="2" t="s">
@@ -6428,7 +6427,7 @@
       <c r="H65" s="1">
         <v>0</v>
       </c>
-      <c r="I65" s="7">
+      <c r="I65" s="6">
         <v>3</v>
       </c>
     </row>
@@ -6439,10 +6438,10 @@
       <c r="B66" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="C66" s="5" t="s">
+      <c r="C66" s="4" t="s">
         <v>215</v>
       </c>
-      <c r="D66" s="6" t="s">
+      <c r="D66" s="5" t="s">
         <v>216</v>
       </c>
       <c r="E66" s="2" t="s">
@@ -6457,7 +6456,7 @@
       <c r="H66" s="1">
         <v>0</v>
       </c>
-      <c r="I66" s="7">
+      <c r="I66" s="6">
         <v>1</v>
       </c>
     </row>
@@ -6468,10 +6467,10 @@
       <c r="B67" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="C67" s="5" t="s">
+      <c r="C67" s="4" t="s">
         <v>218</v>
       </c>
-      <c r="D67" s="6" t="s">
+      <c r="D67" s="5" t="s">
         <v>219</v>
       </c>
       <c r="E67" s="2" t="s">
@@ -6486,7 +6485,7 @@
       <c r="H67" s="1">
         <v>0</v>
       </c>
-      <c r="I67" s="7">
+      <c r="I67" s="6">
         <v>2</v>
       </c>
     </row>
@@ -6497,10 +6496,10 @@
       <c r="B68" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="C68" s="5" t="s">
+      <c r="C68" s="4" t="s">
         <v>221</v>
       </c>
-      <c r="D68" s="6" t="s">
+      <c r="D68" s="5" t="s">
         <v>222</v>
       </c>
       <c r="E68" s="2" t="s">
@@ -6515,7 +6514,7 @@
       <c r="H68" s="1">
         <v>1</v>
       </c>
-      <c r="I68" s="7">
+      <c r="I68" s="6">
         <v>3</v>
       </c>
     </row>
@@ -6526,10 +6525,10 @@
       <c r="B69" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="C69" s="5" t="s">
+      <c r="C69" s="4" t="s">
         <v>224</v>
       </c>
-      <c r="D69" s="6" t="s">
+      <c r="D69" s="5" t="s">
         <v>225</v>
       </c>
       <c r="E69" s="2" t="s">
@@ -6544,7 +6543,7 @@
       <c r="H69" s="1">
         <v>1</v>
       </c>
-      <c r="I69" s="7">
+      <c r="I69" s="6">
         <v>1</v>
       </c>
     </row>
@@ -6555,10 +6554,10 @@
       <c r="B70" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="C70" s="5" t="s">
+      <c r="C70" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="D70" s="6" t="s">
+      <c r="D70" s="5" t="s">
         <v>228</v>
       </c>
       <c r="E70" s="2" t="s">
@@ -6573,7 +6572,7 @@
       <c r="H70" s="1">
         <v>1</v>
       </c>
-      <c r="I70" s="7">
+      <c r="I70" s="6">
         <v>2</v>
       </c>
     </row>
@@ -6584,10 +6583,10 @@
       <c r="B71" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="C71" s="5" t="s">
+      <c r="C71" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="D71" s="6" t="s">
+      <c r="D71" s="5" t="s">
         <v>231</v>
       </c>
       <c r="E71" s="2" t="s">
@@ -6602,7 +6601,7 @@
       <c r="H71" s="1">
         <v>1</v>
       </c>
-      <c r="I71" s="7"/>
+      <c r="I71" s="6"/>
     </row>
     <row r="72" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
@@ -6611,10 +6610,10 @@
       <c r="B72" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="C72" s="5" t="s">
+      <c r="C72" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="D72" s="6" t="s">
+      <c r="D72" s="5" t="s">
         <v>234</v>
       </c>
       <c r="E72" s="2" t="s">
@@ -6629,7 +6628,7 @@
       <c r="H72" s="1">
         <v>1</v>
       </c>
-      <c r="I72" s="7"/>
+      <c r="I72" s="6"/>
     </row>
     <row r="73" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
@@ -6638,10 +6637,10 @@
       <c r="B73" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="C73" s="5" t="s">
+      <c r="C73" s="4" t="s">
         <v>236</v>
       </c>
-      <c r="D73" s="6" t="s">
+      <c r="D73" s="5" t="s">
         <v>237</v>
       </c>
       <c r="E73" s="2" t="s">
@@ -6656,7 +6655,7 @@
       <c r="H73" s="1">
         <v>1</v>
       </c>
-      <c r="I73" s="7"/>
+      <c r="I73" s="6"/>
     </row>
     <row r="74" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
@@ -6665,10 +6664,10 @@
       <c r="B74" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="C74" s="5" t="s">
+      <c r="C74" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="D74" s="6" t="s">
+      <c r="D74" s="5" t="s">
         <v>240</v>
       </c>
       <c r="E74" s="2" t="s">
@@ -6683,7 +6682,7 @@
       <c r="H74" s="1">
         <v>0</v>
       </c>
-      <c r="I74" s="7">
+      <c r="I74" s="6">
         <v>1</v>
       </c>
     </row>
@@ -6694,10 +6693,10 @@
       <c r="B75" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="C75" s="5" t="s">
+      <c r="C75" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="D75" s="6" t="s">
+      <c r="D75" s="5" t="s">
         <v>243</v>
       </c>
       <c r="E75" s="2" t="s">
@@ -6712,7 +6711,7 @@
       <c r="H75" s="1">
         <v>0</v>
       </c>
-      <c r="I75" s="7">
+      <c r="I75" s="6">
         <v>3</v>
       </c>
     </row>
@@ -6723,10 +6722,10 @@
       <c r="B76" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="C76" s="5" t="s">
+      <c r="C76" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="D76" s="6" t="s">
+      <c r="D76" s="5" t="s">
         <v>246</v>
       </c>
       <c r="E76" s="2" t="s">
@@ -6741,7 +6740,7 @@
       <c r="H76" s="1">
         <v>0</v>
       </c>
-      <c r="I76" s="7">
+      <c r="I76" s="6">
         <v>2</v>
       </c>
     </row>
@@ -6752,10 +6751,10 @@
       <c r="B77" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="C77" s="5" t="s">
+      <c r="C77" s="4" t="s">
         <v>248</v>
       </c>
-      <c r="D77" s="6" t="s">
+      <c r="D77" s="5" t="s">
         <v>249</v>
       </c>
       <c r="E77" s="2" t="s">
@@ -6770,7 +6769,7 @@
       <c r="H77" s="1">
         <v>1</v>
       </c>
-      <c r="I77" s="7">
+      <c r="I77" s="6">
         <v>1</v>
       </c>
     </row>
@@ -6781,10 +6780,10 @@
       <c r="B78" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="C78" s="5" t="s">
+      <c r="C78" s="4" t="s">
         <v>251</v>
       </c>
-      <c r="D78" s="6" t="s">
+      <c r="D78" s="5" t="s">
         <v>252</v>
       </c>
       <c r="E78" s="2" t="s">
@@ -6799,7 +6798,7 @@
       <c r="H78" s="1">
         <v>1</v>
       </c>
-      <c r="I78" s="7">
+      <c r="I78" s="6">
         <v>3</v>
       </c>
     </row>
@@ -6810,10 +6809,10 @@
       <c r="B79" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="C79" s="5" t="s">
+      <c r="C79" s="4" t="s">
         <v>254</v>
       </c>
-      <c r="D79" s="6" t="s">
+      <c r="D79" s="5" t="s">
         <v>255</v>
       </c>
       <c r="E79" s="2" t="s">
@@ -6828,7 +6827,7 @@
       <c r="H79" s="1">
         <v>1</v>
       </c>
-      <c r="I79" s="7">
+      <c r="I79" s="6">
         <v>2</v>
       </c>
     </row>
@@ -6839,10 +6838,10 @@
       <c r="B80" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="C80" s="5" t="s">
+      <c r="C80" s="4" t="s">
         <v>257</v>
       </c>
-      <c r="D80" s="6" t="s">
+      <c r="D80" s="5" t="s">
         <v>258</v>
       </c>
       <c r="E80" s="2" t="s">
@@ -6857,7 +6856,7 @@
       <c r="H80" s="1">
         <v>1</v>
       </c>
-      <c r="I80" s="7"/>
+      <c r="I80" s="6"/>
     </row>
     <row r="81" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
@@ -6866,10 +6865,10 @@
       <c r="B81" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="C81" s="5" t="s">
+      <c r="C81" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="D81" s="6" t="s">
+      <c r="D81" s="5" t="s">
         <v>261</v>
       </c>
       <c r="E81" s="2" t="s">
@@ -6884,7 +6883,7 @@
       <c r="H81" s="1">
         <v>1</v>
       </c>
-      <c r="I81" s="7"/>
+      <c r="I81" s="6"/>
     </row>
     <row r="82" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
@@ -6893,10 +6892,10 @@
       <c r="B82" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="C82" s="5" t="s">
+      <c r="C82" s="4" t="s">
         <v>263</v>
       </c>
-      <c r="D82" s="6" t="s">
+      <c r="D82" s="5" t="s">
         <v>264</v>
       </c>
       <c r="E82" s="2" t="s">
@@ -6911,7 +6910,7 @@
       <c r="H82" s="1">
         <v>1</v>
       </c>
-      <c r="I82" s="7"/>
+      <c r="I82" s="6"/>
     </row>
     <row r="83" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
@@ -6920,10 +6919,10 @@
       <c r="B83" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="C83" s="5" t="s">
+      <c r="C83" s="4" t="s">
         <v>266</v>
       </c>
-      <c r="D83" s="6" t="s">
+      <c r="D83" s="5" t="s">
         <v>267</v>
       </c>
       <c r="E83" s="2" t="s">
@@ -6938,7 +6937,7 @@
       <c r="H83" s="1">
         <v>0</v>
       </c>
-      <c r="I83" s="7">
+      <c r="I83" s="6">
         <v>2</v>
       </c>
     </row>
@@ -6949,10 +6948,10 @@
       <c r="B84" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="C84" s="5" t="s">
+      <c r="C84" s="4" t="s">
         <v>268</v>
       </c>
-      <c r="D84" s="6" t="s">
+      <c r="D84" s="5" t="s">
         <v>269</v>
       </c>
       <c r="E84" s="2" t="s">
@@ -6967,7 +6966,7 @@
       <c r="H84" s="1">
         <v>0</v>
       </c>
-      <c r="I84" s="7">
+      <c r="I84" s="6">
         <v>3</v>
       </c>
     </row>
@@ -6978,10 +6977,10 @@
       <c r="B85" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="C85" s="5" t="s">
+      <c r="C85" s="4" t="s">
         <v>270</v>
       </c>
-      <c r="D85" s="6" t="s">
+      <c r="D85" s="5" t="s">
         <v>271</v>
       </c>
       <c r="E85" s="2" t="s">
@@ -6996,7 +6995,7 @@
       <c r="H85" s="1">
         <v>0</v>
       </c>
-      <c r="I85" s="7">
+      <c r="I85" s="6">
         <v>1</v>
       </c>
     </row>
@@ -7007,10 +7006,10 @@
       <c r="B86" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="C86" s="5" t="s">
+      <c r="C86" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="D86" s="6" t="s">
+      <c r="D86" s="5" t="s">
         <v>274</v>
       </c>
       <c r="E86" s="2" t="s">
@@ -7025,7 +7024,7 @@
       <c r="H86" s="1">
         <v>1</v>
       </c>
-      <c r="I86" s="7">
+      <c r="I86" s="6">
         <v>2</v>
       </c>
     </row>
@@ -7036,10 +7035,10 @@
       <c r="B87" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="C87" s="5" t="s">
+      <c r="C87" s="4" t="s">
         <v>275</v>
       </c>
-      <c r="D87" s="6" t="s">
+      <c r="D87" s="5" t="s">
         <v>276</v>
       </c>
       <c r="E87" s="2" t="s">
@@ -7054,7 +7053,7 @@
       <c r="H87" s="1">
         <v>1</v>
       </c>
-      <c r="I87" s="7">
+      <c r="I87" s="6">
         <v>3</v>
       </c>
     </row>
@@ -7065,10 +7064,10 @@
       <c r="B88" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="C88" s="5" t="s">
+      <c r="C88" s="4" t="s">
         <v>277</v>
       </c>
-      <c r="D88" s="6" t="s">
+      <c r="D88" s="5" t="s">
         <v>278</v>
       </c>
       <c r="E88" s="2" t="s">
@@ -7083,7 +7082,7 @@
       <c r="H88" s="1">
         <v>1</v>
       </c>
-      <c r="I88" s="7">
+      <c r="I88" s="6">
         <v>1</v>
       </c>
     </row>
@@ -7094,10 +7093,10 @@
       <c r="B89" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="C89" s="5" t="s">
+      <c r="C89" s="4" t="s">
         <v>280</v>
       </c>
-      <c r="D89" s="6" t="s">
+      <c r="D89" s="5" t="s">
         <v>281</v>
       </c>
       <c r="E89" s="2" t="s">
@@ -7112,7 +7111,7 @@
       <c r="H89" s="1">
         <v>1</v>
       </c>
-      <c r="I89" s="7"/>
+      <c r="I89" s="6"/>
     </row>
     <row r="90" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
@@ -7121,10 +7120,10 @@
       <c r="B90" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="C90" s="5" t="s">
+      <c r="C90" s="4" t="s">
         <v>282</v>
       </c>
-      <c r="D90" s="6" t="s">
+      <c r="D90" s="5" t="s">
         <v>283</v>
       </c>
       <c r="E90" s="2" t="s">
@@ -7139,7 +7138,7 @@
       <c r="H90" s="1">
         <v>1</v>
       </c>
-      <c r="I90" s="7"/>
+      <c r="I90" s="6"/>
     </row>
     <row r="91" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
@@ -7148,10 +7147,10 @@
       <c r="B91" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="C91" s="5" t="s">
+      <c r="C91" s="4" t="s">
         <v>284</v>
       </c>
-      <c r="D91" s="6" t="s">
+      <c r="D91" s="5" t="s">
         <v>285</v>
       </c>
       <c r="E91" s="2" t="s">
@@ -7166,7 +7165,7 @@
       <c r="H91" s="1">
         <v>1</v>
       </c>
-      <c r="I91" s="7"/>
+      <c r="I91" s="6"/>
     </row>
     <row r="92" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
@@ -7178,7 +7177,7 @@
       <c r="C92" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="D92" s="6" t="s">
+      <c r="D92" s="5" t="s">
         <v>288</v>
       </c>
       <c r="E92" s="2" t="s">
@@ -7193,7 +7192,7 @@
       <c r="H92" s="1">
         <v>0</v>
       </c>
-      <c r="I92" s="7">
+      <c r="I92" s="6">
         <v>2</v>
       </c>
     </row>
@@ -7207,7 +7206,7 @@
       <c r="C93" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="D93" s="6" t="s">
+      <c r="D93" s="5" t="s">
         <v>671</v>
       </c>
       <c r="E93" s="2" t="s">
@@ -7222,7 +7221,7 @@
       <c r="H93" s="1">
         <v>0</v>
       </c>
-      <c r="I93" s="7">
+      <c r="I93" s="6">
         <v>3</v>
       </c>
     </row>
@@ -7236,7 +7235,7 @@
       <c r="C94" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="D94" s="6" t="s">
+      <c r="D94" s="5" t="s">
         <v>293</v>
       </c>
       <c r="E94" s="2" t="s">
@@ -7251,7 +7250,7 @@
       <c r="H94" s="1">
         <v>0</v>
       </c>
-      <c r="I94" s="7">
+      <c r="I94" s="6">
         <v>1</v>
       </c>
     </row>
@@ -7265,7 +7264,7 @@
       <c r="C95" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="D95" s="6" t="s">
+      <c r="D95" s="5" t="s">
         <v>672</v>
       </c>
       <c r="E95" s="2" t="s">
@@ -7280,7 +7279,7 @@
       <c r="H95" s="1">
         <v>1</v>
       </c>
-      <c r="I95" s="7">
+      <c r="I95" s="6">
         <v>1</v>
       </c>
     </row>
@@ -7294,10 +7293,10 @@
       <c r="C96" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="D96" s="6" t="s">
+      <c r="D96" s="5" t="s">
         <v>673</v>
       </c>
-      <c r="E96" s="4" t="s">
+      <c r="E96" s="3" t="s">
         <v>298</v>
       </c>
       <c r="F96" s="1" t="s">
@@ -7309,7 +7308,7 @@
       <c r="H96" s="1">
         <v>1</v>
       </c>
-      <c r="I96" s="7">
+      <c r="I96" s="6">
         <v>2</v>
       </c>
     </row>
@@ -7323,22 +7322,22 @@
       <c r="C97" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="D97" s="6" t="s">
+      <c r="D97" s="5" t="s">
         <v>674</v>
       </c>
-      <c r="E97" s="4" t="s">
+      <c r="E97" s="3" t="s">
         <v>300</v>
       </c>
-      <c r="F97" s="5" t="s">
+      <c r="F97" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="G97" s="5" t="s">
+      <c r="G97" s="4" t="s">
         <v>693</v>
       </c>
-      <c r="H97" s="5">
-        <v>1</v>
-      </c>
-      <c r="I97" s="7">
+      <c r="H97" s="4">
+        <v>1</v>
+      </c>
+      <c r="I97" s="6">
         <v>3</v>
       </c>
     </row>
@@ -7352,7 +7351,7 @@
       <c r="C98" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="D98" s="6" t="s">
+      <c r="D98" s="5" t="s">
         <v>302</v>
       </c>
       <c r="E98" s="2" t="s">
@@ -7367,7 +7366,7 @@
       <c r="H98" s="1">
         <v>1</v>
       </c>
-      <c r="I98" s="7"/>
+      <c r="I98" s="6"/>
     </row>
     <row r="99" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
@@ -7379,7 +7378,7 @@
       <c r="C99" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="D99" s="6" t="s">
+      <c r="D99" s="5" t="s">
         <v>305</v>
       </c>
       <c r="E99" s="2" t="s">
@@ -7394,7 +7393,7 @@
       <c r="H99" s="1">
         <v>1</v>
       </c>
-      <c r="I99" s="7"/>
+      <c r="I99" s="6"/>
     </row>
     <row r="100" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
@@ -7406,7 +7405,7 @@
       <c r="C100" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="D100" s="6" t="s">
+      <c r="D100" s="5" t="s">
         <v>308</v>
       </c>
       <c r="E100" s="2" t="s">
@@ -7421,7 +7420,7 @@
       <c r="H100" s="1">
         <v>1</v>
       </c>
-      <c r="I100" s="7"/>
+      <c r="I100" s="6"/>
     </row>
     <row r="101" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
@@ -7433,7 +7432,7 @@
       <c r="C101" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="D101" s="6" t="s">
+      <c r="D101" s="5" t="s">
         <v>311</v>
       </c>
       <c r="E101" s="2" t="s">
@@ -7448,7 +7447,7 @@
       <c r="H101" s="1">
         <v>0</v>
       </c>
-      <c r="I101" s="7">
+      <c r="I101" s="6">
         <v>1</v>
       </c>
     </row>
@@ -7462,7 +7461,7 @@
       <c r="C102" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="D102" s="6" t="s">
+      <c r="D102" s="5" t="s">
         <v>675</v>
       </c>
       <c r="E102" s="2" t="s">
@@ -7477,7 +7476,7 @@
       <c r="H102" s="1">
         <v>0</v>
       </c>
-      <c r="I102" s="7">
+      <c r="I102" s="6">
         <v>3</v>
       </c>
     </row>
@@ -7491,7 +7490,7 @@
       <c r="C103" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="D103" s="6" t="s">
+      <c r="D103" s="5" t="s">
         <v>316</v>
       </c>
       <c r="E103" s="2" t="s">
@@ -7506,7 +7505,7 @@
       <c r="H103" s="1">
         <v>0</v>
       </c>
-      <c r="I103" s="7">
+      <c r="I103" s="6">
         <v>2</v>
       </c>
     </row>
@@ -7520,7 +7519,7 @@
       <c r="C104" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="D104" s="6" t="s">
+      <c r="D104" s="5" t="s">
         <v>319</v>
       </c>
       <c r="E104" s="2" t="s">
@@ -7535,7 +7534,7 @@
       <c r="H104" s="1">
         <v>1</v>
       </c>
-      <c r="I104" s="7">
+      <c r="I104" s="6">
         <v>2</v>
       </c>
     </row>
@@ -7549,7 +7548,7 @@
       <c r="C105" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="D105" s="6" t="s">
+      <c r="D105" s="5" t="s">
         <v>676</v>
       </c>
       <c r="E105" s="2" t="s">
@@ -7564,7 +7563,7 @@
       <c r="H105" s="1">
         <v>1</v>
       </c>
-      <c r="I105" s="7">
+      <c r="I105" s="6">
         <v>3</v>
       </c>
     </row>
@@ -7578,7 +7577,7 @@
       <c r="C106" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="D106" s="6" t="s">
+      <c r="D106" s="5" t="s">
         <v>324</v>
       </c>
       <c r="E106" s="2" t="s">
@@ -7593,7 +7592,7 @@
       <c r="H106" s="1">
         <v>1</v>
       </c>
-      <c r="I106" s="7">
+      <c r="I106" s="6">
         <v>1</v>
       </c>
     </row>
@@ -7607,7 +7606,7 @@
       <c r="C107" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="D107" s="6" t="s">
+      <c r="D107" s="5" t="s">
         <v>327</v>
       </c>
       <c r="E107" s="2" t="s">
@@ -7622,7 +7621,7 @@
       <c r="H107" s="1">
         <v>1</v>
       </c>
-      <c r="I107" s="7"/>
+      <c r="I107" s="6"/>
     </row>
     <row r="108" spans="1:9" ht="30" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
@@ -7634,7 +7633,7 @@
       <c r="C108" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="D108" s="6" t="s">
+      <c r="D108" s="5" t="s">
         <v>330</v>
       </c>
       <c r="E108" s="2" t="s">
@@ -7649,7 +7648,7 @@
       <c r="H108" s="1">
         <v>1</v>
       </c>
-      <c r="I108" s="7"/>
+      <c r="I108" s="6"/>
     </row>
     <row r="109" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
@@ -7661,7 +7660,7 @@
       <c r="C109" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="D109" s="6" t="s">
+      <c r="D109" s="5" t="s">
         <v>333</v>
       </c>
       <c r="E109" s="2" t="s">
@@ -7676,7 +7675,7 @@
       <c r="H109" s="1">
         <v>1</v>
       </c>
-      <c r="I109" s="7"/>
+      <c r="I109" s="6"/>
     </row>
     <row r="110" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A110" s="1">
@@ -7688,7 +7687,7 @@
       <c r="C110" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="D110" s="6" t="s">
+      <c r="D110" s="5" t="s">
         <v>336</v>
       </c>
       <c r="E110" s="2" t="s">
@@ -7703,7 +7702,7 @@
       <c r="H110" s="1">
         <v>0</v>
       </c>
-      <c r="I110" s="7">
+      <c r="I110" s="6">
         <v>3</v>
       </c>
     </row>
@@ -7717,7 +7716,7 @@
       <c r="C111" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="D111" s="6" t="s">
+      <c r="D111" s="5" t="s">
         <v>339</v>
       </c>
       <c r="E111" s="2" t="s">
@@ -7732,7 +7731,7 @@
       <c r="H111" s="1">
         <v>0</v>
       </c>
-      <c r="I111" s="7">
+      <c r="I111" s="6">
         <v>2</v>
       </c>
     </row>
@@ -7746,7 +7745,7 @@
       <c r="C112" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="D112" s="6" t="s">
+      <c r="D112" s="5" t="s">
         <v>342</v>
       </c>
       <c r="E112" s="2" t="s">
@@ -7761,7 +7760,7 @@
       <c r="H112" s="1">
         <v>0</v>
       </c>
-      <c r="I112" s="7">
+      <c r="I112" s="6">
         <v>1</v>
       </c>
     </row>
@@ -7775,7 +7774,7 @@
       <c r="C113" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="D113" s="6" t="s">
+      <c r="D113" s="5" t="s">
         <v>345</v>
       </c>
       <c r="E113" s="2" t="s">
@@ -7790,7 +7789,7 @@
       <c r="H113" s="1">
         <v>1</v>
       </c>
-      <c r="I113" s="7">
+      <c r="I113" s="6">
         <v>3</v>
       </c>
     </row>
@@ -7804,7 +7803,7 @@
       <c r="C114" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="D114" s="6" t="s">
+      <c r="D114" s="5" t="s">
         <v>348</v>
       </c>
       <c r="E114" s="2" t="s">
@@ -7819,7 +7818,7 @@
       <c r="H114" s="1">
         <v>1</v>
       </c>
-      <c r="I114" s="7">
+      <c r="I114" s="6">
         <v>2</v>
       </c>
     </row>
@@ -7833,10 +7832,10 @@
       <c r="C115" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="D115" s="6" t="s">
+      <c r="D115" s="5" t="s">
         <v>677</v>
       </c>
-      <c r="E115" s="4" t="s">
+      <c r="E115" s="3" t="s">
         <v>351</v>
       </c>
       <c r="F115" s="1" t="s">
@@ -7848,7 +7847,7 @@
       <c r="H115" s="1">
         <v>1</v>
       </c>
-      <c r="I115" s="7">
+      <c r="I115" s="6">
         <v>1</v>
       </c>
     </row>
@@ -7862,22 +7861,22 @@
       <c r="C116" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="D116" s="6" t="s">
+      <c r="D116" s="5" t="s">
         <v>353</v>
       </c>
-      <c r="E116" s="8" t="s">
+      <c r="E116" s="7" t="s">
         <v>354</v>
       </c>
-      <c r="F116" s="8" t="s">
+      <c r="F116" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="G116" s="8" t="s">
+      <c r="G116" s="7" t="s">
         <v>695</v>
       </c>
-      <c r="H116" s="8">
-        <v>1</v>
-      </c>
-      <c r="I116" s="8"/>
+      <c r="H116" s="7">
+        <v>1</v>
+      </c>
+      <c r="I116" s="7"/>
     </row>
     <row r="117" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A117" s="1">
@@ -7889,7 +7888,7 @@
       <c r="C117" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="D117" s="6" t="s">
+      <c r="D117" s="5" t="s">
         <v>356</v>
       </c>
       <c r="E117" s="2" t="s">
@@ -7904,7 +7903,7 @@
       <c r="H117" s="1">
         <v>1</v>
       </c>
-      <c r="I117" s="7"/>
+      <c r="I117" s="6"/>
     </row>
     <row r="118" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A118" s="1">
@@ -7916,7 +7915,7 @@
       <c r="C118" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="D118" s="6" t="s">
+      <c r="D118" s="5" t="s">
         <v>359</v>
       </c>
       <c r="E118" s="2" t="s">
@@ -7931,7 +7930,7 @@
       <c r="H118" s="1">
         <v>1</v>
       </c>
-      <c r="I118" s="7"/>
+      <c r="I118" s="6"/>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A119" s="1">
@@ -7943,22 +7942,22 @@
       <c r="C119" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="D119" s="6" t="s">
+      <c r="D119" s="5" t="s">
         <v>362</v>
       </c>
-      <c r="E119" s="7" t="s">
+      <c r="E119" s="6" t="s">
         <v>363</v>
       </c>
-      <c r="F119" s="7" t="s">
+      <c r="F119" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="G119" s="7" t="s">
+      <c r="G119" s="6" t="s">
         <v>696</v>
       </c>
-      <c r="H119" s="7">
+      <c r="H119" s="6">
         <v>0</v>
       </c>
-      <c r="I119" s="7">
+      <c r="I119" s="6">
         <v>1</v>
       </c>
     </row>
@@ -7972,7 +7971,7 @@
       <c r="C120" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="D120" s="6" t="s">
+      <c r="D120" s="5" t="s">
         <v>365</v>
       </c>
       <c r="E120" s="2" t="s">
@@ -7987,7 +7986,7 @@
       <c r="H120" s="1">
         <v>0</v>
       </c>
-      <c r="I120" s="7">
+      <c r="I120" s="6">
         <v>2</v>
       </c>
     </row>
@@ -8001,7 +8000,7 @@
       <c r="C121" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="D121" s="6" t="s">
+      <c r="D121" s="5" t="s">
         <v>678</v>
       </c>
       <c r="E121" s="2" t="s">
@@ -8016,7 +8015,7 @@
       <c r="H121" s="1">
         <v>0</v>
       </c>
-      <c r="I121" s="7">
+      <c r="I121" s="6">
         <v>3</v>
       </c>
     </row>
@@ -8030,22 +8029,22 @@
       <c r="C122" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="D122" s="6" t="s">
+      <c r="D122" s="5" t="s">
         <v>370</v>
       </c>
-      <c r="E122" s="8" t="s">
+      <c r="E122" s="7" t="s">
         <v>371</v>
       </c>
-      <c r="F122" s="8" t="s">
+      <c r="F122" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="G122" s="8" t="s">
+      <c r="G122" s="7" t="s">
         <v>696</v>
       </c>
-      <c r="H122" s="8">
-        <v>1</v>
-      </c>
-      <c r="I122" s="8">
+      <c r="H122" s="7">
+        <v>1</v>
+      </c>
+      <c r="I122" s="7">
         <v>2</v>
       </c>
     </row>
@@ -8059,7 +8058,7 @@
       <c r="C123" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="D123" s="6" t="s">
+      <c r="D123" s="5" t="s">
         <v>373</v>
       </c>
       <c r="E123" s="2" t="s">
@@ -8074,7 +8073,7 @@
       <c r="H123" s="1">
         <v>1</v>
       </c>
-      <c r="I123" s="7">
+      <c r="I123" s="6">
         <v>3</v>
       </c>
     </row>
@@ -8088,7 +8087,7 @@
       <c r="C124" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="D124" s="6" t="s">
+      <c r="D124" s="5" t="s">
         <v>376</v>
       </c>
       <c r="E124" s="2" t="s">
@@ -8103,7 +8102,7 @@
       <c r="H124" s="1">
         <v>1</v>
       </c>
-      <c r="I124" s="7">
+      <c r="I124" s="6">
         <v>1</v>
       </c>
     </row>
@@ -8114,10 +8113,10 @@
       <c r="B125" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="C125" s="5" t="s">
+      <c r="C125" s="4" t="s">
         <v>378</v>
       </c>
-      <c r="D125" s="6" t="s">
+      <c r="D125" s="5" t="s">
         <v>679</v>
       </c>
       <c r="E125" s="2" t="s">
@@ -8132,7 +8131,7 @@
       <c r="H125" s="1">
         <v>1</v>
       </c>
-      <c r="I125" s="7"/>
+      <c r="I125" s="6"/>
     </row>
     <row r="126" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A126" s="1">
@@ -8144,7 +8143,7 @@
       <c r="C126" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="D126" s="6" t="s">
+      <c r="D126" s="5" t="s">
         <v>680</v>
       </c>
       <c r="E126" s="2" t="s">
@@ -8159,7 +8158,7 @@
       <c r="H126" s="1">
         <v>1</v>
       </c>
-      <c r="I126" s="7"/>
+      <c r="I126" s="6"/>
     </row>
     <row r="127" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A127" s="1">
@@ -8171,7 +8170,7 @@
       <c r="C127" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="D127" s="6" t="s">
+      <c r="D127" s="5" t="s">
         <v>383</v>
       </c>
       <c r="E127" s="2" t="s">
@@ -8186,7 +8185,7 @@
       <c r="H127" s="1">
         <v>1</v>
       </c>
-      <c r="I127" s="7"/>
+      <c r="I127" s="6"/>
     </row>
     <row r="128" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A128" s="1">
@@ -8198,7 +8197,7 @@
       <c r="C128" s="1" t="s">
         <v>385</v>
       </c>
-      <c r="D128" s="6" t="s">
+      <c r="D128" s="5" t="s">
         <v>386</v>
       </c>
       <c r="E128" s="2" t="s">
@@ -8213,7 +8212,7 @@
       <c r="H128" s="1">
         <v>0</v>
       </c>
-      <c r="I128" s="7">
+      <c r="I128" s="6">
         <v>2</v>
       </c>
     </row>
@@ -8227,7 +8226,7 @@
       <c r="C129" s="1" t="s">
         <v>388</v>
       </c>
-      <c r="D129" s="6" t="s">
+      <c r="D129" s="5" t="s">
         <v>389</v>
       </c>
       <c r="E129" s="2" t="s">
@@ -8242,7 +8241,7 @@
       <c r="H129" s="1">
         <v>0</v>
       </c>
-      <c r="I129" s="7">
+      <c r="I129" s="6">
         <v>1</v>
       </c>
     </row>
@@ -8256,7 +8255,7 @@
       <c r="C130" s="1" t="s">
         <v>391</v>
       </c>
-      <c r="D130" s="6" t="s">
+      <c r="D130" s="5" t="s">
         <v>392</v>
       </c>
       <c r="E130" s="2" t="s">
@@ -8271,7 +8270,7 @@
       <c r="H130" s="1">
         <v>0</v>
       </c>
-      <c r="I130" s="7">
+      <c r="I130" s="6">
         <v>3</v>
       </c>
     </row>
@@ -8285,7 +8284,7 @@
       <c r="C131" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="D131" s="6" t="s">
+      <c r="D131" s="5" t="s">
         <v>395</v>
       </c>
       <c r="E131" s="2" t="s">
@@ -8300,7 +8299,7 @@
       <c r="H131" s="1">
         <v>1</v>
       </c>
-      <c r="I131" s="7">
+      <c r="I131" s="6">
         <v>3</v>
       </c>
     </row>
@@ -8314,7 +8313,7 @@
       <c r="C132" s="1" t="s">
         <v>397</v>
       </c>
-      <c r="D132" s="6" t="s">
+      <c r="D132" s="5" t="s">
         <v>398</v>
       </c>
       <c r="E132" s="2" t="s">
@@ -8329,7 +8328,7 @@
       <c r="H132" s="1">
         <v>1</v>
       </c>
-      <c r="I132" s="7">
+      <c r="I132" s="6">
         <v>1</v>
       </c>
     </row>
@@ -8343,7 +8342,7 @@
       <c r="C133" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="D133" s="6" t="s">
+      <c r="D133" s="5" t="s">
         <v>401</v>
       </c>
       <c r="E133" s="2" t="s">
@@ -8358,7 +8357,7 @@
       <c r="H133" s="1">
         <v>1</v>
       </c>
-      <c r="I133" s="7">
+      <c r="I133" s="6">
         <v>2</v>
       </c>
     </row>
@@ -8372,7 +8371,7 @@
       <c r="C134" s="1" t="s">
         <v>403</v>
       </c>
-      <c r="D134" s="6" t="s">
+      <c r="D134" s="5" t="s">
         <v>404</v>
       </c>
       <c r="E134" s="2" t="s">
@@ -8387,7 +8386,7 @@
       <c r="H134" s="1">
         <v>1</v>
       </c>
-      <c r="I134" s="7"/>
+      <c r="I134" s="6"/>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A135" s="1">
@@ -8399,22 +8398,22 @@
       <c r="C135" s="1" t="s">
         <v>406</v>
       </c>
-      <c r="D135" s="6" t="s">
+      <c r="D135" s="5" t="s">
         <v>407</v>
       </c>
-      <c r="E135" s="4" t="s">
+      <c r="E135" s="3" t="s">
         <v>408</v>
       </c>
-      <c r="F135" s="5" t="s">
+      <c r="F135" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="G135" s="5" t="s">
+      <c r="G135" s="4" t="s">
         <v>697</v>
       </c>
-      <c r="H135" s="5">
-        <v>1</v>
-      </c>
-      <c r="I135" s="7"/>
+      <c r="H135" s="4">
+        <v>1</v>
+      </c>
+      <c r="I135" s="6"/>
     </row>
     <row r="136" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A136" s="1">
@@ -8426,7 +8425,7 @@
       <c r="C136" s="1" t="s">
         <v>409</v>
       </c>
-      <c r="D136" s="6" t="s">
+      <c r="D136" s="5" t="s">
         <v>410</v>
       </c>
       <c r="E136" s="2" t="s">
@@ -8441,7 +8440,7 @@
       <c r="H136" s="1">
         <v>1</v>
       </c>
-      <c r="I136" s="7"/>
+      <c r="I136" s="6"/>
     </row>
     <row r="137" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A137" s="1">
@@ -8453,7 +8452,7 @@
       <c r="C137" s="1" t="s">
         <v>412</v>
       </c>
-      <c r="D137" s="6" t="s">
+      <c r="D137" s="5" t="s">
         <v>413</v>
       </c>
       <c r="E137" s="2" t="s">
@@ -8468,7 +8467,7 @@
       <c r="H137" s="1">
         <v>0</v>
       </c>
-      <c r="I137" s="7">
+      <c r="I137" s="6">
         <v>1</v>
       </c>
     </row>
@@ -8482,7 +8481,7 @@
       <c r="C138" s="1" t="s">
         <v>415</v>
       </c>
-      <c r="D138" s="6" t="s">
+      <c r="D138" s="5" t="s">
         <v>416</v>
       </c>
       <c r="E138" s="2" t="s">
@@ -8497,7 +8496,7 @@
       <c r="H138" s="1">
         <v>0</v>
       </c>
-      <c r="I138" s="7">
+      <c r="I138" s="6">
         <v>2</v>
       </c>
     </row>
@@ -8511,22 +8510,22 @@
       <c r="C139" s="1" t="s">
         <v>418</v>
       </c>
-      <c r="D139" s="6" t="s">
+      <c r="D139" s="5" t="s">
         <v>419</v>
       </c>
-      <c r="E139" s="4" t="s">
+      <c r="E139" s="3" t="s">
         <v>420</v>
       </c>
-      <c r="F139" s="5" t="s">
+      <c r="F139" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="G139" s="5" t="s">
+      <c r="G139" s="4" t="s">
         <v>698</v>
       </c>
-      <c r="H139" s="5">
+      <c r="H139" s="4">
         <v>0</v>
       </c>
-      <c r="I139" s="7"/>
+      <c r="I139" s="6"/>
     </row>
     <row r="140" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A140" s="1">
@@ -8538,7 +8537,7 @@
       <c r="C140" s="1" t="s">
         <v>421</v>
       </c>
-      <c r="D140" s="6" t="s">
+      <c r="D140" s="5" t="s">
         <v>422</v>
       </c>
       <c r="E140" s="2" t="s">
@@ -8553,7 +8552,7 @@
       <c r="H140" s="1">
         <v>1</v>
       </c>
-      <c r="I140" s="7">
+      <c r="I140" s="6">
         <v>1</v>
       </c>
     </row>
@@ -8567,7 +8566,7 @@
       <c r="C141" s="1" t="s">
         <v>424</v>
       </c>
-      <c r="D141" s="6" t="s">
+      <c r="D141" s="5" t="s">
         <v>425</v>
       </c>
       <c r="E141" s="2" t="s">
@@ -8582,7 +8581,7 @@
       <c r="H141" s="1">
         <v>1</v>
       </c>
-      <c r="I141" s="7">
+      <c r="I141" s="6">
         <v>2</v>
       </c>
     </row>
@@ -8596,7 +8595,7 @@
       <c r="C142" s="1" t="s">
         <v>427</v>
       </c>
-      <c r="D142" s="6" t="s">
+      <c r="D142" s="5" t="s">
         <v>428</v>
       </c>
       <c r="E142" s="2" t="s">
@@ -8611,7 +8610,7 @@
       <c r="H142" s="1">
         <v>1</v>
       </c>
-      <c r="I142" s="7"/>
+      <c r="I142" s="6"/>
     </row>
     <row r="143" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A143" s="1">
@@ -8623,7 +8622,7 @@
       <c r="C143" s="1" t="s">
         <v>430</v>
       </c>
-      <c r="D143" s="6" t="s">
+      <c r="D143" s="5" t="s">
         <v>431</v>
       </c>
       <c r="E143" s="2" t="s">
@@ -8638,7 +8637,7 @@
       <c r="H143" s="1">
         <v>1</v>
       </c>
-      <c r="I143" s="7"/>
+      <c r="I143" s="6"/>
     </row>
     <row r="144" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A144" s="1">
@@ -8650,7 +8649,7 @@
       <c r="C144" s="1" t="s">
         <v>432</v>
       </c>
-      <c r="D144" s="6" t="s">
+      <c r="D144" s="5" t="s">
         <v>433</v>
       </c>
       <c r="E144" s="2" t="s">
@@ -8665,7 +8664,7 @@
       <c r="H144" s="1">
         <v>1</v>
       </c>
-      <c r="I144" s="7"/>
+      <c r="I144" s="6"/>
     </row>
     <row r="145" spans="1:9" ht="30" x14ac:dyDescent="0.2">
       <c r="A145" s="1">
@@ -8677,7 +8676,7 @@
       <c r="C145" s="1" t="s">
         <v>435</v>
       </c>
-      <c r="D145" s="6" t="s">
+      <c r="D145" s="5" t="s">
         <v>681</v>
       </c>
       <c r="E145" s="2" t="s">
@@ -8692,7 +8691,7 @@
       <c r="H145" s="1">
         <v>1</v>
       </c>
-      <c r="I145" s="7"/>
+      <c r="I145" s="6"/>
     </row>
     <row r="146" spans="1:9" ht="30" x14ac:dyDescent="0.2">
       <c r="A146" s="1">
@@ -8704,7 +8703,7 @@
       <c r="C146" s="1" t="s">
         <v>437</v>
       </c>
-      <c r="D146" s="6" t="s">
+      <c r="D146" s="5" t="s">
         <v>682</v>
       </c>
       <c r="E146" s="2" t="s">
@@ -8719,7 +8718,7 @@
       <c r="H146" s="1">
         <v>0</v>
       </c>
-      <c r="I146" s="7">
+      <c r="I146" s="6">
         <v>1</v>
       </c>
     </row>
@@ -8733,7 +8732,7 @@
       <c r="C147" s="1" t="s">
         <v>439</v>
       </c>
-      <c r="D147" s="6" t="s">
+      <c r="D147" s="5" t="s">
         <v>683</v>
       </c>
       <c r="E147" s="2" t="s">
@@ -8748,7 +8747,7 @@
       <c r="H147" s="1">
         <v>0</v>
       </c>
-      <c r="I147" s="7">
+      <c r="I147" s="6">
         <v>3</v>
       </c>
     </row>
@@ -8762,7 +8761,7 @@
       <c r="C148" s="1" t="s">
         <v>441</v>
       </c>
-      <c r="D148" s="6" t="s">
+      <c r="D148" s="5" t="s">
         <v>442</v>
       </c>
       <c r="E148" s="2" t="s">
@@ -8777,7 +8776,7 @@
       <c r="H148" s="1">
         <v>0</v>
       </c>
-      <c r="I148" s="7">
+      <c r="I148" s="6">
         <v>2</v>
       </c>
     </row>
@@ -8791,7 +8790,7 @@
       <c r="C149" s="1" t="s">
         <v>444</v>
       </c>
-      <c r="D149" s="6" t="s">
+      <c r="D149" s="5" t="s">
         <v>445</v>
       </c>
       <c r="E149" s="2" t="s">
@@ -8806,7 +8805,7 @@
       <c r="H149" s="1">
         <v>1</v>
       </c>
-      <c r="I149" s="7">
+      <c r="I149" s="6">
         <v>2</v>
       </c>
     </row>
@@ -8820,7 +8819,7 @@
       <c r="C150" s="1" t="s">
         <v>447</v>
       </c>
-      <c r="D150" s="6" t="s">
+      <c r="D150" s="5" t="s">
         <v>448</v>
       </c>
       <c r="E150" s="2" t="s">
@@ -8835,7 +8834,7 @@
       <c r="H150" s="1">
         <v>1</v>
       </c>
-      <c r="I150" s="7">
+      <c r="I150" s="6">
         <v>1</v>
       </c>
     </row>
@@ -8849,7 +8848,7 @@
       <c r="C151" s="1" t="s">
         <v>450</v>
       </c>
-      <c r="D151" s="6" t="s">
+      <c r="D151" s="5" t="s">
         <v>451</v>
       </c>
       <c r="E151" s="2" t="s">
@@ -8864,7 +8863,7 @@
       <c r="H151" s="1">
         <v>1</v>
       </c>
-      <c r="I151" s="7">
+      <c r="I151" s="6">
         <v>3</v>
       </c>
     </row>
@@ -8878,7 +8877,7 @@
       <c r="C152" s="1" t="s">
         <v>453</v>
       </c>
-      <c r="D152" s="6" t="s">
+      <c r="D152" s="5" t="s">
         <v>684</v>
       </c>
       <c r="E152" s="2" t="s">
@@ -8893,7 +8892,7 @@
       <c r="H152" s="1">
         <v>1</v>
       </c>
-      <c r="I152" s="7"/>
+      <c r="I152" s="6"/>
     </row>
     <row r="153" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A153" s="1">
@@ -8905,7 +8904,7 @@
       <c r="C153" s="1" t="s">
         <v>455</v>
       </c>
-      <c r="D153" s="6" t="s">
+      <c r="D153" s="5" t="s">
         <v>685</v>
       </c>
       <c r="E153" s="2" t="s">
@@ -8920,7 +8919,7 @@
       <c r="H153" s="1">
         <v>1</v>
       </c>
-      <c r="I153" s="7"/>
+      <c r="I153" s="6"/>
     </row>
     <row r="154" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A154" s="1">
@@ -8932,7 +8931,7 @@
       <c r="C154" s="1" t="s">
         <v>457</v>
       </c>
-      <c r="D154" s="6" t="s">
+      <c r="D154" s="5" t="s">
         <v>686</v>
       </c>
       <c r="E154" s="2" t="s">
@@ -8947,7 +8946,7 @@
       <c r="H154" s="1">
         <v>1</v>
       </c>
-      <c r="I154" s="7"/>
+      <c r="I154" s="6"/>
     </row>
     <row r="155" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A155" s="1">
@@ -8959,7 +8958,7 @@
       <c r="C155" s="1" t="s">
         <v>459</v>
       </c>
-      <c r="D155" s="6" t="s">
+      <c r="D155" s="5" t="s">
         <v>687</v>
       </c>
       <c r="E155" s="2" t="s">
@@ -8974,7 +8973,7 @@
       <c r="H155" s="1">
         <v>0</v>
       </c>
-      <c r="I155" s="7">
+      <c r="I155" s="6">
         <v>2</v>
       </c>
     </row>
@@ -8988,7 +8987,7 @@
       <c r="C156" s="1" t="s">
         <v>461</v>
       </c>
-      <c r="D156" s="6" t="s">
+      <c r="D156" s="5" t="s">
         <v>462</v>
       </c>
       <c r="E156" s="2" t="s">
@@ -9003,7 +9002,7 @@
       <c r="H156" s="1">
         <v>0</v>
       </c>
-      <c r="I156" s="7">
+      <c r="I156" s="6">
         <v>1</v>
       </c>
     </row>
@@ -9017,7 +9016,7 @@
       <c r="C157" s="1" t="s">
         <v>464</v>
       </c>
-      <c r="D157" s="6" t="s">
+      <c r="D157" s="5" t="s">
         <v>465</v>
       </c>
       <c r="E157" s="2" t="s">
@@ -9032,7 +9031,7 @@
       <c r="H157" s="1">
         <v>0</v>
       </c>
-      <c r="I157" s="7">
+      <c r="I157" s="6">
         <v>3</v>
       </c>
     </row>
@@ -9046,7 +9045,7 @@
       <c r="C158" s="1" t="s">
         <v>467</v>
       </c>
-      <c r="D158" s="6" t="s">
+      <c r="D158" s="5" t="s">
         <v>468</v>
       </c>
       <c r="E158" s="2" t="s">
@@ -9061,7 +9060,7 @@
       <c r="H158" s="1">
         <v>1</v>
       </c>
-      <c r="I158" s="7">
+      <c r="I158" s="6">
         <v>2</v>
       </c>
     </row>
@@ -9075,7 +9074,7 @@
       <c r="C159" s="1" t="s">
         <v>470</v>
       </c>
-      <c r="D159" s="6" t="s">
+      <c r="D159" s="5" t="s">
         <v>471</v>
       </c>
       <c r="E159" s="2" t="s">
@@ -9090,7 +9089,7 @@
       <c r="H159" s="1">
         <v>1</v>
       </c>
-      <c r="I159" s="7">
+      <c r="I159" s="6">
         <v>1</v>
       </c>
     </row>
@@ -9104,7 +9103,7 @@
       <c r="C160" s="1" t="s">
         <v>473</v>
       </c>
-      <c r="D160" s="6" t="s">
+      <c r="D160" s="5" t="s">
         <v>474</v>
       </c>
       <c r="E160" s="2" t="s">
@@ -9119,7 +9118,7 @@
       <c r="H160" s="1">
         <v>1</v>
       </c>
-      <c r="I160" s="7">
+      <c r="I160" s="6">
         <v>3</v>
       </c>
     </row>
@@ -9133,7 +9132,7 @@
       <c r="C161" s="1" t="s">
         <v>476</v>
       </c>
-      <c r="D161" s="6" t="s">
+      <c r="D161" s="5" t="s">
         <v>477</v>
       </c>
       <c r="E161" s="2" t="s">
@@ -9148,7 +9147,7 @@
       <c r="H161" s="1">
         <v>1</v>
       </c>
-      <c r="I161" s="7"/>
+      <c r="I161" s="6"/>
     </row>
     <row r="162" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A162" s="1">
@@ -9160,7 +9159,7 @@
       <c r="C162" s="1" t="s">
         <v>479</v>
       </c>
-      <c r="D162" s="6" t="s">
+      <c r="D162" s="5" t="s">
         <v>480</v>
       </c>
       <c r="E162" s="2" t="s">
@@ -9175,7 +9174,7 @@
       <c r="H162" s="1">
         <v>1</v>
       </c>
-      <c r="I162" s="7"/>
+      <c r="I162" s="6"/>
     </row>
     <row r="163" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A163" s="1">
@@ -9187,10 +9186,10 @@
       <c r="C163" s="1" t="s">
         <v>482</v>
       </c>
-      <c r="D163" s="6" t="s">
+      <c r="D163" s="5" t="s">
         <v>483</v>
       </c>
-      <c r="E163" s="4" t="s">
+      <c r="E163" s="3" t="s">
         <v>484</v>
       </c>
       <c r="F163" s="1" t="s">
@@ -9202,7 +9201,7 @@
       <c r="H163" s="1">
         <v>1</v>
       </c>
-      <c r="I163" s="7"/>
+      <c r="I163" s="6"/>
     </row>
     <row r="164" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A164" s="1">
@@ -9214,7 +9213,7 @@
       <c r="C164" s="1" t="s">
         <v>485</v>
       </c>
-      <c r="D164" s="6" t="s">
+      <c r="D164" s="5" t="s">
         <v>486</v>
       </c>
       <c r="E164" s="2" t="s">
@@ -9229,7 +9228,7 @@
       <c r="H164" s="1">
         <v>0</v>
       </c>
-      <c r="I164" s="7">
+      <c r="I164" s="6">
         <v>1</v>
       </c>
     </row>
@@ -9243,7 +9242,7 @@
       <c r="C165" s="1" t="s">
         <v>488</v>
       </c>
-      <c r="D165" s="6" t="s">
+      <c r="D165" s="5" t="s">
         <v>489</v>
       </c>
       <c r="E165" s="2" t="s">
@@ -9258,7 +9257,7 @@
       <c r="H165" s="1">
         <v>0</v>
       </c>
-      <c r="I165" s="7">
+      <c r="I165" s="6">
         <v>2</v>
       </c>
     </row>
@@ -9272,7 +9271,7 @@
       <c r="C166" s="1" t="s">
         <v>491</v>
       </c>
-      <c r="D166" s="6" t="s">
+      <c r="D166" s="5" t="s">
         <v>492</v>
       </c>
       <c r="E166" s="2" t="s">
@@ -9287,7 +9286,7 @@
       <c r="H166" s="1">
         <v>0</v>
       </c>
-      <c r="I166" s="7"/>
+      <c r="I166" s="6"/>
     </row>
     <row r="167" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A167" s="1">
@@ -9299,7 +9298,7 @@
       <c r="C167" s="1" t="s">
         <v>494</v>
       </c>
-      <c r="D167" s="6" t="s">
+      <c r="D167" s="5" t="s">
         <v>495</v>
       </c>
       <c r="E167" s="2" t="s">
@@ -9314,7 +9313,7 @@
       <c r="H167" s="1">
         <v>1</v>
       </c>
-      <c r="I167" s="7">
+      <c r="I167" s="6">
         <v>1</v>
       </c>
     </row>
@@ -9328,7 +9327,7 @@
       <c r="C168" s="1" t="s">
         <v>497</v>
       </c>
-      <c r="D168" s="6" t="s">
+      <c r="D168" s="5" t="s">
         <v>498</v>
       </c>
       <c r="E168" s="2" t="s">
@@ -9343,7 +9342,7 @@
       <c r="H168" s="1">
         <v>1</v>
       </c>
-      <c r="I168" s="7">
+      <c r="I168" s="6">
         <v>2</v>
       </c>
     </row>
@@ -9357,7 +9356,7 @@
       <c r="C169" s="1" t="s">
         <v>500</v>
       </c>
-      <c r="D169" s="6" t="s">
+      <c r="D169" s="5" t="s">
         <v>501</v>
       </c>
       <c r="E169" s="2" t="s">
@@ -9372,7 +9371,7 @@
       <c r="H169" s="1">
         <v>1</v>
       </c>
-      <c r="I169" s="7"/>
+      <c r="I169" s="6"/>
     </row>
     <row r="170" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A170" s="1">
@@ -9384,7 +9383,7 @@
       <c r="C170" s="1" t="s">
         <v>503</v>
       </c>
-      <c r="D170" s="6" t="s">
+      <c r="D170" s="5" t="s">
         <v>504</v>
       </c>
       <c r="E170" s="2" t="s">
@@ -9399,7 +9398,7 @@
       <c r="H170" s="1">
         <v>1</v>
       </c>
-      <c r="I170" s="7"/>
+      <c r="I170" s="6"/>
     </row>
     <row r="171" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A171" s="1">
@@ -9411,7 +9410,7 @@
       <c r="C171" s="1" t="s">
         <v>506</v>
       </c>
-      <c r="D171" s="6" t="s">
+      <c r="D171" s="5" t="s">
         <v>507</v>
       </c>
       <c r="E171" s="2" t="s">
@@ -9426,7 +9425,7 @@
       <c r="H171" s="1">
         <v>1</v>
       </c>
-      <c r="I171" s="7"/>
+      <c r="I171" s="6"/>
     </row>
     <row r="172" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A172" s="1">
@@ -9438,7 +9437,7 @@
       <c r="C172" s="1" t="s">
         <v>509</v>
       </c>
-      <c r="D172" s="6" t="s">
+      <c r="D172" s="5" t="s">
         <v>510</v>
       </c>
       <c r="E172" s="2" t="s">
@@ -9453,7 +9452,7 @@
       <c r="H172" s="1">
         <v>1</v>
       </c>
-      <c r="I172" s="7"/>
+      <c r="I172" s="6"/>
     </row>
     <row r="173" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A173" s="1">
@@ -9465,7 +9464,7 @@
       <c r="C173" s="1" t="s">
         <v>512</v>
       </c>
-      <c r="D173" s="6" t="s">
+      <c r="D173" s="5" t="s">
         <v>513</v>
       </c>
       <c r="E173" s="2" t="s">
@@ -9480,7 +9479,7 @@
       <c r="H173" s="1">
         <v>0</v>
       </c>
-      <c r="I173" s="7">
+      <c r="I173" s="6">
         <v>1</v>
       </c>
     </row>
@@ -9494,7 +9493,7 @@
       <c r="C174" s="1" t="s">
         <v>515</v>
       </c>
-      <c r="D174" s="6" t="s">
+      <c r="D174" s="5" t="s">
         <v>516</v>
       </c>
       <c r="E174" s="2" t="s">
@@ -9509,7 +9508,7 @@
       <c r="H174" s="1">
         <v>0</v>
       </c>
-      <c r="I174" s="7">
+      <c r="I174" s="6">
         <v>2</v>
       </c>
     </row>
@@ -9523,7 +9522,7 @@
       <c r="C175" s="1" t="s">
         <v>518</v>
       </c>
-      <c r="D175" s="6" t="s">
+      <c r="D175" s="5" t="s">
         <v>519</v>
       </c>
       <c r="E175" s="2" t="s">
@@ -9538,7 +9537,7 @@
       <c r="H175" s="1">
         <v>0</v>
       </c>
-      <c r="I175" s="7">
+      <c r="I175" s="6">
         <v>3</v>
       </c>
     </row>
@@ -9552,7 +9551,7 @@
       <c r="C176" s="1" t="s">
         <v>521</v>
       </c>
-      <c r="D176" s="6" t="s">
+      <c r="D176" s="5" t="s">
         <v>522</v>
       </c>
       <c r="E176" s="2" t="s">
@@ -9567,7 +9566,7 @@
       <c r="H176" s="1">
         <v>1</v>
       </c>
-      <c r="I176" s="7">
+      <c r="I176" s="6">
         <v>1</v>
       </c>
     </row>
@@ -9581,7 +9580,7 @@
       <c r="C177" s="1" t="s">
         <v>524</v>
       </c>
-      <c r="D177" s="6" t="s">
+      <c r="D177" s="5" t="s">
         <v>525</v>
       </c>
       <c r="E177" s="2" t="s">
@@ -9596,7 +9595,7 @@
       <c r="H177" s="1">
         <v>1</v>
       </c>
-      <c r="I177" s="7">
+      <c r="I177" s="6">
         <v>2</v>
       </c>
     </row>
@@ -9610,7 +9609,7 @@
       <c r="C178" s="1" t="s">
         <v>527</v>
       </c>
-      <c r="D178" s="6" t="s">
+      <c r="D178" s="5" t="s">
         <v>528</v>
       </c>
       <c r="E178" s="2" t="s">
@@ -9625,7 +9624,7 @@
       <c r="H178" s="1">
         <v>1</v>
       </c>
-      <c r="I178" s="7">
+      <c r="I178" s="6">
         <v>3</v>
       </c>
     </row>
@@ -9639,7 +9638,7 @@
       <c r="C179" s="1" t="s">
         <v>530</v>
       </c>
-      <c r="D179" s="6" t="s">
+      <c r="D179" s="5" t="s">
         <v>531</v>
       </c>
       <c r="E179" s="2" t="s">
@@ -9654,7 +9653,7 @@
       <c r="H179" s="1">
         <v>1</v>
       </c>
-      <c r="I179" s="7"/>
+      <c r="I179" s="6"/>
     </row>
     <row r="180" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A180" s="1">
@@ -9666,7 +9665,7 @@
       <c r="C180" s="1" t="s">
         <v>533</v>
       </c>
-      <c r="D180" s="6" t="s">
+      <c r="D180" s="5" t="s">
         <v>534</v>
       </c>
       <c r="E180" s="2" t="s">
@@ -9681,7 +9680,7 @@
       <c r="H180" s="1">
         <v>1</v>
       </c>
-      <c r="I180" s="7"/>
+      <c r="I180" s="6"/>
     </row>
     <row r="181" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A181" s="1">
@@ -9693,7 +9692,7 @@
       <c r="C181" s="1" t="s">
         <v>536</v>
       </c>
-      <c r="D181" s="6" t="s">
+      <c r="D181" s="5" t="s">
         <v>537</v>
       </c>
       <c r="E181" s="2" t="s">
@@ -9708,7 +9707,7 @@
       <c r="H181" s="1">
         <v>1</v>
       </c>
-      <c r="I181" s="7"/>
+      <c r="I181" s="6"/>
     </row>
     <row r="182" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A182" s="1">
@@ -9720,7 +9719,7 @@
       <c r="C182" s="1" t="s">
         <v>539</v>
       </c>
-      <c r="D182" s="6" t="s">
+      <c r="D182" s="5" t="s">
         <v>540</v>
       </c>
       <c r="E182" s="2" t="s">
@@ -9735,7 +9734,7 @@
       <c r="H182" s="1">
         <v>0</v>
       </c>
-      <c r="I182" s="7">
+      <c r="I182" s="6">
         <v>1</v>
       </c>
     </row>
@@ -9749,7 +9748,7 @@
       <c r="C183" s="1" t="s">
         <v>542</v>
       </c>
-      <c r="D183" s="6" t="s">
+      <c r="D183" s="5" t="s">
         <v>543</v>
       </c>
       <c r="E183" s="2" t="s">
@@ -9764,7 +9763,7 @@
       <c r="H183" s="1">
         <v>0</v>
       </c>
-      <c r="I183" s="7">
+      <c r="I183" s="6">
         <v>2</v>
       </c>
     </row>
@@ -9778,7 +9777,7 @@
       <c r="C184" s="1" t="s">
         <v>545</v>
       </c>
-      <c r="D184" s="6" t="s">
+      <c r="D184" s="5" t="s">
         <v>546</v>
       </c>
       <c r="E184" s="2" t="s">
@@ -9793,7 +9792,7 @@
       <c r="H184" s="1">
         <v>0</v>
       </c>
-      <c r="I184" s="7">
+      <c r="I184" s="6">
         <v>3</v>
       </c>
     </row>
@@ -9807,7 +9806,7 @@
       <c r="C185" s="1" t="s">
         <v>548</v>
       </c>
-      <c r="D185" s="6" t="s">
+      <c r="D185" s="5" t="s">
         <v>549</v>
       </c>
       <c r="E185" s="2" t="s">
@@ -9822,7 +9821,7 @@
       <c r="H185" s="1">
         <v>1</v>
       </c>
-      <c r="I185" s="7">
+      <c r="I185" s="6">
         <v>1</v>
       </c>
     </row>
@@ -9836,7 +9835,7 @@
       <c r="C186" s="1" t="s">
         <v>551</v>
       </c>
-      <c r="D186" s="6" t="s">
+      <c r="D186" s="5" t="s">
         <v>688</v>
       </c>
       <c r="E186" s="2" t="s">
@@ -9851,7 +9850,7 @@
       <c r="H186" s="1">
         <v>1</v>
       </c>
-      <c r="I186" s="7">
+      <c r="I186" s="6">
         <v>2</v>
       </c>
     </row>
@@ -9865,7 +9864,7 @@
       <c r="C187" s="1" t="s">
         <v>553</v>
       </c>
-      <c r="D187" s="6" t="s">
+      <c r="D187" s="5" t="s">
         <v>554</v>
       </c>
       <c r="E187" s="2" t="s">
@@ -9880,7 +9879,7 @@
       <c r="H187" s="1">
         <v>1</v>
       </c>
-      <c r="I187" s="7">
+      <c r="I187" s="6">
         <v>3</v>
       </c>
     </row>
@@ -9894,7 +9893,7 @@
       <c r="C188" s="1" t="s">
         <v>556</v>
       </c>
-      <c r="D188" s="6" t="s">
+      <c r="D188" s="5" t="s">
         <v>557</v>
       </c>
       <c r="E188" s="2" t="s">
@@ -9909,7 +9908,7 @@
       <c r="H188" s="1">
         <v>1</v>
       </c>
-      <c r="I188" s="7"/>
+      <c r="I188" s="6"/>
     </row>
     <row r="189" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A189" s="1">
@@ -9921,7 +9920,7 @@
       <c r="C189" s="1" t="s">
         <v>559</v>
       </c>
-      <c r="D189" s="6" t="s">
+      <c r="D189" s="5" t="s">
         <v>560</v>
       </c>
       <c r="E189" s="2" t="s">
@@ -9936,7 +9935,7 @@
       <c r="H189" s="1">
         <v>1</v>
       </c>
-      <c r="I189" s="7"/>
+      <c r="I189" s="6"/>
     </row>
     <row r="190" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A190" s="1">
@@ -9948,7 +9947,7 @@
       <c r="C190" s="1" t="s">
         <v>562</v>
       </c>
-      <c r="D190" s="6" t="s">
+      <c r="D190" s="5" t="s">
         <v>563</v>
       </c>
       <c r="E190" s="2" t="s">
@@ -9963,7 +9962,7 @@
       <c r="H190" s="1">
         <v>1</v>
       </c>
-      <c r="I190" s="7"/>
+      <c r="I190" s="6"/>
     </row>
     <row r="191" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A191" s="1">
@@ -9975,7 +9974,7 @@
       <c r="C191" s="1" t="s">
         <v>565</v>
       </c>
-      <c r="D191" s="6" t="s">
+      <c r="D191" s="5" t="s">
         <v>566</v>
       </c>
       <c r="E191" s="2" t="s">
@@ -9990,7 +9989,7 @@
       <c r="H191" s="1">
         <v>0</v>
       </c>
-      <c r="I191" s="7">
+      <c r="I191" s="6">
         <v>1</v>
       </c>
     </row>
@@ -10004,7 +10003,7 @@
       <c r="C192" s="1" t="s">
         <v>568</v>
       </c>
-      <c r="D192" s="6" t="s">
+      <c r="D192" s="5" t="s">
         <v>569</v>
       </c>
       <c r="E192" s="2" t="s">
@@ -10019,7 +10018,7 @@
       <c r="H192" s="1">
         <v>0</v>
       </c>
-      <c r="I192" s="7">
+      <c r="I192" s="6">
         <v>2</v>
       </c>
     </row>
@@ -10033,7 +10032,7 @@
       <c r="C193" s="1" t="s">
         <v>571</v>
       </c>
-      <c r="D193" s="6" t="s">
+      <c r="D193" s="5" t="s">
         <v>572</v>
       </c>
       <c r="E193" s="2" t="s">
@@ -10048,7 +10047,7 @@
       <c r="H193" s="1">
         <v>0</v>
       </c>
-      <c r="I193" s="7">
+      <c r="I193" s="6">
         <v>3</v>
       </c>
     </row>
@@ -10062,7 +10061,7 @@
       <c r="C194" s="1" t="s">
         <v>574</v>
       </c>
-      <c r="D194" s="6" t="s">
+      <c r="D194" s="5" t="s">
         <v>575</v>
       </c>
       <c r="E194" s="2" t="s">
@@ -10077,7 +10076,7 @@
       <c r="H194" s="1">
         <v>1</v>
       </c>
-      <c r="I194" s="7">
+      <c r="I194" s="6">
         <v>1</v>
       </c>
     </row>
@@ -10091,7 +10090,7 @@
       <c r="C195" s="1" t="s">
         <v>577</v>
       </c>
-      <c r="D195" s="6" t="s">
+      <c r="D195" s="5" t="s">
         <v>578</v>
       </c>
       <c r="E195" s="2" t="s">
@@ -10106,7 +10105,7 @@
       <c r="H195" s="1">
         <v>1</v>
       </c>
-      <c r="I195" s="7">
+      <c r="I195" s="6">
         <v>3</v>
       </c>
     </row>
@@ -10120,7 +10119,7 @@
       <c r="C196" s="1" t="s">
         <v>580</v>
       </c>
-      <c r="D196" s="6" t="s">
+      <c r="D196" s="5" t="s">
         <v>581</v>
       </c>
       <c r="E196" s="2" t="s">
@@ -10135,7 +10134,7 @@
       <c r="H196" s="1">
         <v>1</v>
       </c>
-      <c r="I196" s="7">
+      <c r="I196" s="6">
         <v>2</v>
       </c>
     </row>
@@ -10149,7 +10148,7 @@
       <c r="C197" s="1" t="s">
         <v>583</v>
       </c>
-      <c r="D197" s="6" t="s">
+      <c r="D197" s="5" t="s">
         <v>584</v>
       </c>
       <c r="E197" s="2" t="s">
@@ -10164,7 +10163,7 @@
       <c r="H197" s="1">
         <v>1</v>
       </c>
-      <c r="I197" s="7"/>
+      <c r="I197" s="6"/>
     </row>
     <row r="198" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A198" s="1">
@@ -10176,7 +10175,7 @@
       <c r="C198" s="1" t="s">
         <v>586</v>
       </c>
-      <c r="D198" s="6" t="s">
+      <c r="D198" s="5" t="s">
         <v>587</v>
       </c>
       <c r="E198" s="2" t="s">
@@ -10191,7 +10190,7 @@
       <c r="H198" s="1">
         <v>1</v>
       </c>
-      <c r="I198" s="7"/>
+      <c r="I198" s="6"/>
     </row>
     <row r="199" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A199" s="1">
@@ -10203,7 +10202,7 @@
       <c r="C199" s="1" t="s">
         <v>589</v>
       </c>
-      <c r="D199" s="6" t="s">
+      <c r="D199" s="5" t="s">
         <v>590</v>
       </c>
       <c r="E199" s="2" t="s">
@@ -10218,7 +10217,7 @@
       <c r="H199" s="1">
         <v>1</v>
       </c>
-      <c r="I199" s="7"/>
+      <c r="I199" s="6"/>
     </row>
     <row r="200" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A200" s="1">
@@ -10230,7 +10229,7 @@
       <c r="C200" s="1" t="s">
         <v>592</v>
       </c>
-      <c r="D200" s="6" t="s">
+      <c r="D200" s="5" t="s">
         <v>593</v>
       </c>
       <c r="E200" s="2" t="s">
@@ -10245,7 +10244,7 @@
       <c r="H200" s="1">
         <v>0</v>
       </c>
-      <c r="I200" s="7">
+      <c r="I200" s="6">
         <v>1</v>
       </c>
     </row>
@@ -10259,7 +10258,7 @@
       <c r="C201" s="1" t="s">
         <v>595</v>
       </c>
-      <c r="D201" s="6" t="s">
+      <c r="D201" s="5" t="s">
         <v>596</v>
       </c>
       <c r="E201" s="2" t="s">
@@ -10274,7 +10273,7 @@
       <c r="H201" s="1">
         <v>0</v>
       </c>
-      <c r="I201" s="7">
+      <c r="I201" s="6">
         <v>2</v>
       </c>
     </row>
@@ -10288,7 +10287,7 @@
       <c r="C202" s="1" t="s">
         <v>598</v>
       </c>
-      <c r="D202" s="6" t="s">
+      <c r="D202" s="5" t="s">
         <v>599</v>
       </c>
       <c r="E202" s="2" t="s">
@@ -10303,7 +10302,7 @@
       <c r="H202" s="1">
         <v>0</v>
       </c>
-      <c r="I202" s="7">
+      <c r="I202" s="6">
         <v>3</v>
       </c>
     </row>
@@ -10317,7 +10316,7 @@
       <c r="C203" s="1" t="s">
         <v>601</v>
       </c>
-      <c r="D203" s="6" t="s">
+      <c r="D203" s="5" t="s">
         <v>602</v>
       </c>
       <c r="E203" s="2" t="s">
@@ -10332,7 +10331,7 @@
       <c r="H203" s="1">
         <v>1</v>
       </c>
-      <c r="I203" s="7">
+      <c r="I203" s="6">
         <v>1</v>
       </c>
     </row>
@@ -10346,7 +10345,7 @@
       <c r="C204" s="1" t="s">
         <v>604</v>
       </c>
-      <c r="D204" s="6" t="s">
+      <c r="D204" s="5" t="s">
         <v>605</v>
       </c>
       <c r="E204" s="2" t="s">
@@ -10361,7 +10360,7 @@
       <c r="H204" s="1">
         <v>1</v>
       </c>
-      <c r="I204" s="7">
+      <c r="I204" s="6">
         <v>2</v>
       </c>
     </row>
@@ -10375,7 +10374,7 @@
       <c r="C205" s="1" t="s">
         <v>607</v>
       </c>
-      <c r="D205" s="6" t="s">
+      <c r="D205" s="5" t="s">
         <v>608</v>
       </c>
       <c r="E205" s="2" t="s">
@@ -10390,7 +10389,7 @@
       <c r="H205" s="1">
         <v>1</v>
       </c>
-      <c r="I205" s="7">
+      <c r="I205" s="6">
         <v>3</v>
       </c>
     </row>
@@ -10404,7 +10403,7 @@
       <c r="C206" s="1" t="s">
         <v>610</v>
       </c>
-      <c r="D206" s="6" t="s">
+      <c r="D206" s="5" t="s">
         <v>611</v>
       </c>
       <c r="E206" s="2" t="s">
@@ -10419,7 +10418,7 @@
       <c r="H206" s="1">
         <v>1</v>
       </c>
-      <c r="I206" s="7"/>
+      <c r="I206" s="6"/>
     </row>
     <row r="207" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A207" s="1">
@@ -10431,7 +10430,7 @@
       <c r="C207" s="1" t="s">
         <v>613</v>
       </c>
-      <c r="D207" s="6" t="s">
+      <c r="D207" s="5" t="s">
         <v>614</v>
       </c>
       <c r="E207" s="2" t="s">
@@ -10446,7 +10445,7 @@
       <c r="H207" s="1">
         <v>1</v>
       </c>
-      <c r="I207" s="7"/>
+      <c r="I207" s="6"/>
     </row>
     <row r="208" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A208" s="1">
@@ -10458,7 +10457,7 @@
       <c r="C208" s="1" t="s">
         <v>615</v>
       </c>
-      <c r="D208" s="6" t="s">
+      <c r="D208" s="5" t="s">
         <v>616</v>
       </c>
       <c r="E208" s="2" t="s">
@@ -10473,7 +10472,7 @@
       <c r="H208" s="1">
         <v>1</v>
       </c>
-      <c r="I208" s="7"/>
+      <c r="I208" s="6"/>
     </row>
     <row r="209" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A209" s="1">
@@ -10485,7 +10484,7 @@
       <c r="C209" s="1" t="s">
         <v>618</v>
       </c>
-      <c r="D209" s="6" t="s">
+      <c r="D209" s="5" t="s">
         <v>619</v>
       </c>
       <c r="E209" s="2" t="s">
@@ -10500,7 +10499,7 @@
       <c r="H209" s="1">
         <v>0</v>
       </c>
-      <c r="I209" s="7">
+      <c r="I209" s="6">
         <v>1</v>
       </c>
     </row>
@@ -10514,7 +10513,7 @@
       <c r="C210" s="1" t="s">
         <v>621</v>
       </c>
-      <c r="D210" s="6" t="s">
+      <c r="D210" s="5" t="s">
         <v>622</v>
       </c>
       <c r="E210" s="2" t="s">
@@ -10529,7 +10528,7 @@
       <c r="H210" s="1">
         <v>0</v>
       </c>
-      <c r="I210" s="7">
+      <c r="I210" s="6">
         <v>2</v>
       </c>
     </row>
@@ -10543,7 +10542,7 @@
       <c r="C211" s="1" t="s">
         <v>624</v>
       </c>
-      <c r="D211" s="6" t="s">
+      <c r="D211" s="5" t="s">
         <v>689</v>
       </c>
       <c r="E211" s="2" t="s">
@@ -10558,7 +10557,7 @@
       <c r="H211" s="1">
         <v>0</v>
       </c>
-      <c r="I211" s="7">
+      <c r="I211" s="6">
         <v>3</v>
       </c>
     </row>
@@ -10572,7 +10571,7 @@
       <c r="C212" s="1" t="s">
         <v>626</v>
       </c>
-      <c r="D212" s="6" t="s">
+      <c r="D212" s="5" t="s">
         <v>627</v>
       </c>
       <c r="E212" s="2" t="s">
@@ -10587,7 +10586,7 @@
       <c r="H212" s="1">
         <v>1</v>
       </c>
-      <c r="I212" s="7">
+      <c r="I212" s="6">
         <v>2</v>
       </c>
     </row>
@@ -10601,7 +10600,7 @@
       <c r="C213" s="1" t="s">
         <v>629</v>
       </c>
-      <c r="D213" s="6" t="s">
+      <c r="D213" s="5" t="s">
         <v>630</v>
       </c>
       <c r="E213" s="2" t="s">
@@ -10616,7 +10615,7 @@
       <c r="H213" s="1">
         <v>1</v>
       </c>
-      <c r="I213" s="7">
+      <c r="I213" s="6">
         <v>3</v>
       </c>
     </row>
@@ -10630,7 +10629,7 @@
       <c r="C214" s="1" t="s">
         <v>632</v>
       </c>
-      <c r="D214" s="6" t="s">
+      <c r="D214" s="5" t="s">
         <v>633</v>
       </c>
       <c r="E214" s="2" t="s">
@@ -10645,7 +10644,7 @@
       <c r="H214" s="1">
         <v>1</v>
       </c>
-      <c r="I214" s="7">
+      <c r="I214" s="6">
         <v>1</v>
       </c>
     </row>
@@ -10659,7 +10658,7 @@
       <c r="C215" s="1" t="s">
         <v>635</v>
       </c>
-      <c r="D215" s="6" t="s">
+      <c r="D215" s="5" t="s">
         <v>636</v>
       </c>
       <c r="E215" s="2" t="s">
@@ -10674,7 +10673,7 @@
       <c r="H215" s="1">
         <v>1</v>
       </c>
-      <c r="I215" s="7"/>
+      <c r="I215" s="6"/>
     </row>
     <row r="216" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A216" s="1">
@@ -10686,7 +10685,7 @@
       <c r="C216" s="1" t="s">
         <v>638</v>
       </c>
-      <c r="D216" s="6" t="s">
+      <c r="D216" s="5" t="s">
         <v>639</v>
       </c>
       <c r="E216" s="2" t="s">
@@ -10701,7 +10700,7 @@
       <c r="H216" s="1">
         <v>1</v>
       </c>
-      <c r="I216" s="7"/>
+      <c r="I216" s="6"/>
     </row>
     <row r="217" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A217" s="1">
@@ -10713,7 +10712,7 @@
       <c r="C217" s="1" t="s">
         <v>641</v>
       </c>
-      <c r="D217" s="6" t="s">
+      <c r="D217" s="5" t="s">
         <v>642</v>
       </c>
       <c r="E217" s="2" t="s">
@@ -10728,7 +10727,7 @@
       <c r="H217" s="1">
         <v>1</v>
       </c>
-      <c r="I217" s="7"/>
+      <c r="I217" s="6"/>
     </row>
     <row r="218" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A218" s="1">
@@ -10740,10 +10739,10 @@
       <c r="C218" s="1" t="s">
         <v>644</v>
       </c>
-      <c r="D218" s="6" t="s">
+      <c r="D218" s="5" t="s">
         <v>645</v>
       </c>
-      <c r="E218" s="4" t="s">
+      <c r="E218" s="3" t="s">
         <v>646</v>
       </c>
       <c r="F218" s="1" t="s">
@@ -10755,7 +10754,7 @@
       <c r="H218" s="1">
         <v>0</v>
       </c>
-      <c r="I218" s="7">
+      <c r="I218" s="6">
         <v>2</v>
       </c>
     </row>
@@ -10769,7 +10768,7 @@
       <c r="C219" s="1" t="s">
         <v>647</v>
       </c>
-      <c r="D219" s="6" t="s">
+      <c r="D219" s="5" t="s">
         <v>648</v>
       </c>
       <c r="E219" s="2" t="s">
@@ -10784,7 +10783,7 @@
       <c r="H219" s="1">
         <v>0</v>
       </c>
-      <c r="I219" s="7">
+      <c r="I219" s="6">
         <v>1</v>
       </c>
     </row>
@@ -10798,7 +10797,7 @@
       <c r="C220" s="1" t="s">
         <v>650</v>
       </c>
-      <c r="D220" s="6" t="s">
+      <c r="D220" s="5" t="s">
         <v>651</v>
       </c>
       <c r="E220" s="2" t="s">
@@ -10813,7 +10812,7 @@
       <c r="H220" s="1">
         <v>0</v>
       </c>
-      <c r="I220" s="7">
+      <c r="I220" s="6">
         <v>3</v>
       </c>
     </row>
@@ -10827,7 +10826,7 @@
       <c r="C221" s="1" t="s">
         <v>653</v>
       </c>
-      <c r="D221" s="6" t="s">
+      <c r="D221" s="5" t="s">
         <v>654</v>
       </c>
       <c r="E221" s="2" t="s">
@@ -10842,7 +10841,7 @@
       <c r="H221" s="1">
         <v>1</v>
       </c>
-      <c r="I221" s="7">
+      <c r="I221" s="6">
         <v>2</v>
       </c>
     </row>
@@ -10856,7 +10855,7 @@
       <c r="C222" s="1" t="s">
         <v>656</v>
       </c>
-      <c r="D222" s="6" t="s">
+      <c r="D222" s="5" t="s">
         <v>657</v>
       </c>
       <c r="E222" s="2" t="s">
@@ -10871,7 +10870,7 @@
       <c r="H222" s="1">
         <v>1</v>
       </c>
-      <c r="I222" s="7">
+      <c r="I222" s="6">
         <v>3</v>
       </c>
     </row>
@@ -10885,7 +10884,7 @@
       <c r="C223" s="1" t="s">
         <v>659</v>
       </c>
-      <c r="D223" s="6" t="s">
+      <c r="D223" s="5" t="s">
         <v>660</v>
       </c>
       <c r="E223" s="2" t="s">
@@ -10900,7 +10899,7 @@
       <c r="H223" s="1">
         <v>1</v>
       </c>
-      <c r="I223" s="7">
+      <c r="I223" s="6">
         <v>1</v>
       </c>
     </row>
@@ -10914,7 +10913,7 @@
       <c r="C224" s="1" t="s">
         <v>662</v>
       </c>
-      <c r="D224" s="6" t="s">
+      <c r="D224" s="5" t="s">
         <v>663</v>
       </c>
       <c r="E224" s="2" t="s">
@@ -10929,7 +10928,7 @@
       <c r="H224" s="1">
         <v>1</v>
       </c>
-      <c r="I224" s="7"/>
+      <c r="I224" s="6"/>
     </row>
     <row r="225" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A225" s="1">
@@ -10941,7 +10940,7 @@
       <c r="C225" s="1" t="s">
         <v>665</v>
       </c>
-      <c r="D225" s="6" t="s">
+      <c r="D225" s="5" t="s">
         <v>666</v>
       </c>
       <c r="E225" s="2" t="s">
@@ -10956,7 +10955,7 @@
       <c r="H225" s="1">
         <v>1</v>
       </c>
-      <c r="I225" s="7"/>
+      <c r="I225" s="6"/>
     </row>
     <row r="226" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A226" s="1">
@@ -10968,7 +10967,7 @@
       <c r="C226" s="1" t="s">
         <v>668</v>
       </c>
-      <c r="D226" s="6" t="s">
+      <c r="D226" s="5" t="s">
         <v>669</v>
       </c>
       <c r="E226" s="2" t="s">
@@ -10983,7 +10982,7 @@
       <c r="H226" s="1">
         <v>1</v>
       </c>
-      <c r="I226" s="7"/>
+      <c r="I226" s="6"/>
     </row>
     <row r="227" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A227" s="1">
@@ -10992,19 +10991,19 @@
       <c r="B227" s="1" t="s">
         <v>1293</v>
       </c>
-      <c r="C227" s="15" t="s">
+      <c r="C227" s="14" t="s">
         <v>708</v>
       </c>
-      <c r="D227" s="9" t="s">
+      <c r="D227" s="8" t="s">
         <v>1024</v>
       </c>
-      <c r="E227" s="10" t="s">
+      <c r="E227" s="9" t="s">
         <v>868</v>
       </c>
-      <c r="F227" s="7" t="s">
+      <c r="F227" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="G227" s="11" t="s">
+      <c r="G227" s="10" t="s">
         <v>1271</v>
       </c>
       <c r="H227" s="1">
@@ -11018,19 +11017,19 @@
       <c r="B228" s="1" t="s">
         <v>1293</v>
       </c>
-      <c r="C228" s="15" t="s">
+      <c r="C228" s="14" t="s">
         <v>709</v>
       </c>
-      <c r="D228" s="9" t="s">
+      <c r="D228" s="8" t="s">
         <v>1025</v>
       </c>
-      <c r="E228" s="10" t="s">
+      <c r="E228" s="9" t="s">
         <v>869</v>
       </c>
-      <c r="F228" s="7" t="s">
+      <c r="F228" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="G228" s="11" t="s">
+      <c r="G228" s="10" t="s">
         <v>1271</v>
       </c>
       <c r="H228" s="1">
@@ -11047,19 +11046,19 @@
       <c r="B229" s="1" t="s">
         <v>1293</v>
       </c>
-      <c r="C229" s="15" t="s">
+      <c r="C229" s="14" t="s">
         <v>710</v>
       </c>
-      <c r="D229" s="9" t="s">
+      <c r="D229" s="8" t="s">
         <v>1026</v>
       </c>
-      <c r="E229" s="10" t="s">
+      <c r="E229" s="9" t="s">
         <v>870</v>
       </c>
-      <c r="F229" s="7" t="s">
+      <c r="F229" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="G229" s="11" t="s">
+      <c r="G229" s="10" t="s">
         <v>1271</v>
       </c>
       <c r="H229" s="1">
@@ -11076,19 +11075,19 @@
       <c r="B230" s="1" t="s">
         <v>1293</v>
       </c>
-      <c r="C230" s="15" t="s">
+      <c r="C230" s="14" t="s">
         <v>711</v>
       </c>
-      <c r="D230" s="9" t="s">
+      <c r="D230" s="8" t="s">
         <v>1027</v>
       </c>
-      <c r="E230" s="10" t="s">
+      <c r="E230" s="9" t="s">
         <v>871</v>
       </c>
-      <c r="F230" s="7" t="s">
+      <c r="F230" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="G230" s="11" t="s">
+      <c r="G230" s="10" t="s">
         <v>1271</v>
       </c>
       <c r="H230" s="1">
@@ -11102,19 +11101,19 @@
       <c r="B231" s="1" t="s">
         <v>1293</v>
       </c>
-      <c r="C231" s="15" t="s">
+      <c r="C231" s="14" t="s">
         <v>712</v>
       </c>
-      <c r="D231" s="9" t="s">
+      <c r="D231" s="8" t="s">
         <v>1028</v>
       </c>
-      <c r="E231" s="10" t="s">
+      <c r="E231" s="9" t="s">
         <v>872</v>
       </c>
-      <c r="F231" s="7" t="s">
+      <c r="F231" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="G231" s="11" t="s">
+      <c r="G231" s="10" t="s">
         <v>1271</v>
       </c>
       <c r="H231" s="1">
@@ -11128,19 +11127,19 @@
       <c r="B232" s="1" t="s">
         <v>1293</v>
       </c>
-      <c r="C232" s="15" t="s">
+      <c r="C232" s="14" t="s">
         <v>713</v>
       </c>
-      <c r="D232" s="9" t="s">
+      <c r="D232" s="8" t="s">
         <v>1029</v>
       </c>
-      <c r="E232" s="10" t="s">
+      <c r="E232" s="9" t="s">
         <v>873</v>
       </c>
-      <c r="F232" s="7" t="s">
+      <c r="F232" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="G232" s="11" t="s">
+      <c r="G232" s="10" t="s">
         <v>1271</v>
       </c>
       <c r="H232" s="1">
@@ -11154,19 +11153,19 @@
       <c r="B233" s="1" t="s">
         <v>1293</v>
       </c>
-      <c r="C233" s="15" t="s">
+      <c r="C233" s="14" t="s">
         <v>714</v>
       </c>
-      <c r="D233" s="9" t="s">
+      <c r="D233" s="8" t="s">
         <v>1030</v>
       </c>
-      <c r="E233" s="10" t="s">
+      <c r="E233" s="9" t="s">
         <v>874</v>
       </c>
-      <c r="F233" s="7" t="s">
+      <c r="F233" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="G233" s="11" t="s">
+      <c r="G233" s="10" t="s">
         <v>1271</v>
       </c>
       <c r="H233" s="1">
@@ -11183,19 +11182,19 @@
       <c r="B234" s="1" t="s">
         <v>1293</v>
       </c>
-      <c r="C234" s="15" t="s">
+      <c r="C234" s="14" t="s">
         <v>715</v>
       </c>
-      <c r="D234" s="9" t="s">
+      <c r="D234" s="8" t="s">
         <v>1031</v>
       </c>
-      <c r="E234" s="10" t="s">
+      <c r="E234" s="9" t="s">
         <v>875</v>
       </c>
-      <c r="F234" s="7" t="s">
+      <c r="F234" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="G234" s="11" t="s">
+      <c r="G234" s="10" t="s">
         <v>1271</v>
       </c>
       <c r="H234" s="1">
@@ -11212,19 +11211,19 @@
       <c r="B235" s="1" t="s">
         <v>1293</v>
       </c>
-      <c r="C235" s="15" t="s">
+      <c r="C235" s="14" t="s">
         <v>716</v>
       </c>
-      <c r="D235" s="9" t="s">
+      <c r="D235" s="8" t="s">
         <v>1032</v>
       </c>
-      <c r="E235" s="10" t="s">
+      <c r="E235" s="9" t="s">
         <v>876</v>
       </c>
-      <c r="F235" s="7" t="s">
+      <c r="F235" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="G235" s="11" t="s">
+      <c r="G235" s="10" t="s">
         <v>1271</v>
       </c>
       <c r="H235" s="1">
@@ -11241,19 +11240,19 @@
       <c r="B236" s="1" t="s">
         <v>1293</v>
       </c>
-      <c r="C236" s="15" t="s">
+      <c r="C236" s="14" t="s">
         <v>717</v>
       </c>
-      <c r="D236" s="9" t="s">
+      <c r="D236" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="E236" s="10" t="s">
+      <c r="E236" s="9" t="s">
         <v>877</v>
       </c>
-      <c r="F236" s="7" t="s">
+      <c r="F236" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="G236" s="11" t="s">
+      <c r="G236" s="10" t="s">
         <v>1271</v>
       </c>
       <c r="H236" s="1">
@@ -11270,19 +11269,19 @@
       <c r="B237" s="1" t="s">
         <v>1293</v>
       </c>
-      <c r="C237" s="15" t="s">
+      <c r="C237" s="14" t="s">
         <v>718</v>
       </c>
-      <c r="D237" s="9" t="s">
+      <c r="D237" s="8" t="s">
         <v>1033</v>
       </c>
-      <c r="E237" s="10" t="s">
+      <c r="E237" s="9" t="s">
         <v>878</v>
       </c>
-      <c r="F237" s="7" t="s">
+      <c r="F237" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="G237" s="11" t="s">
+      <c r="G237" s="10" t="s">
         <v>1272</v>
       </c>
       <c r="H237" s="1">
@@ -11299,19 +11298,19 @@
       <c r="B238" s="1" t="s">
         <v>1293</v>
       </c>
-      <c r="C238" s="15" t="s">
+      <c r="C238" s="14" t="s">
         <v>719</v>
       </c>
-      <c r="D238" s="9" t="s">
+      <c r="D238" s="8" t="s">
         <v>1034</v>
       </c>
-      <c r="E238" s="10" t="s">
+      <c r="E238" s="9" t="s">
         <v>879</v>
       </c>
-      <c r="F238" s="7" t="s">
+      <c r="F238" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="G238" s="11" t="s">
+      <c r="G238" s="10" t="s">
         <v>1272</v>
       </c>
       <c r="H238" s="1">
@@ -11328,19 +11327,19 @@
       <c r="B239" s="1" t="s">
         <v>1293</v>
       </c>
-      <c r="C239" s="15" t="s">
+      <c r="C239" s="14" t="s">
         <v>720</v>
       </c>
-      <c r="D239" s="9" t="s">
+      <c r="D239" s="8" t="s">
         <v>1035</v>
       </c>
-      <c r="E239" s="10" t="s">
+      <c r="E239" s="9" t="s">
         <v>880</v>
       </c>
-      <c r="F239" s="7" t="s">
+      <c r="F239" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="G239" s="11" t="s">
+      <c r="G239" s="10" t="s">
         <v>1272</v>
       </c>
       <c r="H239" s="1">
@@ -11354,25 +11353,25 @@
       <c r="B240" s="1" t="s">
         <v>1293</v>
       </c>
-      <c r="C240" s="15" t="s">
+      <c r="C240" s="14" t="s">
         <v>721</v>
       </c>
-      <c r="D240" s="9" t="s">
+      <c r="D240" s="8" t="s">
         <v>1036</v>
       </c>
-      <c r="E240" s="10" t="s">
+      <c r="E240" s="9" t="s">
         <v>881</v>
       </c>
-      <c r="F240" s="7" t="s">
+      <c r="F240" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="G240" s="11" t="s">
+      <c r="G240" s="10" t="s">
         <v>1272</v>
       </c>
       <c r="H240" s="1">
         <v>1</v>
       </c>
-      <c r="I240" s="7"/>
+      <c r="I240" s="6"/>
     </row>
     <row r="241" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A241" s="1">
@@ -11381,19 +11380,19 @@
       <c r="B241" s="1" t="s">
         <v>1293</v>
       </c>
-      <c r="C241" s="15" t="s">
+      <c r="C241" s="14" t="s">
         <v>722</v>
       </c>
-      <c r="D241" s="9" t="s">
+      <c r="D241" s="8" t="s">
         <v>1037</v>
       </c>
-      <c r="E241" s="10" t="s">
+      <c r="E241" s="9" t="s">
         <v>882</v>
       </c>
-      <c r="F241" s="7" t="s">
+      <c r="F241" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="G241" s="11" t="s">
+      <c r="G241" s="10" t="s">
         <v>1272</v>
       </c>
       <c r="H241" s="1">
@@ -11407,19 +11406,19 @@
       <c r="B242" s="1" t="s">
         <v>1293</v>
       </c>
-      <c r="C242" s="15" t="s">
+      <c r="C242" s="14" t="s">
         <v>723</v>
       </c>
-      <c r="D242" s="9" t="s">
+      <c r="D242" s="8" t="s">
         <v>1038</v>
       </c>
-      <c r="E242" s="10" t="s">
+      <c r="E242" s="9" t="s">
         <v>883</v>
       </c>
-      <c r="F242" s="7" t="s">
+      <c r="F242" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="G242" s="11" t="s">
+      <c r="G242" s="10" t="s">
         <v>1272</v>
       </c>
       <c r="H242" s="1">
@@ -11436,19 +11435,19 @@
       <c r="B243" s="1" t="s">
         <v>1293</v>
       </c>
-      <c r="C243" s="15" t="s">
+      <c r="C243" s="14" t="s">
         <v>724</v>
       </c>
-      <c r="D243" s="9" t="s">
+      <c r="D243" s="8" t="s">
         <v>1039</v>
       </c>
-      <c r="E243" s="10" t="s">
+      <c r="E243" s="9" t="s">
         <v>884</v>
       </c>
-      <c r="F243" s="7" t="s">
+      <c r="F243" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="G243" s="11" t="s">
+      <c r="G243" s="10" t="s">
         <v>1272</v>
       </c>
       <c r="H243" s="1">
@@ -11465,19 +11464,19 @@
       <c r="B244" s="1" t="s">
         <v>1293</v>
       </c>
-      <c r="C244" s="15" t="s">
+      <c r="C244" s="14" t="s">
         <v>725</v>
       </c>
-      <c r="D244" s="9" t="s">
+      <c r="D244" s="8" t="s">
         <v>1040</v>
       </c>
-      <c r="E244" s="10" t="s">
+      <c r="E244" s="9" t="s">
         <v>885</v>
       </c>
-      <c r="F244" s="7" t="s">
+      <c r="F244" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="G244" s="11" t="s">
+      <c r="G244" s="10" t="s">
         <v>1272</v>
       </c>
       <c r="H244" s="1">
@@ -11491,19 +11490,19 @@
       <c r="B245" s="1" t="s">
         <v>1293</v>
       </c>
-      <c r="C245" s="15" t="s">
+      <c r="C245" s="14" t="s">
         <v>726</v>
       </c>
-      <c r="D245" s="9" t="s">
+      <c r="D245" s="8" t="s">
         <v>1041</v>
       </c>
-      <c r="E245" s="10" t="s">
+      <c r="E245" s="9" t="s">
         <v>886</v>
       </c>
-      <c r="F245" s="7" t="s">
+      <c r="F245" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="G245" s="11" t="s">
+      <c r="G245" s="10" t="s">
         <v>1272</v>
       </c>
       <c r="H245" s="1">
@@ -11520,19 +11519,19 @@
       <c r="B246" s="1" t="s">
         <v>1293</v>
       </c>
-      <c r="C246" s="15" t="s">
+      <c r="C246" s="14" t="s">
         <v>727</v>
       </c>
-      <c r="D246" s="9" t="s">
+      <c r="D246" s="8" t="s">
         <v>1306</v>
       </c>
-      <c r="E246" s="10" t="s">
+      <c r="E246" s="9" t="s">
         <v>887</v>
       </c>
-      <c r="F246" s="7" t="s">
+      <c r="F246" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="G246" s="11" t="s">
+      <c r="G246" s="10" t="s">
         <v>1272</v>
       </c>
       <c r="H246" s="1">
@@ -11549,25 +11548,25 @@
       <c r="B247" s="1" t="s">
         <v>1293</v>
       </c>
-      <c r="C247" s="15" t="s">
+      <c r="C247" s="14" t="s">
         <v>728</v>
       </c>
-      <c r="D247" s="9" t="s">
+      <c r="D247" s="8" t="s">
         <v>1042</v>
       </c>
-      <c r="E247" s="10" t="s">
+      <c r="E247" s="9" t="s">
         <v>888</v>
       </c>
-      <c r="F247" s="7" t="s">
+      <c r="F247" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="G247" s="11" t="s">
+      <c r="G247" s="10" t="s">
         <v>1273</v>
       </c>
       <c r="H247" s="1">
         <v>1</v>
       </c>
-      <c r="I247" s="7"/>
+      <c r="I247" s="6"/>
     </row>
     <row r="248" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A248" s="1">
@@ -11576,19 +11575,19 @@
       <c r="B248" s="1" t="s">
         <v>1293</v>
       </c>
-      <c r="C248" s="15" t="s">
+      <c r="C248" s="14" t="s">
         <v>729</v>
       </c>
-      <c r="D248" s="9" t="s">
+      <c r="D248" s="8" t="s">
         <v>1043</v>
       </c>
-      <c r="E248" s="10" t="s">
+      <c r="E248" s="9" t="s">
         <v>889</v>
       </c>
-      <c r="F248" s="7" t="s">
+      <c r="F248" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="G248" s="11" t="s">
+      <c r="G248" s="10" t="s">
         <v>1273</v>
       </c>
       <c r="H248" s="1">
@@ -11602,19 +11601,19 @@
       <c r="B249" s="1" t="s">
         <v>1293</v>
       </c>
-      <c r="C249" s="15" t="s">
+      <c r="C249" s="14" t="s">
         <v>730</v>
       </c>
-      <c r="D249" s="9" t="s">
+      <c r="D249" s="8" t="s">
         <v>1044</v>
       </c>
-      <c r="E249" s="10" t="s">
+      <c r="E249" s="9" t="s">
         <v>890</v>
       </c>
-      <c r="F249" s="7" t="s">
+      <c r="F249" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="G249" s="11" t="s">
+      <c r="G249" s="10" t="s">
         <v>1273</v>
       </c>
       <c r="H249" s="1">
@@ -11628,19 +11627,19 @@
       <c r="B250" s="1" t="s">
         <v>1293</v>
       </c>
-      <c r="C250" s="15" t="s">
+      <c r="C250" s="14" t="s">
         <v>731</v>
       </c>
-      <c r="D250" s="9" t="s">
+      <c r="D250" s="8" t="s">
         <v>1045</v>
       </c>
-      <c r="E250" s="10" t="s">
+      <c r="E250" s="9" t="s">
         <v>891</v>
       </c>
-      <c r="F250" s="7" t="s">
+      <c r="F250" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="G250" s="11" t="s">
+      <c r="G250" s="10" t="s">
         <v>1273</v>
       </c>
       <c r="H250" s="1">
@@ -11654,19 +11653,19 @@
       <c r="B251" s="1" t="s">
         <v>1293</v>
       </c>
-      <c r="C251" s="15" t="s">
+      <c r="C251" s="14" t="s">
         <v>732</v>
       </c>
-      <c r="D251" s="9" t="s">
+      <c r="D251" s="8" t="s">
         <v>1046</v>
       </c>
-      <c r="E251" s="10" t="s">
+      <c r="E251" s="9" t="s">
         <v>892</v>
       </c>
-      <c r="F251" s="7" t="s">
+      <c r="F251" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="G251" s="11" t="s">
+      <c r="G251" s="10" t="s">
         <v>1273</v>
       </c>
       <c r="H251" s="1">
@@ -11680,19 +11679,19 @@
       <c r="B252" s="1" t="s">
         <v>1293</v>
       </c>
-      <c r="C252" s="15" t="s">
+      <c r="C252" s="14" t="s">
         <v>733</v>
       </c>
-      <c r="D252" s="9" t="s">
+      <c r="D252" s="8" t="s">
         <v>1047</v>
       </c>
-      <c r="E252" s="10" t="s">
+      <c r="E252" s="9" t="s">
         <v>893</v>
       </c>
-      <c r="F252" s="7" t="s">
+      <c r="F252" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="G252" s="11" t="s">
+      <c r="G252" s="10" t="s">
         <v>1273</v>
       </c>
       <c r="H252" s="1">
@@ -11706,19 +11705,19 @@
       <c r="B253" s="1" t="s">
         <v>1293</v>
       </c>
-      <c r="C253" s="15" t="s">
+      <c r="C253" s="14" t="s">
         <v>734</v>
       </c>
-      <c r="D253" s="9" t="s">
+      <c r="D253" s="8" t="s">
         <v>1048</v>
       </c>
-      <c r="E253" s="10" t="s">
+      <c r="E253" s="9" t="s">
         <v>894</v>
       </c>
-      <c r="F253" s="7" t="s">
+      <c r="F253" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="G253" s="11" t="s">
+      <c r="G253" s="10" t="s">
         <v>1273</v>
       </c>
       <c r="H253" s="1">
@@ -11735,19 +11734,19 @@
       <c r="B254" s="1" t="s">
         <v>1293</v>
       </c>
-      <c r="C254" s="15" t="s">
+      <c r="C254" s="14" t="s">
         <v>735</v>
       </c>
-      <c r="D254" s="9" t="s">
+      <c r="D254" s="8" t="s">
         <v>1049</v>
       </c>
-      <c r="E254" s="10" t="s">
+      <c r="E254" s="9" t="s">
         <v>895</v>
       </c>
-      <c r="F254" s="7" t="s">
+      <c r="F254" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="G254" s="11" t="s">
+      <c r="G254" s="10" t="s">
         <v>1273</v>
       </c>
       <c r="H254" s="1">
@@ -11764,19 +11763,19 @@
       <c r="B255" s="1" t="s">
         <v>1293</v>
       </c>
-      <c r="C255" s="15" t="s">
+      <c r="C255" s="14" t="s">
         <v>736</v>
       </c>
-      <c r="D255" s="9" t="s">
+      <c r="D255" s="8" t="s">
         <v>1050</v>
       </c>
-      <c r="E255" s="10" t="s">
+      <c r="E255" s="9" t="s">
         <v>896</v>
       </c>
-      <c r="F255" s="7" t="s">
+      <c r="F255" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="G255" s="11" t="s">
+      <c r="G255" s="10" t="s">
         <v>1273</v>
       </c>
       <c r="H255" s="1">
@@ -11793,19 +11792,19 @@
       <c r="B256" s="1" t="s">
         <v>1293</v>
       </c>
-      <c r="C256" s="15" t="s">
+      <c r="C256" s="14" t="s">
         <v>737</v>
       </c>
-      <c r="D256" s="9" t="s">
+      <c r="D256" s="8" t="s">
         <v>1051</v>
       </c>
-      <c r="E256" s="10" t="s">
+      <c r="E256" s="9" t="s">
         <v>897</v>
       </c>
-      <c r="F256" s="7" t="s">
+      <c r="F256" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="G256" s="11" t="s">
+      <c r="G256" s="10" t="s">
         <v>1273</v>
       </c>
       <c r="H256" s="1">
@@ -11822,19 +11821,19 @@
       <c r="B257" s="1" t="s">
         <v>1293</v>
       </c>
-      <c r="C257" s="15" t="s">
+      <c r="C257" s="14" t="s">
         <v>738</v>
       </c>
-      <c r="D257" s="9" t="s">
+      <c r="D257" s="8" t="s">
         <v>1052</v>
       </c>
-      <c r="E257" s="10" t="s">
+      <c r="E257" s="9" t="s">
         <v>898</v>
       </c>
-      <c r="F257" s="7" t="s">
+      <c r="F257" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="G257" s="11" t="s">
+      <c r="G257" s="10" t="s">
         <v>1274</v>
       </c>
       <c r="H257" s="1">
@@ -11851,19 +11850,19 @@
       <c r="B258" s="1" t="s">
         <v>1293</v>
       </c>
-      <c r="C258" s="15" t="s">
+      <c r="C258" s="14" t="s">
         <v>739</v>
       </c>
-      <c r="D258" s="9" t="s">
+      <c r="D258" s="8" t="s">
         <v>1053</v>
       </c>
-      <c r="E258" s="10" t="s">
+      <c r="E258" s="9" t="s">
         <v>899</v>
       </c>
-      <c r="F258" s="7" t="s">
+      <c r="F258" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="G258" s="11" t="s">
+      <c r="G258" s="10" t="s">
         <v>1274</v>
       </c>
       <c r="H258" s="1">
@@ -11880,19 +11879,19 @@
       <c r="B259" s="1" t="s">
         <v>1293</v>
       </c>
-      <c r="C259" s="15" t="s">
+      <c r="C259" s="14" t="s">
         <v>740</v>
       </c>
-      <c r="D259" s="9" t="s">
+      <c r="D259" s="8" t="s">
         <v>1054</v>
       </c>
-      <c r="E259" s="10" t="s">
+      <c r="E259" s="9" t="s">
         <v>900</v>
       </c>
-      <c r="F259" s="7" t="s">
+      <c r="F259" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="G259" s="11" t="s">
+      <c r="G259" s="10" t="s">
         <v>1274</v>
       </c>
       <c r="H259" s="1">
@@ -11906,19 +11905,19 @@
       <c r="B260" s="1" t="s">
         <v>1293</v>
       </c>
-      <c r="C260" s="15" t="s">
+      <c r="C260" s="14" t="s">
         <v>741</v>
       </c>
-      <c r="D260" s="9" t="s">
+      <c r="D260" s="8" t="s">
         <v>1055</v>
       </c>
-      <c r="E260" s="10" t="s">
+      <c r="E260" s="9" t="s">
         <v>901</v>
       </c>
-      <c r="F260" s="7" t="s">
+      <c r="F260" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="G260" s="11" t="s">
+      <c r="G260" s="10" t="s">
         <v>1274</v>
       </c>
       <c r="H260" s="1">
@@ -11935,19 +11934,19 @@
       <c r="B261" s="1" t="s">
         <v>1293</v>
       </c>
-      <c r="C261" s="15" t="s">
+      <c r="C261" s="14" t="s">
         <v>742</v>
       </c>
-      <c r="D261" s="9" t="s">
+      <c r="D261" s="8" t="s">
         <v>1056</v>
       </c>
-      <c r="E261" s="10" t="s">
+      <c r="E261" s="9" t="s">
         <v>902</v>
       </c>
-      <c r="F261" s="7" t="s">
+      <c r="F261" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="G261" s="11" t="s">
+      <c r="G261" s="10" t="s">
         <v>1274</v>
       </c>
       <c r="H261" s="1">
@@ -11964,25 +11963,25 @@
       <c r="B262" s="1" t="s">
         <v>1293</v>
       </c>
-      <c r="C262" s="15" t="s">
+      <c r="C262" s="14" t="s">
         <v>743</v>
       </c>
-      <c r="D262" s="9" t="s">
+      <c r="D262" s="8" t="s">
         <v>1057</v>
       </c>
-      <c r="E262" s="10" t="s">
+      <c r="E262" s="9" t="s">
         <v>903</v>
       </c>
-      <c r="F262" s="7" t="s">
+      <c r="F262" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="G262" s="11" t="s">
+      <c r="G262" s="10" t="s">
         <v>1274</v>
       </c>
       <c r="H262" s="1">
         <v>1</v>
       </c>
-      <c r="I262" s="7"/>
+      <c r="I262" s="6"/>
     </row>
     <row r="263" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A263" s="1">
@@ -11991,19 +11990,19 @@
       <c r="B263" s="1" t="s">
         <v>1293</v>
       </c>
-      <c r="C263" s="15" t="s">
+      <c r="C263" s="14" t="s">
         <v>744</v>
       </c>
-      <c r="D263" s="9" t="s">
+      <c r="D263" s="8" t="s">
         <v>1058</v>
       </c>
-      <c r="E263" s="10" t="s">
+      <c r="E263" s="9" t="s">
         <v>904</v>
       </c>
-      <c r="F263" s="7" t="s">
+      <c r="F263" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="G263" s="11" t="s">
+      <c r="G263" s="10" t="s">
         <v>1274</v>
       </c>
       <c r="H263" s="1">
@@ -12020,25 +12019,25 @@
       <c r="B264" s="1" t="s">
         <v>1293</v>
       </c>
-      <c r="C264" s="15" t="s">
+      <c r="C264" s="14" t="s">
         <v>745</v>
       </c>
-      <c r="D264" s="9" t="s">
+      <c r="D264" s="8" t="s">
         <v>1059</v>
       </c>
-      <c r="E264" s="10" t="s">
+      <c r="E264" s="9" t="s">
         <v>905</v>
       </c>
-      <c r="F264" s="7" t="s">
+      <c r="F264" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="G264" s="11" t="s">
+      <c r="G264" s="10" t="s">
         <v>1274</v>
       </c>
       <c r="H264" s="1">
         <v>1</v>
       </c>
-      <c r="I264" s="7"/>
+      <c r="I264" s="6"/>
     </row>
     <row r="265" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A265" s="1">
@@ -12047,19 +12046,19 @@
       <c r="B265" s="1" t="s">
         <v>1293</v>
       </c>
-      <c r="C265" s="15" t="s">
+      <c r="C265" s="14" t="s">
         <v>746</v>
       </c>
-      <c r="D265" s="9" t="s">
+      <c r="D265" s="8" t="s">
         <v>1060</v>
       </c>
-      <c r="E265" s="10" t="s">
+      <c r="E265" s="9" t="s">
         <v>906</v>
       </c>
-      <c r="F265" s="7" t="s">
+      <c r="F265" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="G265" s="11" t="s">
+      <c r="G265" s="10" t="s">
         <v>1274</v>
       </c>
       <c r="H265" s="1">
@@ -12076,19 +12075,19 @@
       <c r="B266" s="1" t="s">
         <v>1293</v>
       </c>
-      <c r="C266" s="15" t="s">
+      <c r="C266" s="14" t="s">
         <v>747</v>
       </c>
-      <c r="D266" s="9" t="s">
+      <c r="D266" s="8" t="s">
         <v>1061</v>
       </c>
-      <c r="E266" s="10" t="s">
+      <c r="E266" s="9" t="s">
         <v>907</v>
       </c>
-      <c r="F266" s="7" t="s">
+      <c r="F266" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="G266" s="11" t="s">
+      <c r="G266" s="10" t="s">
         <v>1274</v>
       </c>
       <c r="H266" s="1">
@@ -12102,19 +12101,19 @@
       <c r="B267" s="1" t="s">
         <v>1293</v>
       </c>
-      <c r="C267" s="15" t="s">
+      <c r="C267" s="14" t="s">
         <v>748</v>
       </c>
-      <c r="D267" s="9" t="s">
+      <c r="D267" s="8" t="s">
         <v>1062</v>
       </c>
-      <c r="E267" s="10" t="s">
+      <c r="E267" s="9" t="s">
         <v>908</v>
       </c>
-      <c r="F267" s="7" t="s">
+      <c r="F267" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="G267" s="11" t="s">
+      <c r="G267" s="10" t="s">
         <v>1275</v>
       </c>
       <c r="H267" s="1">
@@ -12131,19 +12130,19 @@
       <c r="B268" s="1" t="s">
         <v>1293</v>
       </c>
-      <c r="C268" s="15" t="s">
+      <c r="C268" s="14" t="s">
         <v>749</v>
       </c>
-      <c r="D268" s="9" t="s">
+      <c r="D268" s="8" t="s">
         <v>1063</v>
       </c>
-      <c r="E268" s="10" t="s">
+      <c r="E268" s="9" t="s">
         <v>909</v>
       </c>
-      <c r="F268" s="7" t="s">
+      <c r="F268" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="G268" s="11" t="s">
+      <c r="G268" s="10" t="s">
         <v>1275</v>
       </c>
       <c r="H268" s="1">
@@ -12160,19 +12159,19 @@
       <c r="B269" s="1" t="s">
         <v>1293</v>
       </c>
-      <c r="C269" s="15" t="s">
+      <c r="C269" s="14" t="s">
         <v>750</v>
       </c>
-      <c r="D269" s="9" t="s">
+      <c r="D269" s="8" t="s">
         <v>1064</v>
       </c>
-      <c r="E269" s="10" t="s">
+      <c r="E269" s="9" t="s">
         <v>910</v>
       </c>
-      <c r="F269" s="7" t="s">
+      <c r="F269" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="G269" s="11" t="s">
+      <c r="G269" s="10" t="s">
         <v>1275</v>
       </c>
       <c r="H269" s="1">
@@ -12189,19 +12188,19 @@
       <c r="B270" s="1" t="s">
         <v>1293</v>
       </c>
-      <c r="C270" s="15" t="s">
+      <c r="C270" s="14" t="s">
         <v>751</v>
       </c>
-      <c r="D270" s="9" t="s">
+      <c r="D270" s="8" t="s">
         <v>1065</v>
       </c>
-      <c r="E270" s="10" t="s">
+      <c r="E270" s="9" t="s">
         <v>911</v>
       </c>
-      <c r="F270" s="7" t="s">
+      <c r="F270" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="G270" s="11" t="s">
+      <c r="G270" s="10" t="s">
         <v>1275</v>
       </c>
       <c r="H270" s="1">
@@ -12218,19 +12217,19 @@
       <c r="B271" s="1" t="s">
         <v>1293</v>
       </c>
-      <c r="C271" s="15" t="s">
+      <c r="C271" s="14" t="s">
         <v>752</v>
       </c>
-      <c r="D271" s="9" t="s">
+      <c r="D271" s="8" t="s">
         <v>1066</v>
       </c>
-      <c r="E271" s="10" t="s">
+      <c r="E271" s="9" t="s">
         <v>912</v>
       </c>
-      <c r="F271" s="7" t="s">
+      <c r="F271" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="G271" s="11" t="s">
+      <c r="G271" s="10" t="s">
         <v>1275</v>
       </c>
       <c r="H271" s="1">
@@ -12247,19 +12246,19 @@
       <c r="B272" s="1" t="s">
         <v>1293</v>
       </c>
-      <c r="C272" s="15" t="s">
+      <c r="C272" s="14" t="s">
         <v>753</v>
       </c>
-      <c r="D272" s="9" t="s">
+      <c r="D272" s="8" t="s">
         <v>1067</v>
       </c>
-      <c r="E272" s="10" t="s">
+      <c r="E272" s="9" t="s">
         <v>913</v>
       </c>
-      <c r="F272" s="7" t="s">
+      <c r="F272" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="G272" s="11" t="s">
+      <c r="G272" s="10" t="s">
         <v>1275</v>
       </c>
       <c r="H272" s="1">
@@ -12276,19 +12275,19 @@
       <c r="B273" s="1" t="s">
         <v>1293</v>
       </c>
-      <c r="C273" s="15" t="s">
+      <c r="C273" s="14" t="s">
         <v>754</v>
       </c>
-      <c r="D273" s="9" t="s">
+      <c r="D273" s="8" t="s">
         <v>1068</v>
       </c>
-      <c r="E273" s="10" t="s">
+      <c r="E273" s="9" t="s">
         <v>914</v>
       </c>
-      <c r="F273" s="7" t="s">
+      <c r="F273" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="G273" s="11" t="s">
+      <c r="G273" s="10" t="s">
         <v>1275</v>
       </c>
       <c r="H273" s="1">
@@ -12305,19 +12304,19 @@
       <c r="B274" s="1" t="s">
         <v>1293</v>
       </c>
-      <c r="C274" s="15" t="s">
+      <c r="C274" s="14" t="s">
         <v>755</v>
       </c>
-      <c r="D274" s="9" t="s">
+      <c r="D274" s="8" t="s">
         <v>1069</v>
       </c>
-      <c r="E274" s="10" t="s">
+      <c r="E274" s="9" t="s">
         <v>915</v>
       </c>
-      <c r="F274" s="7" t="s">
+      <c r="F274" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="G274" s="11" t="s">
+      <c r="G274" s="10" t="s">
         <v>1275</v>
       </c>
       <c r="H274" s="1">
@@ -12334,19 +12333,19 @@
       <c r="B275" s="1" t="s">
         <v>1293</v>
       </c>
-      <c r="C275" s="15" t="s">
+      <c r="C275" s="14" t="s">
         <v>756</v>
       </c>
-      <c r="D275" s="9" t="s">
+      <c r="D275" s="8" t="s">
         <v>1070</v>
       </c>
-      <c r="E275" s="10" t="s">
+      <c r="E275" s="9" t="s">
         <v>916</v>
       </c>
-      <c r="F275" s="7" t="s">
+      <c r="F275" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="G275" s="11" t="s">
+      <c r="G275" s="10" t="s">
         <v>1275</v>
       </c>
       <c r="H275" s="1">
@@ -12363,19 +12362,19 @@
       <c r="B276" s="1" t="s">
         <v>1293</v>
       </c>
-      <c r="C276" s="15" t="s">
+      <c r="C276" s="14" t="s">
         <v>757</v>
       </c>
-      <c r="D276" s="9" t="s">
+      <c r="D276" s="8" t="s">
         <v>1071</v>
       </c>
-      <c r="E276" s="10" t="s">
+      <c r="E276" s="9" t="s">
         <v>917</v>
       </c>
-      <c r="F276" s="7" t="s">
+      <c r="F276" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="G276" s="11" t="s">
+      <c r="G276" s="10" t="s">
         <v>1275</v>
       </c>
       <c r="H276" s="1">
@@ -12392,19 +12391,19 @@
       <c r="B277" s="1" t="s">
         <v>1293</v>
       </c>
-      <c r="C277" s="15" t="s">
+      <c r="C277" s="14" t="s">
         <v>758</v>
       </c>
-      <c r="D277" s="9" t="s">
+      <c r="D277" s="8" t="s">
         <v>1072</v>
       </c>
-      <c r="E277" s="10" t="s">
+      <c r="E277" s="9" t="s">
         <v>918</v>
       </c>
-      <c r="F277" s="7" t="s">
+      <c r="F277" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="G277" s="11" t="s">
+      <c r="G277" s="10" t="s">
         <v>1276</v>
       </c>
       <c r="H277" s="1">
@@ -12421,19 +12420,19 @@
       <c r="B278" s="1" t="s">
         <v>1293</v>
       </c>
-      <c r="C278" s="15" t="s">
+      <c r="C278" s="14" t="s">
         <v>759</v>
       </c>
-      <c r="D278" s="9" t="s">
+      <c r="D278" s="8" t="s">
         <v>1073</v>
       </c>
-      <c r="E278" s="10" t="s">
+      <c r="E278" s="9" t="s">
         <v>919</v>
       </c>
-      <c r="F278" s="7" t="s">
+      <c r="F278" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="G278" s="11" t="s">
+      <c r="G278" s="10" t="s">
         <v>1276</v>
       </c>
       <c r="H278" s="1">
@@ -12450,19 +12449,19 @@
       <c r="B279" s="1" t="s">
         <v>1293</v>
       </c>
-      <c r="C279" s="15" t="s">
+      <c r="C279" s="14" t="s">
         <v>760</v>
       </c>
-      <c r="D279" s="9" t="s">
+      <c r="D279" s="8" t="s">
         <v>1074</v>
       </c>
-      <c r="E279" s="10" t="s">
+      <c r="E279" s="9" t="s">
         <v>920</v>
       </c>
-      <c r="F279" s="7" t="s">
+      <c r="F279" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="G279" s="11" t="s">
+      <c r="G279" s="10" t="s">
         <v>1276</v>
       </c>
       <c r="H279" s="1">
@@ -12479,25 +12478,25 @@
       <c r="B280" s="1" t="s">
         <v>1293</v>
       </c>
-      <c r="C280" s="15" t="s">
+      <c r="C280" s="14" t="s">
         <v>761</v>
       </c>
-      <c r="D280" s="9" t="s">
+      <c r="D280" s="8" t="s">
         <v>1075</v>
       </c>
-      <c r="E280" s="10" t="s">
+      <c r="E280" s="9" t="s">
         <v>921</v>
       </c>
-      <c r="F280" s="7" t="s">
+      <c r="F280" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="G280" s="11" t="s">
+      <c r="G280" s="10" t="s">
         <v>1276</v>
       </c>
       <c r="H280" s="1">
         <v>0</v>
       </c>
-      <c r="I280" s="7"/>
+      <c r="I280" s="6"/>
     </row>
     <row r="281" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A281" s="1">
@@ -12506,19 +12505,19 @@
       <c r="B281" s="1" t="s">
         <v>1293</v>
       </c>
-      <c r="C281" s="15" t="s">
+      <c r="C281" s="14" t="s">
         <v>762</v>
       </c>
-      <c r="D281" s="9" t="s">
+      <c r="D281" s="8" t="s">
         <v>1076</v>
       </c>
-      <c r="E281" s="10" t="s">
+      <c r="E281" s="9" t="s">
         <v>1289</v>
       </c>
-      <c r="F281" s="7" t="s">
+      <c r="F281" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="G281" s="11" t="s">
+      <c r="G281" s="10" t="s">
         <v>1276</v>
       </c>
       <c r="H281" s="1">
@@ -12535,19 +12534,19 @@
       <c r="B282" s="1" t="s">
         <v>1293</v>
       </c>
-      <c r="C282" s="15" t="s">
+      <c r="C282" s="14" t="s">
         <v>763</v>
       </c>
-      <c r="D282" s="9" t="s">
+      <c r="D282" s="8" t="s">
         <v>1077</v>
       </c>
-      <c r="E282" s="10" t="s">
+      <c r="E282" s="9" t="s">
         <v>922</v>
       </c>
-      <c r="F282" s="7" t="s">
+      <c r="F282" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="G282" s="11" t="s">
+      <c r="G282" s="10" t="s">
         <v>1276</v>
       </c>
       <c r="H282" s="1">
@@ -12564,19 +12563,19 @@
       <c r="B283" s="1" t="s">
         <v>1293</v>
       </c>
-      <c r="C283" s="15" t="s">
+      <c r="C283" s="14" t="s">
         <v>764</v>
       </c>
-      <c r="D283" s="9" t="s">
+      <c r="D283" s="8" t="s">
         <v>1078</v>
       </c>
-      <c r="E283" s="10" t="s">
+      <c r="E283" s="9" t="s">
         <v>923</v>
       </c>
-      <c r="F283" s="7" t="s">
+      <c r="F283" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="G283" s="11" t="s">
+      <c r="G283" s="10" t="s">
         <v>1276</v>
       </c>
       <c r="H283" s="1">
@@ -12593,19 +12592,19 @@
       <c r="B284" s="1" t="s">
         <v>1293</v>
       </c>
-      <c r="C284" s="15" t="s">
+      <c r="C284" s="14" t="s">
         <v>765</v>
       </c>
-      <c r="D284" s="9" t="s">
+      <c r="D284" s="8" t="s">
         <v>1079</v>
       </c>
-      <c r="E284" s="10" t="s">
+      <c r="E284" s="9" t="s">
         <v>924</v>
       </c>
-      <c r="F284" s="7" t="s">
+      <c r="F284" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="G284" s="11" t="s">
+      <c r="G284" s="10" t="s">
         <v>1276</v>
       </c>
       <c r="H284" s="1">
@@ -12619,19 +12618,19 @@
       <c r="B285" s="1" t="s">
         <v>1293</v>
       </c>
-      <c r="C285" s="15" t="s">
+      <c r="C285" s="14" t="s">
         <v>766</v>
       </c>
-      <c r="D285" s="12" t="s">
+      <c r="D285" s="11" t="s">
         <v>1080</v>
       </c>
-      <c r="E285" s="10" t="s">
+      <c r="E285" s="9" t="s">
         <v>925</v>
       </c>
-      <c r="F285" s="7" t="s">
+      <c r="F285" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="G285" s="11" t="s">
+      <c r="G285" s="10" t="s">
         <v>1276</v>
       </c>
       <c r="H285" s="1">
@@ -12648,19 +12647,19 @@
       <c r="B286" s="1" t="s">
         <v>1293</v>
       </c>
-      <c r="C286" s="15" t="s">
+      <c r="C286" s="14" t="s">
         <v>767</v>
       </c>
-      <c r="D286" s="9" t="s">
+      <c r="D286" s="8" t="s">
         <v>1081</v>
       </c>
-      <c r="E286" s="10" t="s">
+      <c r="E286" s="9" t="s">
         <v>926</v>
       </c>
-      <c r="F286" s="7" t="s">
+      <c r="F286" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="G286" s="11" t="s">
+      <c r="G286" s="10" t="s">
         <v>1276</v>
       </c>
       <c r="H286" s="1">
@@ -12677,19 +12676,19 @@
       <c r="B287" s="1" t="s">
         <v>1293</v>
       </c>
-      <c r="C287" s="15" t="s">
+      <c r="C287" s="14" t="s">
         <v>768</v>
       </c>
-      <c r="D287" s="9" t="s">
+      <c r="D287" s="8" t="s">
         <v>1082</v>
       </c>
-      <c r="E287" s="10" t="s">
+      <c r="E287" s="9" t="s">
         <v>927</v>
       </c>
-      <c r="F287" s="7" t="s">
+      <c r="F287" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="G287" s="11" t="s">
+      <c r="G287" s="10" t="s">
         <v>1277</v>
       </c>
       <c r="H287" s="1">
@@ -12706,19 +12705,19 @@
       <c r="B288" s="1" t="s">
         <v>1293</v>
       </c>
-      <c r="C288" s="15" t="s">
+      <c r="C288" s="14" t="s">
         <v>769</v>
       </c>
-      <c r="D288" s="9" t="s">
+      <c r="D288" s="8" t="s">
         <v>1083</v>
       </c>
-      <c r="E288" s="10" t="s">
+      <c r="E288" s="9" t="s">
         <v>928</v>
       </c>
-      <c r="F288" s="7" t="s">
+      <c r="F288" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="G288" s="11" t="s">
+      <c r="G288" s="10" t="s">
         <v>1277</v>
       </c>
       <c r="H288" s="1">
@@ -12735,19 +12734,19 @@
       <c r="B289" s="1" t="s">
         <v>1293</v>
       </c>
-      <c r="C289" s="15" t="s">
+      <c r="C289" s="14" t="s">
         <v>770</v>
       </c>
-      <c r="D289" s="9" t="s">
+      <c r="D289" s="8" t="s">
         <v>1084</v>
       </c>
-      <c r="E289" s="10" t="s">
+      <c r="E289" s="9" t="s">
         <v>929</v>
       </c>
-      <c r="F289" s="7" t="s">
+      <c r="F289" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="G289" s="11" t="s">
+      <c r="G289" s="10" t="s">
         <v>1277</v>
       </c>
       <c r="H289" s="1">
@@ -12764,19 +12763,19 @@
       <c r="B290" s="1" t="s">
         <v>1293</v>
       </c>
-      <c r="C290" s="15" t="s">
+      <c r="C290" s="14" t="s">
         <v>771</v>
       </c>
-      <c r="D290" s="9" t="s">
+      <c r="D290" s="8" t="s">
         <v>1085</v>
       </c>
-      <c r="E290" s="10" t="s">
+      <c r="E290" s="9" t="s">
         <v>930</v>
       </c>
-      <c r="F290" s="7" t="s">
+      <c r="F290" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="G290" s="11" t="s">
+      <c r="G290" s="10" t="s">
         <v>1277</v>
       </c>
       <c r="H290" s="1">
@@ -12790,19 +12789,19 @@
       <c r="B291" s="1" t="s">
         <v>1293</v>
       </c>
-      <c r="C291" s="15" t="s">
+      <c r="C291" s="14" t="s">
         <v>772</v>
       </c>
-      <c r="D291" s="9" t="s">
+      <c r="D291" s="8" t="s">
         <v>1086</v>
       </c>
-      <c r="E291" s="10" t="s">
+      <c r="E291" s="9" t="s">
         <v>931</v>
       </c>
-      <c r="F291" s="7" t="s">
+      <c r="F291" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="G291" s="11" t="s">
+      <c r="G291" s="10" t="s">
         <v>1277</v>
       </c>
       <c r="H291" s="1">
@@ -12816,19 +12815,19 @@
       <c r="B292" s="1" t="s">
         <v>1293</v>
       </c>
-      <c r="C292" s="15" t="s">
+      <c r="C292" s="14" t="s">
         <v>773</v>
       </c>
-      <c r="D292" s="9" t="s">
+      <c r="D292" s="8" t="s">
         <v>1087</v>
       </c>
-      <c r="E292" s="10" t="s">
+      <c r="E292" s="9" t="s">
         <v>932</v>
       </c>
-      <c r="F292" s="7" t="s">
+      <c r="F292" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="G292" s="11" t="s">
+      <c r="G292" s="10" t="s">
         <v>1277</v>
       </c>
       <c r="H292" s="1">
@@ -12845,19 +12844,19 @@
       <c r="B293" s="1" t="s">
         <v>1293</v>
       </c>
-      <c r="C293" s="15" t="s">
+      <c r="C293" s="14" t="s">
         <v>774</v>
       </c>
-      <c r="D293" s="9" t="s">
+      <c r="D293" s="8" t="s">
         <v>1088</v>
       </c>
-      <c r="E293" s="10" t="s">
+      <c r="E293" s="9" t="s">
         <v>933</v>
       </c>
-      <c r="F293" s="7" t="s">
+      <c r="F293" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="G293" s="11" t="s">
+      <c r="G293" s="10" t="s">
         <v>1277</v>
       </c>
       <c r="H293" s="1">
@@ -12871,19 +12870,19 @@
       <c r="B294" s="1" t="s">
         <v>1293</v>
       </c>
-      <c r="C294" s="15" t="s">
+      <c r="C294" s="14" t="s">
         <v>775</v>
       </c>
-      <c r="D294" s="9" t="s">
+      <c r="D294" s="8" t="s">
         <v>1089</v>
       </c>
-      <c r="E294" s="10" t="s">
+      <c r="E294" s="9" t="s">
         <v>934</v>
       </c>
-      <c r="F294" s="7" t="s">
+      <c r="F294" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="G294" s="11" t="s">
+      <c r="G294" s="10" t="s">
         <v>1277</v>
       </c>
       <c r="H294" s="1">
@@ -12897,19 +12896,19 @@
       <c r="B295" s="1" t="s">
         <v>1293</v>
       </c>
-      <c r="C295" s="15" t="s">
+      <c r="C295" s="14" t="s">
         <v>776</v>
       </c>
-      <c r="D295" s="9" t="s">
+      <c r="D295" s="8" t="s">
         <v>1090</v>
       </c>
-      <c r="E295" s="10" t="s">
+      <c r="E295" s="9" t="s">
         <v>935</v>
       </c>
-      <c r="F295" s="7" t="s">
+      <c r="F295" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="G295" s="11" t="s">
+      <c r="G295" s="10" t="s">
         <v>1277</v>
       </c>
       <c r="H295" s="1">
@@ -12926,19 +12925,19 @@
       <c r="B296" s="1" t="s">
         <v>1293</v>
       </c>
-      <c r="C296" s="15" t="s">
+      <c r="C296" s="14" t="s">
         <v>777</v>
       </c>
-      <c r="D296" s="9" t="s">
+      <c r="D296" s="8" t="s">
         <v>1091</v>
       </c>
-      <c r="E296" s="10" t="s">
+      <c r="E296" s="9" t="s">
         <v>936</v>
       </c>
-      <c r="F296" s="7" t="s">
+      <c r="F296" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="G296" s="11" t="s">
+      <c r="G296" s="10" t="s">
         <v>1277</v>
       </c>
       <c r="H296" s="1">
@@ -12955,19 +12954,19 @@
       <c r="B297" s="1" t="s">
         <v>1293</v>
       </c>
-      <c r="C297" s="15" t="s">
+      <c r="C297" s="14" t="s">
         <v>778</v>
       </c>
-      <c r="D297" s="9" t="s">
+      <c r="D297" s="8" t="s">
         <v>1092</v>
       </c>
-      <c r="E297" s="10" t="s">
+      <c r="E297" s="9" t="s">
         <v>937</v>
       </c>
-      <c r="F297" s="7" t="s">
+      <c r="F297" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="G297" s="11" t="s">
+      <c r="G297" s="10" t="s">
         <v>1278</v>
       </c>
       <c r="H297" s="1">
@@ -12981,19 +12980,19 @@
       <c r="B298" s="1" t="s">
         <v>1293</v>
       </c>
-      <c r="C298" s="15" t="s">
+      <c r="C298" s="14" t="s">
         <v>779</v>
       </c>
-      <c r="D298" s="9" t="s">
+      <c r="D298" s="8" t="s">
         <v>1093</v>
       </c>
-      <c r="E298" s="10" t="s">
+      <c r="E298" s="9" t="s">
         <v>938</v>
       </c>
-      <c r="F298" s="7" t="s">
+      <c r="F298" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="G298" s="11" t="s">
+      <c r="G298" s="10" t="s">
         <v>1278</v>
       </c>
       <c r="H298" s="1">
@@ -13007,19 +13006,19 @@
       <c r="B299" s="1" t="s">
         <v>1293</v>
       </c>
-      <c r="C299" s="15" t="s">
+      <c r="C299" s="14" t="s">
         <v>780</v>
       </c>
-      <c r="D299" s="9" t="s">
+      <c r="D299" s="8" t="s">
         <v>1094</v>
       </c>
-      <c r="E299" s="10" t="s">
+      <c r="E299" s="9" t="s">
         <v>939</v>
       </c>
-      <c r="F299" s="7" t="s">
+      <c r="F299" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="G299" s="11" t="s">
+      <c r="G299" s="10" t="s">
         <v>1278</v>
       </c>
       <c r="H299" s="1">
@@ -13036,19 +13035,19 @@
       <c r="B300" s="1" t="s">
         <v>1293</v>
       </c>
-      <c r="C300" s="15" t="s">
+      <c r="C300" s="14" t="s">
         <v>781</v>
       </c>
-      <c r="D300" s="9" t="s">
+      <c r="D300" s="8" t="s">
         <v>1095</v>
       </c>
-      <c r="E300" s="10" t="s">
+      <c r="E300" s="9" t="s">
         <v>940</v>
       </c>
-      <c r="F300" s="7" t="s">
+      <c r="F300" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="G300" s="11" t="s">
+      <c r="G300" s="10" t="s">
         <v>1278</v>
       </c>
       <c r="H300" s="1">
@@ -13065,19 +13064,19 @@
       <c r="B301" s="1" t="s">
         <v>1293</v>
       </c>
-      <c r="C301" s="15" t="s">
+      <c r="C301" s="14" t="s">
         <v>782</v>
       </c>
-      <c r="D301" s="9" t="s">
+      <c r="D301" s="8" t="s">
         <v>1096</v>
       </c>
-      <c r="E301" s="10" t="s">
+      <c r="E301" s="9" t="s">
         <v>941</v>
       </c>
-      <c r="F301" s="7" t="s">
+      <c r="F301" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="G301" s="11" t="s">
+      <c r="G301" s="10" t="s">
         <v>1278</v>
       </c>
       <c r="H301" s="1">
@@ -13091,19 +13090,19 @@
       <c r="B302" s="1" t="s">
         <v>1293</v>
       </c>
-      <c r="C302" s="15" t="s">
+      <c r="C302" s="14" t="s">
         <v>783</v>
       </c>
-      <c r="D302" s="9" t="s">
+      <c r="D302" s="8" t="s">
         <v>1097</v>
       </c>
-      <c r="E302" s="10" t="s">
+      <c r="E302" s="9" t="s">
         <v>942</v>
       </c>
-      <c r="F302" s="7" t="s">
+      <c r="F302" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="G302" s="11" t="s">
+      <c r="G302" s="10" t="s">
         <v>1278</v>
       </c>
       <c r="H302" s="1">
@@ -13120,19 +13119,19 @@
       <c r="B303" s="1" t="s">
         <v>1293</v>
       </c>
-      <c r="C303" s="15" t="s">
+      <c r="C303" s="14" t="s">
         <v>784</v>
       </c>
-      <c r="D303" s="9" t="s">
+      <c r="D303" s="8" t="s">
         <v>1098</v>
       </c>
-      <c r="E303" s="10" t="s">
+      <c r="E303" s="9" t="s">
         <v>943</v>
       </c>
-      <c r="F303" s="7" t="s">
+      <c r="F303" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="G303" s="11" t="s">
+      <c r="G303" s="10" t="s">
         <v>1278</v>
       </c>
       <c r="H303" s="1">
@@ -13146,19 +13145,19 @@
       <c r="B304" s="1" t="s">
         <v>1293</v>
       </c>
-      <c r="C304" s="15" t="s">
+      <c r="C304" s="14" t="s">
         <v>785</v>
       </c>
-      <c r="D304" s="9" t="s">
+      <c r="D304" s="8" t="s">
         <v>1099</v>
       </c>
-      <c r="E304" s="10" t="s">
+      <c r="E304" s="9" t="s">
         <v>944</v>
       </c>
-      <c r="F304" s="7" t="s">
+      <c r="F304" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="G304" s="11" t="s">
+      <c r="G304" s="10" t="s">
         <v>1278</v>
       </c>
       <c r="H304" s="1">
@@ -13172,19 +13171,19 @@
       <c r="B305" s="1" t="s">
         <v>1293</v>
       </c>
-      <c r="C305" s="15" t="s">
+      <c r="C305" s="14" t="s">
         <v>786</v>
       </c>
-      <c r="D305" s="9" t="s">
+      <c r="D305" s="8" t="s">
         <v>1100</v>
       </c>
-      <c r="E305" s="10" t="s">
+      <c r="E305" s="9" t="s">
         <v>945</v>
       </c>
-      <c r="F305" s="7" t="s">
+      <c r="F305" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="G305" s="11" t="s">
+      <c r="G305" s="10" t="s">
         <v>1278</v>
       </c>
       <c r="H305" s="1">
@@ -13198,19 +13197,19 @@
       <c r="B306" s="1" t="s">
         <v>1293</v>
       </c>
-      <c r="C306" s="15" t="s">
+      <c r="C306" s="14" t="s">
         <v>787</v>
       </c>
-      <c r="D306" s="9" t="s">
+      <c r="D306" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="E306" s="10" t="s">
+      <c r="E306" s="9" t="s">
         <v>946</v>
       </c>
-      <c r="F306" s="7" t="s">
+      <c r="F306" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="G306" s="11" t="s">
+      <c r="G306" s="10" t="s">
         <v>1278</v>
       </c>
       <c r="H306" s="1">
@@ -13227,19 +13226,19 @@
       <c r="B307" s="1" t="s">
         <v>1293</v>
       </c>
-      <c r="C307" s="15" t="s">
+      <c r="C307" s="14" t="s">
         <v>788</v>
       </c>
-      <c r="D307" s="9" t="s">
+      <c r="D307" s="8" t="s">
         <v>1101</v>
       </c>
-      <c r="E307" s="10" t="s">
+      <c r="E307" s="9" t="s">
         <v>947</v>
       </c>
-      <c r="F307" s="7" t="s">
+      <c r="F307" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="G307" s="11" t="s">
+      <c r="G307" s="10" t="s">
         <v>1279</v>
       </c>
       <c r="H307" s="1">
@@ -13256,19 +13255,19 @@
       <c r="B308" s="1" t="s">
         <v>1293</v>
       </c>
-      <c r="C308" s="15" t="s">
+      <c r="C308" s="14" t="s">
         <v>789</v>
       </c>
-      <c r="D308" s="9" t="s">
+      <c r="D308" s="8" t="s">
         <v>1102</v>
       </c>
-      <c r="E308" s="10" t="s">
+      <c r="E308" s="9" t="s">
         <v>948</v>
       </c>
-      <c r="F308" s="7" t="s">
+      <c r="F308" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="G308" s="11" t="s">
+      <c r="G308" s="10" t="s">
         <v>1279</v>
       </c>
       <c r="H308" s="1">
@@ -13285,19 +13284,19 @@
       <c r="B309" s="1" t="s">
         <v>1293</v>
       </c>
-      <c r="C309" s="15" t="s">
+      <c r="C309" s="14" t="s">
         <v>790</v>
       </c>
-      <c r="D309" s="9" t="s">
+      <c r="D309" s="8" t="s">
         <v>1103</v>
       </c>
-      <c r="E309" s="10" t="s">
+      <c r="E309" s="9" t="s">
         <v>949</v>
       </c>
-      <c r="F309" s="7" t="s">
+      <c r="F309" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="G309" s="11" t="s">
+      <c r="G309" s="10" t="s">
         <v>1279</v>
       </c>
       <c r="H309" s="1">
@@ -13314,19 +13313,19 @@
       <c r="B310" s="1" t="s">
         <v>1293</v>
       </c>
-      <c r="C310" s="15" t="s">
+      <c r="C310" s="14" t="s">
         <v>791</v>
       </c>
-      <c r="D310" s="9" t="s">
+      <c r="D310" s="8" t="s">
         <v>1104</v>
       </c>
-      <c r="E310" s="10" t="s">
+      <c r="E310" s="9" t="s">
         <v>950</v>
       </c>
-      <c r="F310" s="7" t="s">
+      <c r="F310" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="G310" s="11" t="s">
+      <c r="G310" s="10" t="s">
         <v>1279</v>
       </c>
       <c r="H310" s="1">
@@ -13343,19 +13342,19 @@
       <c r="B311" s="1" t="s">
         <v>1293</v>
       </c>
-      <c r="C311" s="15" t="s">
+      <c r="C311" s="14" t="s">
         <v>792</v>
       </c>
-      <c r="D311" s="9" t="s">
+      <c r="D311" s="8" t="s">
         <v>1105</v>
       </c>
-      <c r="E311" s="10" t="s">
+      <c r="E311" s="9" t="s">
         <v>951</v>
       </c>
-      <c r="F311" s="7" t="s">
+      <c r="F311" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="G311" s="11" t="s">
+      <c r="G311" s="10" t="s">
         <v>1279</v>
       </c>
       <c r="H311" s="1">
@@ -13372,19 +13371,19 @@
       <c r="B312" s="1" t="s">
         <v>1293</v>
       </c>
-      <c r="C312" s="15" t="s">
+      <c r="C312" s="14" t="s">
         <v>793</v>
       </c>
-      <c r="D312" s="9" t="s">
+      <c r="D312" s="8" t="s">
         <v>1106</v>
       </c>
-      <c r="E312" s="10" t="s">
+      <c r="E312" s="9" t="s">
         <v>952</v>
       </c>
-      <c r="F312" s="7" t="s">
+      <c r="F312" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="G312" s="11" t="s">
+      <c r="G312" s="10" t="s">
         <v>1279</v>
       </c>
       <c r="H312" s="1">
@@ -13398,19 +13397,19 @@
       <c r="B313" s="1" t="s">
         <v>1293</v>
       </c>
-      <c r="C313" s="15" t="s">
+      <c r="C313" s="14" t="s">
         <v>794</v>
       </c>
-      <c r="D313" s="9" t="s">
+      <c r="D313" s="8" t="s">
         <v>1307</v>
       </c>
-      <c r="E313" s="10" t="s">
+      <c r="E313" s="9" t="s">
         <v>953</v>
       </c>
-      <c r="F313" s="7" t="s">
+      <c r="F313" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="G313" s="11" t="s">
+      <c r="G313" s="10" t="s">
         <v>1279</v>
       </c>
       <c r="H313" s="1">
@@ -13427,19 +13426,19 @@
       <c r="B314" s="1" t="s">
         <v>1293</v>
       </c>
-      <c r="C314" s="15" t="s">
+      <c r="C314" s="14" t="s">
         <v>795</v>
       </c>
-      <c r="D314" s="9" t="s">
+      <c r="D314" s="8" t="s">
         <v>1107</v>
       </c>
-      <c r="E314" s="10" t="s">
+      <c r="E314" s="9" t="s">
         <v>954</v>
       </c>
-      <c r="F314" s="7" t="s">
+      <c r="F314" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="G314" s="11" t="s">
+      <c r="G314" s="10" t="s">
         <v>1279</v>
       </c>
       <c r="H314" s="1">
@@ -13456,19 +13455,19 @@
       <c r="B315" s="1" t="s">
         <v>1293</v>
       </c>
-      <c r="C315" s="15" t="s">
+      <c r="C315" s="14" t="s">
         <v>796</v>
       </c>
-      <c r="D315" s="9" t="s">
+      <c r="D315" s="8" t="s">
         <v>1108</v>
       </c>
-      <c r="E315" s="10" t="s">
+      <c r="E315" s="9" t="s">
         <v>955</v>
       </c>
-      <c r="F315" s="7" t="s">
+      <c r="F315" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="G315" s="11" t="s">
+      <c r="G315" s="10" t="s">
         <v>1279</v>
       </c>
       <c r="H315" s="1">
@@ -13482,19 +13481,19 @@
       <c r="B316" s="1" t="s">
         <v>1293</v>
       </c>
-      <c r="C316" s="15" t="s">
+      <c r="C316" s="14" t="s">
         <v>797</v>
       </c>
-      <c r="D316" s="9" t="s">
+      <c r="D316" s="8" t="s">
         <v>1109</v>
       </c>
-      <c r="E316" s="10" t="s">
+      <c r="E316" s="9" t="s">
         <v>956</v>
       </c>
-      <c r="F316" s="7" t="s">
+      <c r="F316" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="G316" s="11" t="s">
+      <c r="G316" s="10" t="s">
         <v>1279</v>
       </c>
       <c r="H316" s="1">
@@ -13511,19 +13510,19 @@
       <c r="B317" s="1" t="s">
         <v>1293</v>
       </c>
-      <c r="C317" s="15" t="s">
+      <c r="C317" s="14" t="s">
         <v>798</v>
       </c>
-      <c r="D317" s="9" t="s">
+      <c r="D317" s="8" t="s">
         <v>1110</v>
       </c>
-      <c r="E317" s="10" t="s">
+      <c r="E317" s="9" t="s">
         <v>957</v>
       </c>
-      <c r="F317" s="7" t="s">
+      <c r="F317" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="G317" s="11" t="s">
+      <c r="G317" s="10" t="s">
         <v>1280</v>
       </c>
       <c r="H317" s="1">
@@ -13540,25 +13539,25 @@
       <c r="B318" s="1" t="s">
         <v>1293</v>
       </c>
-      <c r="C318" s="15" t="s">
+      <c r="C318" s="14" t="s">
         <v>799</v>
       </c>
-      <c r="D318" s="9" t="s">
+      <c r="D318" s="8" t="s">
         <v>1111</v>
       </c>
-      <c r="E318" s="10" t="s">
+      <c r="E318" s="9" t="s">
         <v>958</v>
       </c>
-      <c r="F318" s="7" t="s">
+      <c r="F318" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="G318" s="11" t="s">
+      <c r="G318" s="10" t="s">
         <v>1280</v>
       </c>
       <c r="H318" s="1">
         <v>1</v>
       </c>
-      <c r="I318" s="7"/>
+      <c r="I318" s="6"/>
     </row>
     <row r="319" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A319" s="1">
@@ -13567,19 +13566,19 @@
       <c r="B319" s="1" t="s">
         <v>1293</v>
       </c>
-      <c r="C319" s="15" t="s">
+      <c r="C319" s="14" t="s">
         <v>800</v>
       </c>
-      <c r="D319" s="9" t="s">
+      <c r="D319" s="8" t="s">
         <v>1112</v>
       </c>
-      <c r="E319" s="10" t="s">
+      <c r="E319" s="9" t="s">
         <v>959</v>
       </c>
-      <c r="F319" s="7" t="s">
+      <c r="F319" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="G319" s="11" t="s">
+      <c r="G319" s="10" t="s">
         <v>1280</v>
       </c>
       <c r="H319" s="1">
@@ -13593,19 +13592,19 @@
       <c r="B320" s="1" t="s">
         <v>1293</v>
       </c>
-      <c r="C320" s="15" t="s">
+      <c r="C320" s="14" t="s">
         <v>801</v>
       </c>
-      <c r="D320" s="9" t="s">
+      <c r="D320" s="8" t="s">
         <v>1113</v>
       </c>
-      <c r="E320" s="10" t="s">
+      <c r="E320" s="9" t="s">
         <v>960</v>
       </c>
-      <c r="F320" s="7" t="s">
+      <c r="F320" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="G320" s="11" t="s">
+      <c r="G320" s="10" t="s">
         <v>1280</v>
       </c>
       <c r="H320" s="1">
@@ -13619,19 +13618,19 @@
       <c r="B321" s="1" t="s">
         <v>1293</v>
       </c>
-      <c r="C321" s="15" t="s">
+      <c r="C321" s="14" t="s">
         <v>802</v>
       </c>
-      <c r="D321" s="9" t="s">
+      <c r="D321" s="8" t="s">
         <v>1114</v>
       </c>
-      <c r="E321" s="10" t="s">
+      <c r="E321" s="9" t="s">
         <v>961</v>
       </c>
-      <c r="F321" s="7" t="s">
+      <c r="F321" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="G321" s="11" t="s">
+      <c r="G321" s="10" t="s">
         <v>1280</v>
       </c>
       <c r="H321" s="1">
@@ -13648,19 +13647,19 @@
       <c r="B322" s="1" t="s">
         <v>1293</v>
       </c>
-      <c r="C322" s="15" t="s">
+      <c r="C322" s="14" t="s">
         <v>803</v>
       </c>
-      <c r="D322" s="9" t="s">
+      <c r="D322" s="8" t="s">
         <v>1115</v>
       </c>
-      <c r="E322" s="10" t="s">
+      <c r="E322" s="9" t="s">
         <v>962</v>
       </c>
-      <c r="F322" s="7" t="s">
+      <c r="F322" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="G322" s="11" t="s">
+      <c r="G322" s="10" t="s">
         <v>1280</v>
       </c>
       <c r="H322" s="1">
@@ -13674,19 +13673,19 @@
       <c r="B323" s="1" t="s">
         <v>1293</v>
       </c>
-      <c r="C323" s="15" t="s">
+      <c r="C323" s="14" t="s">
         <v>804</v>
       </c>
-      <c r="D323" s="9" t="s">
+      <c r="D323" s="8" t="s">
         <v>1116</v>
       </c>
-      <c r="E323" s="10" t="s">
+      <c r="E323" s="9" t="s">
         <v>963</v>
       </c>
-      <c r="F323" s="7" t="s">
+      <c r="F323" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="G323" s="11" t="s">
+      <c r="G323" s="10" t="s">
         <v>1280</v>
       </c>
       <c r="H323" s="1">
@@ -13703,19 +13702,19 @@
       <c r="B324" s="1" t="s">
         <v>1293</v>
       </c>
-      <c r="C324" s="15" t="s">
+      <c r="C324" s="14" t="s">
         <v>805</v>
       </c>
-      <c r="D324" s="9" t="s">
+      <c r="D324" s="8" t="s">
         <v>1117</v>
       </c>
-      <c r="E324" s="10" t="s">
+      <c r="E324" s="9" t="s">
         <v>964</v>
       </c>
-      <c r="F324" s="7" t="s">
+      <c r="F324" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="G324" s="11" t="s">
+      <c r="G324" s="10" t="s">
         <v>1280</v>
       </c>
       <c r="H324" s="1">
@@ -13732,19 +13731,19 @@
       <c r="B325" s="1" t="s">
         <v>1293</v>
       </c>
-      <c r="C325" s="15" t="s">
+      <c r="C325" s="14" t="s">
         <v>806</v>
       </c>
-      <c r="D325" s="9" t="s">
+      <c r="D325" s="8" t="s">
         <v>1118</v>
       </c>
-      <c r="E325" s="10" t="s">
+      <c r="E325" s="9" t="s">
         <v>965</v>
       </c>
-      <c r="F325" s="7" t="s">
+      <c r="F325" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="G325" s="11" t="s">
+      <c r="G325" s="10" t="s">
         <v>1280</v>
       </c>
       <c r="H325" s="1">
@@ -13761,19 +13760,19 @@
       <c r="B326" s="1" t="s">
         <v>1293</v>
       </c>
-      <c r="C326" s="15" t="s">
+      <c r="C326" s="14" t="s">
         <v>807</v>
       </c>
-      <c r="D326" s="9" t="s">
+      <c r="D326" s="8" t="s">
         <v>1119</v>
       </c>
-      <c r="E326" s="10" t="s">
+      <c r="E326" s="9" t="s">
         <v>966</v>
       </c>
-      <c r="F326" s="7" t="s">
+      <c r="F326" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="G326" s="11" t="s">
+      <c r="G326" s="10" t="s">
         <v>1280</v>
       </c>
       <c r="H326" s="1">
@@ -13790,19 +13789,19 @@
       <c r="B327" s="1" t="s">
         <v>1293</v>
       </c>
-      <c r="C327" s="15" t="s">
+      <c r="C327" s="14" t="s">
         <v>808</v>
       </c>
-      <c r="D327" s="9" t="s">
+      <c r="D327" s="8" t="s">
         <v>1120</v>
       </c>
-      <c r="E327" s="10" t="s">
+      <c r="E327" s="9" t="s">
         <v>967</v>
       </c>
-      <c r="F327" s="7" t="s">
+      <c r="F327" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="G327" s="11" t="s">
+      <c r="G327" s="10" t="s">
         <v>1281</v>
       </c>
       <c r="H327" s="1">
@@ -13819,19 +13818,19 @@
       <c r="B328" s="1" t="s">
         <v>1293</v>
       </c>
-      <c r="C328" s="15" t="s">
+      <c r="C328" s="14" t="s">
         <v>809</v>
       </c>
-      <c r="D328" s="9" t="s">
+      <c r="D328" s="8" t="s">
         <v>1121</v>
       </c>
-      <c r="E328" s="10" t="s">
+      <c r="E328" s="9" t="s">
         <v>968</v>
       </c>
-      <c r="F328" s="7" t="s">
+      <c r="F328" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="G328" s="11" t="s">
+      <c r="G328" s="10" t="s">
         <v>1281</v>
       </c>
       <c r="H328" s="1">
@@ -13845,19 +13844,19 @@
       <c r="B329" s="1" t="s">
         <v>1293</v>
       </c>
-      <c r="C329" s="15" t="s">
+      <c r="C329" s="14" t="s">
         <v>810</v>
       </c>
-      <c r="D329" s="9" t="s">
+      <c r="D329" s="8" t="s">
         <v>1122</v>
       </c>
-      <c r="E329" s="10" t="s">
+      <c r="E329" s="9" t="s">
         <v>969</v>
       </c>
-      <c r="F329" s="7" t="s">
+      <c r="F329" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="G329" s="11" t="s">
+      <c r="G329" s="10" t="s">
         <v>1281</v>
       </c>
       <c r="H329" s="1">
@@ -13874,19 +13873,19 @@
       <c r="B330" s="1" t="s">
         <v>1293</v>
       </c>
-      <c r="C330" s="15" t="s">
+      <c r="C330" s="14" t="s">
         <v>811</v>
       </c>
-      <c r="D330" s="9" t="s">
+      <c r="D330" s="8" t="s">
         <v>1123</v>
       </c>
-      <c r="E330" s="10" t="s">
+      <c r="E330" s="9" t="s">
         <v>970</v>
       </c>
-      <c r="F330" s="7" t="s">
+      <c r="F330" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="G330" s="11" t="s">
+      <c r="G330" s="10" t="s">
         <v>1281</v>
       </c>
       <c r="H330" s="1">
@@ -13900,19 +13899,19 @@
       <c r="B331" s="1" t="s">
         <v>1293</v>
       </c>
-      <c r="C331" s="15" t="s">
+      <c r="C331" s="14" t="s">
         <v>812</v>
       </c>
-      <c r="D331" s="9" t="s">
+      <c r="D331" s="8" t="s">
         <v>1124</v>
       </c>
-      <c r="E331" s="10" t="s">
+      <c r="E331" s="9" t="s">
         <v>971</v>
       </c>
-      <c r="F331" s="7" t="s">
+      <c r="F331" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="G331" s="11" t="s">
+      <c r="G331" s="10" t="s">
         <v>1281</v>
       </c>
       <c r="H331" s="1">
@@ -13929,19 +13928,19 @@
       <c r="B332" s="1" t="s">
         <v>1293</v>
       </c>
-      <c r="C332" s="15" t="s">
+      <c r="C332" s="14" t="s">
         <v>813</v>
       </c>
-      <c r="D332" s="9" t="s">
+      <c r="D332" s="8" t="s">
         <v>1125</v>
       </c>
-      <c r="E332" s="10" t="s">
+      <c r="E332" s="9" t="s">
         <v>972</v>
       </c>
-      <c r="F332" s="7" t="s">
+      <c r="F332" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="G332" s="11" t="s">
+      <c r="G332" s="10" t="s">
         <v>1281</v>
       </c>
       <c r="H332" s="1">
@@ -13958,19 +13957,19 @@
       <c r="B333" s="1" t="s">
         <v>1293</v>
       </c>
-      <c r="C333" s="15" t="s">
+      <c r="C333" s="14" t="s">
         <v>814</v>
       </c>
-      <c r="D333" s="9" t="s">
+      <c r="D333" s="8" t="s">
         <v>1126</v>
       </c>
-      <c r="E333" s="10" t="s">
+      <c r="E333" s="9" t="s">
         <v>973</v>
       </c>
-      <c r="F333" s="7" t="s">
+      <c r="F333" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="G333" s="11" t="s">
+      <c r="G333" s="10" t="s">
         <v>1281</v>
       </c>
       <c r="H333" s="1">
@@ -13987,19 +13986,19 @@
       <c r="B334" s="1" t="s">
         <v>1293</v>
       </c>
-      <c r="C334" s="15" t="s">
+      <c r="C334" s="14" t="s">
         <v>815</v>
       </c>
-      <c r="D334" s="9" t="s">
+      <c r="D334" s="8" t="s">
         <v>1127</v>
       </c>
-      <c r="E334" s="10" t="s">
+      <c r="E334" s="9" t="s">
         <v>974</v>
       </c>
-      <c r="F334" s="7" t="s">
+      <c r="F334" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="G334" s="11" t="s">
+      <c r="G334" s="10" t="s">
         <v>1281</v>
       </c>
       <c r="H334" s="1">
@@ -14013,19 +14012,19 @@
       <c r="B335" s="1" t="s">
         <v>1293</v>
       </c>
-      <c r="C335" s="15" t="s">
+      <c r="C335" s="14" t="s">
         <v>816</v>
       </c>
-      <c r="D335" s="9" t="s">
+      <c r="D335" s="8" t="s">
         <v>1128</v>
       </c>
-      <c r="E335" s="10" t="s">
+      <c r="E335" s="9" t="s">
         <v>975</v>
       </c>
-      <c r="F335" s="7" t="s">
+      <c r="F335" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="G335" s="11" t="s">
+      <c r="G335" s="10" t="s">
         <v>1281</v>
       </c>
       <c r="H335" s="1">
@@ -14039,19 +14038,19 @@
       <c r="B336" s="1" t="s">
         <v>1293</v>
       </c>
-      <c r="C336" s="15" t="s">
+      <c r="C336" s="14" t="s">
         <v>817</v>
       </c>
-      <c r="D336" s="9" t="s">
+      <c r="D336" s="8" t="s">
         <v>1129</v>
       </c>
-      <c r="E336" s="10" t="s">
+      <c r="E336" s="9" t="s">
         <v>976</v>
       </c>
-      <c r="F336" s="7" t="s">
+      <c r="F336" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="G336" s="11" t="s">
+      <c r="G336" s="10" t="s">
         <v>1281</v>
       </c>
       <c r="H336" s="1">
@@ -14068,19 +14067,19 @@
       <c r="B337" s="1" t="s">
         <v>1293</v>
       </c>
-      <c r="C337" s="15" t="s">
+      <c r="C337" s="14" t="s">
         <v>818</v>
       </c>
-      <c r="D337" s="9" t="s">
+      <c r="D337" s="8" t="s">
         <v>1130</v>
       </c>
-      <c r="E337" s="10" t="s">
+      <c r="E337" s="9" t="s">
         <v>977</v>
       </c>
-      <c r="F337" s="7" t="s">
+      <c r="F337" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="G337" s="11" t="s">
+      <c r="G337" s="10" t="s">
         <v>1282</v>
       </c>
       <c r="H337" s="1">
@@ -14097,19 +14096,19 @@
       <c r="B338" s="1" t="s">
         <v>1293</v>
       </c>
-      <c r="C338" s="15" t="s">
+      <c r="C338" s="14" t="s">
         <v>819</v>
       </c>
-      <c r="D338" s="9" t="s">
+      <c r="D338" s="8" t="s">
         <v>1131</v>
       </c>
-      <c r="E338" s="10" t="s">
+      <c r="E338" s="9" t="s">
         <v>1290</v>
       </c>
-      <c r="F338" s="7" t="s">
+      <c r="F338" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="G338" s="11" t="s">
+      <c r="G338" s="10" t="s">
         <v>1282</v>
       </c>
       <c r="H338" s="1">
@@ -14126,19 +14125,19 @@
       <c r="B339" s="1" t="s">
         <v>1293</v>
       </c>
-      <c r="C339" s="15" t="s">
+      <c r="C339" s="14" t="s">
         <v>820</v>
       </c>
-      <c r="D339" s="9" t="s">
+      <c r="D339" s="8" t="s">
         <v>1132</v>
       </c>
-      <c r="E339" s="10" t="s">
+      <c r="E339" s="9" t="s">
         <v>978</v>
       </c>
-      <c r="F339" s="7" t="s">
+      <c r="F339" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="G339" s="11" t="s">
+      <c r="G339" s="10" t="s">
         <v>1282</v>
       </c>
       <c r="H339" s="1">
@@ -14152,19 +14151,19 @@
       <c r="B340" s="1" t="s">
         <v>1293</v>
       </c>
-      <c r="C340" s="15" t="s">
+      <c r="C340" s="14" t="s">
         <v>821</v>
       </c>
-      <c r="D340" s="9" t="s">
+      <c r="D340" s="8" t="s">
         <v>1133</v>
       </c>
-      <c r="E340" s="10" t="s">
+      <c r="E340" s="9" t="s">
         <v>979</v>
       </c>
-      <c r="F340" s="7" t="s">
+      <c r="F340" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="G340" s="11" t="s">
+      <c r="G340" s="10" t="s">
         <v>1282</v>
       </c>
       <c r="H340" s="1">
@@ -14178,19 +14177,19 @@
       <c r="B341" s="1" t="s">
         <v>1293</v>
       </c>
-      <c r="C341" s="15" t="s">
+      <c r="C341" s="14" t="s">
         <v>822</v>
       </c>
-      <c r="D341" s="9" t="s">
+      <c r="D341" s="8" t="s">
         <v>1134</v>
       </c>
-      <c r="E341" s="10" t="s">
+      <c r="E341" s="9" t="s">
         <v>980</v>
       </c>
-      <c r="F341" s="7" t="s">
+      <c r="F341" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="G341" s="11" t="s">
+      <c r="G341" s="10" t="s">
         <v>1282</v>
       </c>
       <c r="H341" s="1">
@@ -14204,19 +14203,19 @@
       <c r="B342" s="1" t="s">
         <v>1293</v>
       </c>
-      <c r="C342" s="15" t="s">
+      <c r="C342" s="14" t="s">
         <v>823</v>
       </c>
-      <c r="D342" s="9" t="s">
+      <c r="D342" s="8" t="s">
         <v>1135</v>
       </c>
-      <c r="E342" s="10" t="s">
+      <c r="E342" s="9" t="s">
         <v>981</v>
       </c>
-      <c r="F342" s="7" t="s">
+      <c r="F342" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="G342" s="11" t="s">
+      <c r="G342" s="10" t="s">
         <v>1282</v>
       </c>
       <c r="H342" s="1">
@@ -14230,19 +14229,19 @@
       <c r="B343" s="1" t="s">
         <v>1293</v>
       </c>
-      <c r="C343" s="15" t="s">
+      <c r="C343" s="14" t="s">
         <v>824</v>
       </c>
-      <c r="D343" s="9" t="s">
+      <c r="D343" s="8" t="s">
         <v>1136</v>
       </c>
-      <c r="E343" s="10" t="s">
+      <c r="E343" s="9" t="s">
         <v>982</v>
       </c>
-      <c r="F343" s="7" t="s">
+      <c r="F343" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="G343" s="11" t="s">
+      <c r="G343" s="10" t="s">
         <v>1282</v>
       </c>
       <c r="H343" s="1">
@@ -14256,19 +14255,19 @@
       <c r="B344" s="1" t="s">
         <v>1293</v>
       </c>
-      <c r="C344" s="15" t="s">
+      <c r="C344" s="14" t="s">
         <v>825</v>
       </c>
-      <c r="D344" s="9" t="s">
+      <c r="D344" s="8" t="s">
         <v>1137</v>
       </c>
-      <c r="E344" s="10" t="s">
+      <c r="E344" s="9" t="s">
         <v>983</v>
       </c>
-      <c r="F344" s="7" t="s">
+      <c r="F344" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="G344" s="11" t="s">
+      <c r="G344" s="10" t="s">
         <v>1282</v>
       </c>
       <c r="H344" s="1">
@@ -14285,19 +14284,19 @@
       <c r="B345" s="1" t="s">
         <v>1293</v>
       </c>
-      <c r="C345" s="15" t="s">
+      <c r="C345" s="14" t="s">
         <v>826</v>
       </c>
-      <c r="D345" s="9" t="s">
+      <c r="D345" s="8" t="s">
         <v>1138</v>
       </c>
-      <c r="E345" s="10" t="s">
+      <c r="E345" s="9" t="s">
         <v>984</v>
       </c>
-      <c r="F345" s="7" t="s">
+      <c r="F345" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="G345" s="11" t="s">
+      <c r="G345" s="10" t="s">
         <v>1282</v>
       </c>
       <c r="H345" s="1">
@@ -14314,19 +14313,19 @@
       <c r="B346" s="1" t="s">
         <v>1293</v>
       </c>
-      <c r="C346" s="15" t="s">
+      <c r="C346" s="14" t="s">
         <v>827</v>
       </c>
-      <c r="D346" s="9" t="s">
+      <c r="D346" s="8" t="s">
         <v>1139</v>
       </c>
-      <c r="E346" s="10" t="s">
+      <c r="E346" s="9" t="s">
         <v>985</v>
       </c>
-      <c r="F346" s="7" t="s">
+      <c r="F346" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="G346" s="11" t="s">
+      <c r="G346" s="10" t="s">
         <v>1282</v>
       </c>
       <c r="H346" s="1">
@@ -14340,19 +14339,19 @@
       <c r="B347" s="1" t="s">
         <v>1293</v>
       </c>
-      <c r="C347" s="15" t="s">
+      <c r="C347" s="14" t="s">
         <v>828</v>
       </c>
-      <c r="D347" s="9" t="s">
+      <c r="D347" s="8" t="s">
         <v>1140</v>
       </c>
-      <c r="E347" s="10" t="s">
+      <c r="E347" s="9" t="s">
         <v>986</v>
       </c>
-      <c r="F347" s="7" t="s">
+      <c r="F347" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="G347" s="11" t="s">
+      <c r="G347" s="10" t="s">
         <v>1283</v>
       </c>
       <c r="H347" s="1">
@@ -14369,19 +14368,19 @@
       <c r="B348" s="1" t="s">
         <v>1293</v>
       </c>
-      <c r="C348" s="15" t="s">
+      <c r="C348" s="14" t="s">
         <v>829</v>
       </c>
-      <c r="D348" s="9" t="s">
+      <c r="D348" s="8" t="s">
         <v>1141</v>
       </c>
-      <c r="E348" s="10" t="s">
+      <c r="E348" s="9" t="s">
         <v>1291</v>
       </c>
-      <c r="F348" s="7" t="s">
+      <c r="F348" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="G348" s="11" t="s">
+      <c r="G348" s="10" t="s">
         <v>1283</v>
       </c>
       <c r="H348" s="1">
@@ -14395,19 +14394,19 @@
       <c r="B349" s="1" t="s">
         <v>1293</v>
       </c>
-      <c r="C349" s="15" t="s">
+      <c r="C349" s="14" t="s">
         <v>830</v>
       </c>
-      <c r="D349" s="9" t="s">
+      <c r="D349" s="8" t="s">
         <v>1142</v>
       </c>
-      <c r="E349" s="10" t="s">
+      <c r="E349" s="9" t="s">
         <v>987</v>
       </c>
-      <c r="F349" s="7" t="s">
+      <c r="F349" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="G349" s="11" t="s">
+      <c r="G349" s="10" t="s">
         <v>1283</v>
       </c>
       <c r="H349" s="1">
@@ -14421,19 +14420,19 @@
       <c r="B350" s="1" t="s">
         <v>1293</v>
       </c>
-      <c r="C350" s="15" t="s">
+      <c r="C350" s="14" t="s">
         <v>831</v>
       </c>
-      <c r="D350" s="9" t="s">
+      <c r="D350" s="8" t="s">
         <v>1143</v>
       </c>
-      <c r="E350" s="10" t="s">
+      <c r="E350" s="9" t="s">
         <v>988</v>
       </c>
-      <c r="F350" s="7" t="s">
+      <c r="F350" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="G350" s="11" t="s">
+      <c r="G350" s="10" t="s">
         <v>1283</v>
       </c>
       <c r="H350" s="1">
@@ -14447,19 +14446,19 @@
       <c r="B351" s="1" t="s">
         <v>1293</v>
       </c>
-      <c r="C351" s="15" t="s">
+      <c r="C351" s="14" t="s">
         <v>832</v>
       </c>
-      <c r="D351" s="9" t="s">
+      <c r="D351" s="8" t="s">
         <v>1144</v>
       </c>
-      <c r="E351" s="10" t="s">
+      <c r="E351" s="9" t="s">
         <v>989</v>
       </c>
-      <c r="F351" s="7" t="s">
+      <c r="F351" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="G351" s="11" t="s">
+      <c r="G351" s="10" t="s">
         <v>1283</v>
       </c>
       <c r="H351" s="1">
@@ -14473,19 +14472,19 @@
       <c r="B352" s="1" t="s">
         <v>1293</v>
       </c>
-      <c r="C352" s="15" t="s">
+      <c r="C352" s="14" t="s">
         <v>833</v>
       </c>
-      <c r="D352" s="9" t="s">
+      <c r="D352" s="8" t="s">
         <v>1145</v>
       </c>
-      <c r="E352" s="10" t="s">
+      <c r="E352" s="9" t="s">
         <v>990</v>
       </c>
-      <c r="F352" s="7" t="s">
+      <c r="F352" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="G352" s="11" t="s">
+      <c r="G352" s="10" t="s">
         <v>1283</v>
       </c>
       <c r="H352" s="1">
@@ -14502,19 +14501,19 @@
       <c r="B353" s="1" t="s">
         <v>1293</v>
       </c>
-      <c r="C353" s="15" t="s">
+      <c r="C353" s="14" t="s">
         <v>834</v>
       </c>
-      <c r="D353" s="9" t="s">
+      <c r="D353" s="8" t="s">
         <v>1146</v>
       </c>
-      <c r="E353" s="10" t="s">
+      <c r="E353" s="9" t="s">
         <v>991</v>
       </c>
-      <c r="F353" s="7" t="s">
+      <c r="F353" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="G353" s="11" t="s">
+      <c r="G353" s="10" t="s">
         <v>1283</v>
       </c>
       <c r="H353" s="1">
@@ -14528,19 +14527,19 @@
       <c r="B354" s="1" t="s">
         <v>1293</v>
       </c>
-      <c r="C354" s="15" t="s">
+      <c r="C354" s="14" t="s">
         <v>835</v>
       </c>
-      <c r="D354" s="9" t="s">
+      <c r="D354" s="8" t="s">
         <v>1147</v>
       </c>
-      <c r="E354" s="10" t="s">
+      <c r="E354" s="9" t="s">
         <v>992</v>
       </c>
-      <c r="F354" s="7" t="s">
+      <c r="F354" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="G354" s="11" t="s">
+      <c r="G354" s="10" t="s">
         <v>1283</v>
       </c>
       <c r="H354" s="1">
@@ -14554,19 +14553,19 @@
       <c r="B355" s="1" t="s">
         <v>1293</v>
       </c>
-      <c r="C355" s="15" t="s">
+      <c r="C355" s="14" t="s">
         <v>836</v>
       </c>
-      <c r="D355" s="9" t="s">
+      <c r="D355" s="8" t="s">
         <v>1148</v>
       </c>
-      <c r="E355" s="10" t="s">
+      <c r="E355" s="9" t="s">
         <v>993</v>
       </c>
-      <c r="F355" s="7" t="s">
+      <c r="F355" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="G355" s="11" t="s">
+      <c r="G355" s="10" t="s">
         <v>1283</v>
       </c>
       <c r="H355" s="1">
@@ -14583,19 +14582,19 @@
       <c r="B356" s="1" t="s">
         <v>1293</v>
       </c>
-      <c r="C356" s="15" t="s">
+      <c r="C356" s="14" t="s">
         <v>837</v>
       </c>
-      <c r="D356" s="9" t="s">
+      <c r="D356" s="8" t="s">
         <v>1149</v>
       </c>
-      <c r="E356" s="10" t="s">
+      <c r="E356" s="9" t="s">
         <v>994</v>
       </c>
-      <c r="F356" s="7" t="s">
+      <c r="F356" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="G356" s="11" t="s">
+      <c r="G356" s="10" t="s">
         <v>1283</v>
       </c>
       <c r="H356" s="1">
@@ -14612,19 +14611,19 @@
       <c r="B357" s="1" t="s">
         <v>1293</v>
       </c>
-      <c r="C357" s="15" t="s">
+      <c r="C357" s="14" t="s">
         <v>838</v>
       </c>
-      <c r="D357" s="9" t="s">
+      <c r="D357" s="8" t="s">
         <v>1150</v>
       </c>
-      <c r="E357" s="10" t="s">
+      <c r="E357" s="9" t="s">
         <v>995</v>
       </c>
-      <c r="F357" s="7" t="s">
+      <c r="F357" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="G357" s="11" t="s">
+      <c r="G357" s="10" t="s">
         <v>1284</v>
       </c>
       <c r="H357" s="1">
@@ -14641,19 +14640,19 @@
       <c r="B358" s="1" t="s">
         <v>1293</v>
       </c>
-      <c r="C358" s="15" t="s">
+      <c r="C358" s="14" t="s">
         <v>839</v>
       </c>
-      <c r="D358" s="9" t="s">
+      <c r="D358" s="8" t="s">
         <v>1151</v>
       </c>
-      <c r="E358" s="10" t="s">
+      <c r="E358" s="9" t="s">
         <v>996</v>
       </c>
-      <c r="F358" s="7" t="s">
+      <c r="F358" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="G358" s="11" t="s">
+      <c r="G358" s="10" t="s">
         <v>1284</v>
       </c>
       <c r="H358" s="1">
@@ -14670,19 +14669,19 @@
       <c r="B359" s="1" t="s">
         <v>1293</v>
       </c>
-      <c r="C359" s="15" t="s">
+      <c r="C359" s="14" t="s">
         <v>840</v>
       </c>
-      <c r="D359" s="9" t="s">
+      <c r="D359" s="8" t="s">
         <v>1152</v>
       </c>
-      <c r="E359" s="10" t="s">
+      <c r="E359" s="9" t="s">
         <v>1292</v>
       </c>
-      <c r="F359" s="7" t="s">
+      <c r="F359" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="G359" s="11" t="s">
+      <c r="G359" s="10" t="s">
         <v>1284</v>
       </c>
       <c r="H359" s="1">
@@ -14699,19 +14698,19 @@
       <c r="B360" s="1" t="s">
         <v>1293</v>
       </c>
-      <c r="C360" s="15" t="s">
+      <c r="C360" s="14" t="s">
         <v>841</v>
       </c>
-      <c r="D360" s="9" t="s">
+      <c r="D360" s="8" t="s">
         <v>1153</v>
       </c>
-      <c r="E360" s="10" t="s">
+      <c r="E360" s="9" t="s">
         <v>997</v>
       </c>
-      <c r="F360" s="7" t="s">
+      <c r="F360" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="G360" s="11" t="s">
+      <c r="G360" s="10" t="s">
         <v>1284</v>
       </c>
       <c r="H360" s="1">
@@ -14728,25 +14727,25 @@
       <c r="B361" s="1" t="s">
         <v>1293</v>
       </c>
-      <c r="C361" s="15" t="s">
+      <c r="C361" s="14" t="s">
         <v>842</v>
       </c>
-      <c r="D361" s="9" t="s">
+      <c r="D361" s="8" t="s">
         <v>1154</v>
       </c>
-      <c r="E361" s="10" t="s">
+      <c r="E361" s="9" t="s">
         <v>998</v>
       </c>
-      <c r="F361" s="7" t="s">
+      <c r="F361" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="G361" s="11" t="s">
+      <c r="G361" s="10" t="s">
         <v>1284</v>
       </c>
       <c r="H361" s="1">
         <v>0</v>
       </c>
-      <c r="I361" s="7"/>
+      <c r="I361" s="6"/>
     </row>
     <row r="362" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A362" s="1">
@@ -14755,25 +14754,25 @@
       <c r="B362" s="1" t="s">
         <v>1293</v>
       </c>
-      <c r="C362" s="15" t="s">
+      <c r="C362" s="14" t="s">
         <v>843</v>
       </c>
-      <c r="D362" s="9" t="s">
+      <c r="D362" s="8" t="s">
         <v>1155</v>
       </c>
-      <c r="E362" s="10" t="s">
+      <c r="E362" s="9" t="s">
         <v>999</v>
       </c>
-      <c r="F362" s="7" t="s">
+      <c r="F362" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="G362" s="11" t="s">
+      <c r="G362" s="10" t="s">
         <v>1284</v>
       </c>
       <c r="H362" s="1">
         <v>0</v>
       </c>
-      <c r="I362" s="7"/>
+      <c r="I362" s="6"/>
     </row>
     <row r="363" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A363" s="1">
@@ -14782,19 +14781,19 @@
       <c r="B363" s="1" t="s">
         <v>1293</v>
       </c>
-      <c r="C363" s="15" t="s">
+      <c r="C363" s="14" t="s">
         <v>844</v>
       </c>
-      <c r="D363" s="9" t="s">
+      <c r="D363" s="8" t="s">
         <v>1156</v>
       </c>
-      <c r="E363" s="10" t="s">
+      <c r="E363" s="9" t="s">
         <v>1000</v>
       </c>
-      <c r="F363" s="7" t="s">
+      <c r="F363" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="G363" s="11" t="s">
+      <c r="G363" s="10" t="s">
         <v>1284</v>
       </c>
       <c r="H363" s="1">
@@ -14811,19 +14810,19 @@
       <c r="B364" s="1" t="s">
         <v>1293</v>
       </c>
-      <c r="C364" s="15" t="s">
+      <c r="C364" s="14" t="s">
         <v>845</v>
       </c>
-      <c r="D364" s="9" t="s">
+      <c r="D364" s="8" t="s">
         <v>1157</v>
       </c>
-      <c r="E364" s="10" t="s">
+      <c r="E364" s="9" t="s">
         <v>1001</v>
       </c>
-      <c r="F364" s="7" t="s">
+      <c r="F364" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="G364" s="11" t="s">
+      <c r="G364" s="10" t="s">
         <v>1284</v>
       </c>
       <c r="H364" s="1">
@@ -14840,19 +14839,19 @@
       <c r="B365" s="1" t="s">
         <v>1293</v>
       </c>
-      <c r="C365" s="15" t="s">
+      <c r="C365" s="14" t="s">
         <v>846</v>
       </c>
-      <c r="D365" s="9" t="s">
+      <c r="D365" s="8" t="s">
         <v>1158</v>
       </c>
-      <c r="E365" s="10" t="s">
+      <c r="E365" s="9" t="s">
         <v>1002</v>
       </c>
-      <c r="F365" s="7" t="s">
+      <c r="F365" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="G365" s="11" t="s">
+      <c r="G365" s="10" t="s">
         <v>1284</v>
       </c>
       <c r="H365" s="1">
@@ -14869,19 +14868,19 @@
       <c r="B366" s="1" t="s">
         <v>1293</v>
       </c>
-      <c r="C366" s="15" t="s">
+      <c r="C366" s="14" t="s">
         <v>847</v>
       </c>
-      <c r="D366" s="9" t="s">
+      <c r="D366" s="8" t="s">
         <v>1159</v>
       </c>
-      <c r="E366" s="10" t="s">
+      <c r="E366" s="9" t="s">
         <v>1003</v>
       </c>
-      <c r="F366" s="7" t="s">
+      <c r="F366" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="G366" s="11" t="s">
+      <c r="G366" s="10" t="s">
         <v>1284</v>
       </c>
       <c r="H366" s="1">
@@ -14898,19 +14897,19 @@
       <c r="B367" s="1" t="s">
         <v>1293</v>
       </c>
-      <c r="C367" s="15" t="s">
+      <c r="C367" s="14" t="s">
         <v>848</v>
       </c>
-      <c r="D367" s="9" t="s">
+      <c r="D367" s="8" t="s">
         <v>1160</v>
       </c>
-      <c r="E367" s="10" t="s">
+      <c r="E367" s="9" t="s">
         <v>1004</v>
       </c>
-      <c r="F367" s="7" t="s">
+      <c r="F367" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="G367" s="11" t="s">
+      <c r="G367" s="10" t="s">
         <v>1285</v>
       </c>
       <c r="H367" s="1">
@@ -14927,19 +14926,19 @@
       <c r="B368" s="1" t="s">
         <v>1293</v>
       </c>
-      <c r="C368" s="15" t="s">
+      <c r="C368" s="14" t="s">
         <v>849</v>
       </c>
-      <c r="D368" s="9" t="s">
+      <c r="D368" s="8" t="s">
         <v>1161</v>
       </c>
-      <c r="E368" s="10" t="s">
+      <c r="E368" s="9" t="s">
         <v>1005</v>
       </c>
-      <c r="F368" s="7" t="s">
+      <c r="F368" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="G368" s="11" t="s">
+      <c r="G368" s="10" t="s">
         <v>1285</v>
       </c>
       <c r="H368" s="1">
@@ -14956,19 +14955,19 @@
       <c r="B369" s="1" t="s">
         <v>1293</v>
       </c>
-      <c r="C369" s="15" t="s">
+      <c r="C369" s="14" t="s">
         <v>850</v>
       </c>
-      <c r="D369" s="9" t="s">
+      <c r="D369" s="8" t="s">
         <v>1162</v>
       </c>
-      <c r="E369" s="10" t="s">
+      <c r="E369" s="9" t="s">
         <v>1006</v>
       </c>
-      <c r="F369" s="7" t="s">
+      <c r="F369" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="G369" s="11" t="s">
+      <c r="G369" s="10" t="s">
         <v>1285</v>
       </c>
       <c r="H369" s="1">
@@ -14985,19 +14984,19 @@
       <c r="B370" s="1" t="s">
         <v>1293</v>
       </c>
-      <c r="C370" s="15" t="s">
+      <c r="C370" s="14" t="s">
         <v>851</v>
       </c>
-      <c r="D370" s="9" t="s">
+      <c r="D370" s="8" t="s">
         <v>1163</v>
       </c>
-      <c r="E370" s="10" t="s">
+      <c r="E370" s="9" t="s">
         <v>1007</v>
       </c>
-      <c r="F370" s="7" t="s">
+      <c r="F370" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="G370" s="11" t="s">
+      <c r="G370" s="10" t="s">
         <v>1285</v>
       </c>
       <c r="H370" s="1">
@@ -15014,25 +15013,25 @@
       <c r="B371" s="1" t="s">
         <v>1293</v>
       </c>
-      <c r="C371" s="15" t="s">
+      <c r="C371" s="14" t="s">
         <v>852</v>
       </c>
-      <c r="D371" s="9" t="s">
+      <c r="D371" s="8" t="s">
         <v>1164</v>
       </c>
-      <c r="E371" s="10" t="s">
+      <c r="E371" s="9" t="s">
         <v>1008</v>
       </c>
-      <c r="F371" s="7" t="s">
+      <c r="F371" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="G371" s="11" t="s">
+      <c r="G371" s="10" t="s">
         <v>1285</v>
       </c>
       <c r="H371" s="1">
         <v>1</v>
       </c>
-      <c r="I371" s="7"/>
+      <c r="I371" s="6"/>
     </row>
     <row r="372" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A372" s="1">
@@ -15041,19 +15040,19 @@
       <c r="B372" s="1" t="s">
         <v>1293</v>
       </c>
-      <c r="C372" s="15" t="s">
+      <c r="C372" s="14" t="s">
         <v>853</v>
       </c>
-      <c r="D372" s="9" t="s">
+      <c r="D372" s="8" t="s">
         <v>1165</v>
       </c>
-      <c r="E372" s="10" t="s">
+      <c r="E372" s="9" t="s">
         <v>1009</v>
       </c>
-      <c r="F372" s="7" t="s">
+      <c r="F372" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="G372" s="11" t="s">
+      <c r="G372" s="10" t="s">
         <v>1285</v>
       </c>
       <c r="H372" s="1">
@@ -15070,19 +15069,19 @@
       <c r="B373" s="1" t="s">
         <v>1293</v>
       </c>
-      <c r="C373" s="15" t="s">
+      <c r="C373" s="14" t="s">
         <v>854</v>
       </c>
-      <c r="D373" s="9" t="s">
+      <c r="D373" s="8" t="s">
         <v>1166</v>
       </c>
-      <c r="E373" s="10" t="s">
+      <c r="E373" s="9" t="s">
         <v>1010</v>
       </c>
-      <c r="F373" s="7" t="s">
+      <c r="F373" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="G373" s="11" t="s">
+      <c r="G373" s="10" t="s">
         <v>1285</v>
       </c>
       <c r="H373" s="1">
@@ -15096,19 +15095,19 @@
       <c r="B374" s="1" t="s">
         <v>1293</v>
       </c>
-      <c r="C374" s="15" t="s">
+      <c r="C374" s="14" t="s">
         <v>855</v>
       </c>
-      <c r="D374" s="9" t="s">
+      <c r="D374" s="8" t="s">
         <v>1167</v>
       </c>
-      <c r="E374" s="10" t="s">
+      <c r="E374" s="9" t="s">
         <v>1011</v>
       </c>
-      <c r="F374" s="7" t="s">
+      <c r="F374" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="G374" s="11" t="s">
+      <c r="G374" s="10" t="s">
         <v>1285</v>
       </c>
       <c r="H374" s="1">
@@ -15125,19 +15124,19 @@
       <c r="B375" s="1" t="s">
         <v>1293</v>
       </c>
-      <c r="C375" s="15" t="s">
+      <c r="C375" s="14" t="s">
         <v>856</v>
       </c>
-      <c r="D375" s="9" t="s">
+      <c r="D375" s="8" t="s">
         <v>1168</v>
       </c>
-      <c r="E375" s="10" t="s">
+      <c r="E375" s="9" t="s">
         <v>1012</v>
       </c>
-      <c r="F375" s="7" t="s">
+      <c r="F375" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="G375" s="11" t="s">
+      <c r="G375" s="10" t="s">
         <v>1285</v>
       </c>
       <c r="H375" s="1">
@@ -15154,19 +15153,19 @@
       <c r="B376" s="1" t="s">
         <v>1293</v>
       </c>
-      <c r="C376" s="15" t="s">
+      <c r="C376" s="14" t="s">
         <v>857</v>
       </c>
-      <c r="D376" s="9" t="s">
+      <c r="D376" s="8" t="s">
         <v>1169</v>
       </c>
-      <c r="E376" s="10" t="s">
+      <c r="E376" s="9" t="s">
         <v>1013</v>
       </c>
-      <c r="F376" s="7" t="s">
+      <c r="F376" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="G376" s="11" t="s">
+      <c r="G376" s="10" t="s">
         <v>1285</v>
       </c>
       <c r="H376" s="1">
@@ -15183,19 +15182,19 @@
       <c r="B377" s="1" t="s">
         <v>1293</v>
       </c>
-      <c r="C377" s="15" t="s">
+      <c r="C377" s="14" t="s">
         <v>858</v>
       </c>
-      <c r="D377" s="9" t="s">
+      <c r="D377" s="8" t="s">
         <v>1170</v>
       </c>
-      <c r="E377" s="10" t="s">
+      <c r="E377" s="9" t="s">
         <v>1014</v>
       </c>
-      <c r="F377" s="7" t="s">
+      <c r="F377" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="G377" s="11" t="s">
+      <c r="G377" s="10" t="s">
         <v>1270</v>
       </c>
       <c r="H377" s="1">
@@ -15212,19 +15211,19 @@
       <c r="B378" s="1" t="s">
         <v>1293</v>
       </c>
-      <c r="C378" s="15" t="s">
+      <c r="C378" s="14" t="s">
         <v>859</v>
       </c>
-      <c r="D378" s="13" t="s">
+      <c r="D378" s="12" t="s">
         <v>1171</v>
       </c>
-      <c r="E378" s="10" t="s">
+      <c r="E378" s="9" t="s">
         <v>1015</v>
       </c>
-      <c r="F378" s="7" t="s">
+      <c r="F378" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="G378" s="11" t="s">
+      <c r="G378" s="10" t="s">
         <v>1270</v>
       </c>
       <c r="H378" s="1">
@@ -15241,19 +15240,19 @@
       <c r="B379" s="1" t="s">
         <v>1293</v>
       </c>
-      <c r="C379" s="15" t="s">
+      <c r="C379" s="14" t="s">
         <v>860</v>
       </c>
-      <c r="D379" s="13" t="s">
+      <c r="D379" s="12" t="s">
         <v>1172</v>
       </c>
-      <c r="E379" s="10" t="s">
+      <c r="E379" s="9" t="s">
         <v>1016</v>
       </c>
-      <c r="F379" s="7" t="s">
+      <c r="F379" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="G379" s="11" t="s">
+      <c r="G379" s="10" t="s">
         <v>1270</v>
       </c>
       <c r="H379" s="1">
@@ -15267,19 +15266,19 @@
       <c r="B380" s="1" t="s">
         <v>1293</v>
       </c>
-      <c r="C380" s="15" t="s">
+      <c r="C380" s="14" t="s">
         <v>861</v>
       </c>
-      <c r="D380" s="13" t="s">
+      <c r="D380" s="12" t="s">
         <v>1173</v>
       </c>
-      <c r="E380" s="10" t="s">
+      <c r="E380" s="9" t="s">
         <v>1017</v>
       </c>
-      <c r="F380" s="7" t="s">
+      <c r="F380" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="G380" s="11" t="s">
+      <c r="G380" s="10" t="s">
         <v>1270</v>
       </c>
       <c r="H380" s="1">
@@ -15293,19 +15292,19 @@
       <c r="B381" s="1" t="s">
         <v>1293</v>
       </c>
-      <c r="C381" s="15" t="s">
+      <c r="C381" s="14" t="s">
         <v>862</v>
       </c>
-      <c r="D381" s="9" t="s">
+      <c r="D381" s="8" t="s">
         <v>1174</v>
       </c>
-      <c r="E381" s="10" t="s">
+      <c r="E381" s="9" t="s">
         <v>1018</v>
       </c>
-      <c r="F381" s="7" t="s">
+      <c r="F381" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="G381" s="11" t="s">
+      <c r="G381" s="10" t="s">
         <v>1270</v>
       </c>
       <c r="H381" s="1">
@@ -15322,19 +15321,19 @@
       <c r="B382" s="1" t="s">
         <v>1293</v>
       </c>
-      <c r="C382" s="15" t="s">
+      <c r="C382" s="14" t="s">
         <v>863</v>
       </c>
-      <c r="D382" s="9" t="s">
+      <c r="D382" s="8" t="s">
         <v>1175</v>
       </c>
-      <c r="E382" s="10" t="s">
+      <c r="E382" s="9" t="s">
         <v>1019</v>
       </c>
-      <c r="F382" s="7" t="s">
+      <c r="F382" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="G382" s="11" t="s">
+      <c r="G382" s="10" t="s">
         <v>1270</v>
       </c>
       <c r="H382" s="1">
@@ -15348,19 +15347,19 @@
       <c r="B383" s="1" t="s">
         <v>1293</v>
       </c>
-      <c r="C383" s="15" t="s">
+      <c r="C383" s="14" t="s">
         <v>864</v>
       </c>
-      <c r="D383" s="9" t="s">
+      <c r="D383" s="8" t="s">
         <v>1176</v>
       </c>
-      <c r="E383" s="10" t="s">
+      <c r="E383" s="9" t="s">
         <v>1020</v>
       </c>
-      <c r="F383" s="7" t="s">
+      <c r="F383" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="G383" s="11" t="s">
+      <c r="G383" s="10" t="s">
         <v>1270</v>
       </c>
       <c r="H383" s="1">
@@ -15374,19 +15373,19 @@
       <c r="B384" s="1" t="s">
         <v>1293</v>
       </c>
-      <c r="C384" s="15" t="s">
+      <c r="C384" s="14" t="s">
         <v>865</v>
       </c>
-      <c r="D384" s="13" t="s">
+      <c r="D384" s="12" t="s">
         <v>1177</v>
       </c>
-      <c r="E384" s="10" t="s">
+      <c r="E384" s="9" t="s">
         <v>1021</v>
       </c>
-      <c r="F384" s="7" t="s">
+      <c r="F384" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="G384" s="11" t="s">
+      <c r="G384" s="10" t="s">
         <v>1270</v>
       </c>
       <c r="H384" s="1">
@@ -15403,19 +15402,19 @@
       <c r="B385" s="1" t="s">
         <v>1293</v>
       </c>
-      <c r="C385" s="15" t="s">
+      <c r="C385" s="14" t="s">
         <v>866</v>
       </c>
-      <c r="D385" s="9" t="s">
+      <c r="D385" s="8" t="s">
         <v>1178</v>
       </c>
-      <c r="E385" s="10" t="s">
+      <c r="E385" s="9" t="s">
         <v>1022</v>
       </c>
-      <c r="F385" s="7" t="s">
+      <c r="F385" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="G385" s="11" t="s">
+      <c r="G385" s="10" t="s">
         <v>1270</v>
       </c>
       <c r="H385" s="1">
@@ -15429,37 +15428,53 @@
       <c r="B386" s="1" t="s">
         <v>1293</v>
       </c>
-      <c r="C386" s="15" t="s">
+      <c r="C386" s="14" t="s">
         <v>867</v>
       </c>
-      <c r="D386" s="9" t="s">
+      <c r="D386" s="8" t="s">
         <v>1179</v>
       </c>
-      <c r="E386" s="10" t="s">
+      <c r="E386" s="9" t="s">
         <v>1023</v>
       </c>
-      <c r="F386" s="7" t="s">
+      <c r="F386" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="G386" s="11" t="s">
+      <c r="G386" s="10" t="s">
         <v>1270</v>
       </c>
       <c r="H386" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="387" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A387" s="1">
         <v>386</v>
       </c>
       <c r="B387" s="1" t="s">
         <v>1293</v>
       </c>
-      <c r="C387" s="15"/>
-      <c r="D387" s="9"/>
-      <c r="E387" s="10"/>
-      <c r="F387" s="7"/>
-      <c r="G387" s="11"/>
+      <c r="C387" s="14" t="s">
+        <v>1209</v>
+      </c>
+      <c r="D387" s="8" t="s">
+        <v>1180</v>
+      </c>
+      <c r="E387" s="9" t="s">
+        <v>1239</v>
+      </c>
+      <c r="F387" s="6" t="s">
+        <v>1269</v>
+      </c>
+      <c r="G387" s="10" t="s">
+        <v>1286</v>
+      </c>
+      <c r="H387" s="1">
+        <v>0</v>
+      </c>
+      <c r="I387" s="1">
+        <v>36</v>
+      </c>
     </row>
     <row r="388" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A388" s="1">
@@ -15468,26 +15483,23 @@
       <c r="B388" s="1" t="s">
         <v>1293</v>
       </c>
-      <c r="C388" s="15" t="s">
-        <v>1209</v>
-      </c>
-      <c r="D388" s="9" t="s">
-        <v>1180</v>
-      </c>
-      <c r="E388" s="10" t="s">
-        <v>1239</v>
-      </c>
-      <c r="F388" s="7" t="s">
+      <c r="C388" s="14" t="s">
+        <v>1210</v>
+      </c>
+      <c r="D388" s="8" t="s">
+        <v>1181</v>
+      </c>
+      <c r="E388" s="9" t="s">
+        <v>1240</v>
+      </c>
+      <c r="F388" s="6" t="s">
         <v>1269</v>
       </c>
-      <c r="G388" s="11" t="s">
-        <v>1286</v>
+      <c r="G388" s="10" t="s">
+        <v>1287</v>
       </c>
       <c r="H388" s="1">
-        <v>0</v>
-      </c>
-      <c r="I388" s="1">
-        <v>36</v>
+        <v>1</v>
       </c>
     </row>
     <row r="389" spans="1:9" ht="17" x14ac:dyDescent="0.2">
@@ -15497,19 +15509,19 @@
       <c r="B389" s="1" t="s">
         <v>1293</v>
       </c>
-      <c r="C389" s="15" t="s">
-        <v>1210</v>
-      </c>
-      <c r="D389" s="9" t="s">
-        <v>1181</v>
-      </c>
-      <c r="E389" s="10" t="s">
-        <v>1240</v>
-      </c>
-      <c r="F389" s="7" t="s">
+      <c r="C389" s="14" t="s">
+        <v>1211</v>
+      </c>
+      <c r="D389" s="8" t="s">
+        <v>1182</v>
+      </c>
+      <c r="E389" s="9" t="s">
+        <v>1241</v>
+      </c>
+      <c r="F389" s="6" t="s">
         <v>1269</v>
       </c>
-      <c r="G389" s="11" t="s">
+      <c r="G389" s="10" t="s">
         <v>1287</v>
       </c>
       <c r="H389" s="1">
@@ -15523,19 +15535,19 @@
       <c r="B390" s="1" t="s">
         <v>1293</v>
       </c>
-      <c r="C390" s="15" t="s">
-        <v>1211</v>
-      </c>
-      <c r="D390" s="9" t="s">
-        <v>1182</v>
-      </c>
-      <c r="E390" s="10" t="s">
-        <v>1241</v>
-      </c>
-      <c r="F390" s="7" t="s">
+      <c r="C390" s="14" t="s">
+        <v>1212</v>
+      </c>
+      <c r="D390" s="8" t="s">
+        <v>1183</v>
+      </c>
+      <c r="E390" s="9" t="s">
+        <v>1242</v>
+      </c>
+      <c r="F390" s="6" t="s">
         <v>1269</v>
       </c>
-      <c r="G390" s="11" t="s">
+      <c r="G390" s="10" t="s">
         <v>1287</v>
       </c>
       <c r="H390" s="1">
@@ -15549,19 +15561,19 @@
       <c r="B391" s="1" t="s">
         <v>1293</v>
       </c>
-      <c r="C391" s="15" t="s">
-        <v>1212</v>
-      </c>
-      <c r="D391" s="9" t="s">
-        <v>1183</v>
-      </c>
-      <c r="E391" s="10" t="s">
-        <v>1242</v>
-      </c>
-      <c r="F391" s="7" t="s">
+      <c r="C391" s="14" t="s">
+        <v>1213</v>
+      </c>
+      <c r="D391" s="8" t="s">
+        <v>1184</v>
+      </c>
+      <c r="E391" s="9" t="s">
+        <v>1243</v>
+      </c>
+      <c r="F391" s="6" t="s">
         <v>1269</v>
       </c>
-      <c r="G391" s="11" t="s">
+      <c r="G391" s="10" t="s">
         <v>1287</v>
       </c>
       <c r="H391" s="1">
@@ -15575,20 +15587,20 @@
       <c r="B392" s="1" t="s">
         <v>1293</v>
       </c>
-      <c r="C392" s="15" t="s">
-        <v>1213</v>
-      </c>
-      <c r="D392" s="9" t="s">
-        <v>1184</v>
-      </c>
-      <c r="E392" s="10" t="s">
-        <v>1243</v>
-      </c>
-      <c r="F392" s="7" t="s">
+      <c r="C392" s="14" t="s">
+        <v>1214</v>
+      </c>
+      <c r="D392" s="8" t="s">
+        <v>1185</v>
+      </c>
+      <c r="E392" s="9" t="s">
+        <v>1244</v>
+      </c>
+      <c r="F392" s="6" t="s">
         <v>1269</v>
       </c>
-      <c r="G392" s="11" t="s">
-        <v>1287</v>
+      <c r="G392" s="10" t="s">
+        <v>1288</v>
       </c>
       <c r="H392" s="1">
         <v>1</v>
@@ -15601,23 +15613,26 @@
       <c r="B393" s="1" t="s">
         <v>1293</v>
       </c>
-      <c r="C393" s="15" t="s">
-        <v>1214</v>
-      </c>
-      <c r="D393" s="9" t="s">
-        <v>1185</v>
-      </c>
-      <c r="E393" s="10" t="s">
-        <v>1244</v>
-      </c>
-      <c r="F393" s="7" t="s">
+      <c r="C393" s="14" t="s">
+        <v>1215</v>
+      </c>
+      <c r="D393" s="8" t="s">
+        <v>1186</v>
+      </c>
+      <c r="E393" s="9" t="s">
+        <v>1245</v>
+      </c>
+      <c r="F393" s="6" t="s">
         <v>1269</v>
       </c>
-      <c r="G393" s="11" t="s">
-        <v>1288</v>
+      <c r="G393" s="10" t="s">
+        <v>1286</v>
       </c>
       <c r="H393" s="1">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I393" s="1">
+        <v>34</v>
       </c>
     </row>
     <row r="394" spans="1:9" ht="17" x14ac:dyDescent="0.2">
@@ -15627,26 +15642,26 @@
       <c r="B394" s="1" t="s">
         <v>1293</v>
       </c>
-      <c r="C394" s="15" t="s">
-        <v>1215</v>
-      </c>
-      <c r="D394" s="9" t="s">
-        <v>1186</v>
-      </c>
-      <c r="E394" s="10" t="s">
-        <v>1245</v>
-      </c>
-      <c r="F394" s="7" t="s">
+      <c r="C394" s="14" t="s">
+        <v>1216</v>
+      </c>
+      <c r="D394" s="8" t="s">
+        <v>1187</v>
+      </c>
+      <c r="E394" s="9" t="s">
+        <v>1246</v>
+      </c>
+      <c r="F394" s="6" t="s">
         <v>1269</v>
       </c>
-      <c r="G394" s="11" t="s">
-        <v>1286</v>
+      <c r="G394" s="10" t="s">
+        <v>1287</v>
       </c>
       <c r="H394" s="1">
         <v>0</v>
       </c>
       <c r="I394" s="1">
-        <v>34</v>
+        <v>56</v>
       </c>
     </row>
     <row r="395" spans="1:9" ht="17" x14ac:dyDescent="0.2">
@@ -15656,23 +15671,23 @@
       <c r="B395" s="1" t="s">
         <v>1293</v>
       </c>
-      <c r="C395" s="15" t="s">
-        <v>1216</v>
-      </c>
-      <c r="D395" s="9" t="s">
-        <v>1187</v>
-      </c>
-      <c r="E395" s="10" t="s">
-        <v>1246</v>
-      </c>
-      <c r="F395" s="7" t="s">
+      <c r="C395" s="14" t="s">
+        <v>1217</v>
+      </c>
+      <c r="D395" s="8" t="s">
+        <v>1188</v>
+      </c>
+      <c r="E395" s="9" t="s">
+        <v>1247</v>
+      </c>
+      <c r="F395" s="6" t="s">
         <v>1269</v>
       </c>
-      <c r="G395" s="11" t="s">
+      <c r="G395" s="10" t="s">
         <v>1287</v>
       </c>
       <c r="H395" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I395" s="1">
         <v>56</v>
@@ -15685,26 +15700,26 @@
       <c r="B396" s="1" t="s">
         <v>1293</v>
       </c>
-      <c r="C396" s="15" t="s">
-        <v>1217</v>
-      </c>
-      <c r="D396" s="9" t="s">
-        <v>1188</v>
-      </c>
-      <c r="E396" s="10" t="s">
-        <v>1247</v>
-      </c>
-      <c r="F396" s="7" t="s">
+      <c r="C396" s="14" t="s">
+        <v>1218</v>
+      </c>
+      <c r="D396" s="8" t="s">
+        <v>1189</v>
+      </c>
+      <c r="E396" s="9" t="s">
+        <v>1248</v>
+      </c>
+      <c r="F396" s="6" t="s">
         <v>1269</v>
       </c>
-      <c r="G396" s="11" t="s">
+      <c r="G396" s="10" t="s">
         <v>1287</v>
       </c>
       <c r="H396" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I396" s="1">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="397" spans="1:9" ht="17" x14ac:dyDescent="0.2">
@@ -15714,23 +15729,23 @@
       <c r="B397" s="1" t="s">
         <v>1293</v>
       </c>
-      <c r="C397" s="15" t="s">
-        <v>1218</v>
-      </c>
-      <c r="D397" s="9" t="s">
-        <v>1189</v>
-      </c>
-      <c r="E397" s="10" t="s">
-        <v>1248</v>
-      </c>
-      <c r="F397" s="7" t="s">
+      <c r="C397" s="14" t="s">
+        <v>1219</v>
+      </c>
+      <c r="D397" s="13" t="s">
+        <v>1190</v>
+      </c>
+      <c r="E397" s="9" t="s">
+        <v>1249</v>
+      </c>
+      <c r="F397" s="6" t="s">
         <v>1269</v>
       </c>
-      <c r="G397" s="11" t="s">
+      <c r="G397" s="10" t="s">
         <v>1287</v>
       </c>
       <c r="H397" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I397" s="1">
         <v>55</v>
@@ -15743,26 +15758,26 @@
       <c r="B398" s="1" t="s">
         <v>1293</v>
       </c>
-      <c r="C398" s="15" t="s">
-        <v>1219</v>
-      </c>
-      <c r="D398" s="14" t="s">
-        <v>1190</v>
-      </c>
-      <c r="E398" s="10" t="s">
-        <v>1249</v>
-      </c>
-      <c r="F398" s="7" t="s">
+      <c r="C398" s="14" t="s">
+        <v>1220</v>
+      </c>
+      <c r="D398" s="8" t="s">
+        <v>1191</v>
+      </c>
+      <c r="E398" s="9" t="s">
+        <v>1250</v>
+      </c>
+      <c r="F398" s="6" t="s">
         <v>1269</v>
       </c>
-      <c r="G398" s="11" t="s">
-        <v>1287</v>
+      <c r="G398" s="10" t="s">
+        <v>1286</v>
       </c>
       <c r="H398" s="1">
         <v>1</v>
       </c>
       <c r="I398" s="1">
-        <v>55</v>
+        <v>36</v>
       </c>
     </row>
     <row r="399" spans="1:9" ht="17" x14ac:dyDescent="0.2">
@@ -15772,26 +15787,26 @@
       <c r="B399" s="1" t="s">
         <v>1293</v>
       </c>
-      <c r="C399" s="15" t="s">
-        <v>1220</v>
-      </c>
-      <c r="D399" s="9" t="s">
-        <v>1191</v>
-      </c>
-      <c r="E399" s="10" t="s">
-        <v>1250</v>
-      </c>
-      <c r="F399" s="7" t="s">
+      <c r="C399" s="14" t="s">
+        <v>1221</v>
+      </c>
+      <c r="D399" s="8" t="s">
+        <v>1192</v>
+      </c>
+      <c r="E399" s="9" t="s">
+        <v>1251</v>
+      </c>
+      <c r="F399" s="6" t="s">
         <v>1269</v>
       </c>
-      <c r="G399" s="11" t="s">
-        <v>1286</v>
+      <c r="G399" s="10" t="s">
+        <v>1288</v>
       </c>
       <c r="H399" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I399" s="1">
-        <v>36</v>
+        <v>17</v>
       </c>
     </row>
     <row r="400" spans="1:9" ht="17" x14ac:dyDescent="0.2">
@@ -15801,26 +15816,26 @@
       <c r="B400" s="1" t="s">
         <v>1293</v>
       </c>
-      <c r="C400" s="15" t="s">
-        <v>1221</v>
-      </c>
-      <c r="D400" s="9" t="s">
-        <v>1192</v>
-      </c>
-      <c r="E400" s="10" t="s">
-        <v>1251</v>
-      </c>
-      <c r="F400" s="7" t="s">
+      <c r="C400" s="14" t="s">
+        <v>1222</v>
+      </c>
+      <c r="D400" s="8" t="s">
+        <v>1193</v>
+      </c>
+      <c r="E400" s="9" t="s">
+        <v>1252</v>
+      </c>
+      <c r="F400" s="6" t="s">
         <v>1269</v>
       </c>
-      <c r="G400" s="11" t="s">
+      <c r="G400" s="10" t="s">
         <v>1288</v>
       </c>
       <c r="H400" s="1">
         <v>0</v>
       </c>
       <c r="I400" s="1">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="401" spans="1:9" ht="17" x14ac:dyDescent="0.2">
@@ -15830,23 +15845,23 @@
       <c r="B401" s="1" t="s">
         <v>1293</v>
       </c>
-      <c r="C401" s="15" t="s">
-        <v>1222</v>
-      </c>
-      <c r="D401" s="9" t="s">
-        <v>1193</v>
-      </c>
-      <c r="E401" s="10" t="s">
-        <v>1252</v>
-      </c>
-      <c r="F401" s="7" t="s">
+      <c r="C401" s="14" t="s">
+        <v>1223</v>
+      </c>
+      <c r="D401" s="8" t="s">
+        <v>1194</v>
+      </c>
+      <c r="E401" s="9" t="s">
+        <v>1253</v>
+      </c>
+      <c r="F401" s="6" t="s">
         <v>1269</v>
       </c>
-      <c r="G401" s="11" t="s">
+      <c r="G401" s="10" t="s">
         <v>1288</v>
       </c>
       <c r="H401" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I401" s="1">
         <v>16</v>
@@ -15859,26 +15874,26 @@
       <c r="B402" s="1" t="s">
         <v>1293</v>
       </c>
-      <c r="C402" s="15" t="s">
-        <v>1223</v>
-      </c>
-      <c r="D402" s="9" t="s">
-        <v>1194</v>
-      </c>
-      <c r="E402" s="10" t="s">
-        <v>1253</v>
-      </c>
-      <c r="F402" s="7" t="s">
+      <c r="C402" s="14" t="s">
+        <v>1224</v>
+      </c>
+      <c r="D402" s="8" t="s">
+        <v>1195</v>
+      </c>
+      <c r="E402" s="9" t="s">
+        <v>1254</v>
+      </c>
+      <c r="F402" s="6" t="s">
         <v>1269</v>
       </c>
-      <c r="G402" s="11" t="s">
+      <c r="G402" s="10" t="s">
         <v>1288</v>
       </c>
       <c r="H402" s="1">
         <v>1</v>
       </c>
       <c r="I402" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="403" spans="1:9" ht="17" x14ac:dyDescent="0.2">
@@ -15888,26 +15903,23 @@
       <c r="B403" s="1" t="s">
         <v>1293</v>
       </c>
-      <c r="C403" s="15" t="s">
-        <v>1224</v>
-      </c>
-      <c r="D403" s="9" t="s">
-        <v>1195</v>
-      </c>
-      <c r="E403" s="10" t="s">
-        <v>1254</v>
-      </c>
-      <c r="F403" s="7" t="s">
+      <c r="C403" s="14" t="s">
+        <v>1225</v>
+      </c>
+      <c r="D403" s="8" t="s">
+        <v>1196</v>
+      </c>
+      <c r="E403" s="9" t="s">
+        <v>1255</v>
+      </c>
+      <c r="F403" s="6" t="s">
         <v>1269</v>
       </c>
-      <c r="G403" s="11" t="s">
+      <c r="G403" s="10" t="s">
         <v>1288</v>
       </c>
       <c r="H403" s="1">
         <v>1</v>
-      </c>
-      <c r="I403" s="1">
-        <v>17</v>
       </c>
     </row>
     <row r="404" spans="1:9" ht="17" x14ac:dyDescent="0.2">
@@ -15917,20 +15929,20 @@
       <c r="B404" s="1" t="s">
         <v>1293</v>
       </c>
-      <c r="C404" s="15" t="s">
-        <v>1225</v>
-      </c>
-      <c r="D404" s="9" t="s">
-        <v>1196</v>
-      </c>
-      <c r="E404" s="10" t="s">
-        <v>1255</v>
-      </c>
-      <c r="F404" s="7" t="s">
+      <c r="C404" s="14" t="s">
+        <v>1226</v>
+      </c>
+      <c r="D404" s="8" t="s">
+        <v>1308</v>
+      </c>
+      <c r="E404" s="9" t="s">
+        <v>1256</v>
+      </c>
+      <c r="F404" s="6" t="s">
         <v>1269</v>
       </c>
-      <c r="G404" s="11" t="s">
-        <v>1288</v>
+      <c r="G404" s="10" t="s">
+        <v>1286</v>
       </c>
       <c r="H404" s="1">
         <v>1</v>
@@ -15943,20 +15955,20 @@
       <c r="B405" s="1" t="s">
         <v>1293</v>
       </c>
-      <c r="C405" s="15" t="s">
-        <v>1226</v>
-      </c>
-      <c r="D405" s="9" t="s">
-        <v>1308</v>
-      </c>
-      <c r="E405" s="10" t="s">
-        <v>1256</v>
-      </c>
-      <c r="F405" s="7" t="s">
+      <c r="C405" s="14" t="s">
+        <v>1227</v>
+      </c>
+      <c r="D405" s="8" t="s">
+        <v>1197</v>
+      </c>
+      <c r="E405" s="9" t="s">
+        <v>1257</v>
+      </c>
+      <c r="F405" s="6" t="s">
         <v>1269</v>
       </c>
-      <c r="G405" s="11" t="s">
-        <v>1286</v>
+      <c r="G405" s="10" t="s">
+        <v>1288</v>
       </c>
       <c r="H405" s="1">
         <v>1</v>
@@ -15969,23 +15981,26 @@
       <c r="B406" s="1" t="s">
         <v>1293</v>
       </c>
-      <c r="C406" s="15" t="s">
-        <v>1227</v>
-      </c>
-      <c r="D406" s="9" t="s">
-        <v>1197</v>
-      </c>
-      <c r="E406" s="10" t="s">
-        <v>1257</v>
-      </c>
-      <c r="F406" s="7" t="s">
+      <c r="C406" s="14" t="s">
+        <v>1228</v>
+      </c>
+      <c r="D406" s="8" t="s">
+        <v>1198</v>
+      </c>
+      <c r="E406" s="9" t="s">
+        <v>1258</v>
+      </c>
+      <c r="F406" s="6" t="s">
         <v>1269</v>
       </c>
-      <c r="G406" s="11" t="s">
-        <v>1288</v>
+      <c r="G406" s="10" t="s">
+        <v>1286</v>
       </c>
       <c r="H406" s="1">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I406" s="1">
+        <v>35</v>
       </c>
     </row>
     <row r="407" spans="1:9" ht="17" x14ac:dyDescent="0.2">
@@ -15995,26 +16010,26 @@
       <c r="B407" s="1" t="s">
         <v>1293</v>
       </c>
-      <c r="C407" s="15" t="s">
-        <v>1228</v>
-      </c>
-      <c r="D407" s="9" t="s">
-        <v>1198</v>
-      </c>
-      <c r="E407" s="10" t="s">
-        <v>1258</v>
-      </c>
-      <c r="F407" s="7" t="s">
+      <c r="C407" s="14" t="s">
+        <v>1229</v>
+      </c>
+      <c r="D407" s="8" t="s">
+        <v>1199</v>
+      </c>
+      <c r="E407" s="9" t="s">
+        <v>1259</v>
+      </c>
+      <c r="F407" s="6" t="s">
         <v>1269</v>
       </c>
-      <c r="G407" s="11" t="s">
+      <c r="G407" s="10" t="s">
         <v>1286</v>
       </c>
       <c r="H407" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I407" s="1">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="408" spans="1:9" ht="17" x14ac:dyDescent="0.2">
@@ -16024,26 +16039,23 @@
       <c r="B408" s="1" t="s">
         <v>1293</v>
       </c>
-      <c r="C408" s="15" t="s">
-        <v>1229</v>
-      </c>
-      <c r="D408" s="9" t="s">
-        <v>1199</v>
-      </c>
-      <c r="E408" s="10" t="s">
-        <v>1259</v>
-      </c>
-      <c r="F408" s="7" t="s">
+      <c r="C408" s="14" t="s">
+        <v>1230</v>
+      </c>
+      <c r="D408" s="8" t="s">
+        <v>1200</v>
+      </c>
+      <c r="E408" s="9" t="s">
+        <v>1260</v>
+      </c>
+      <c r="F408" s="6" t="s">
         <v>1269</v>
       </c>
-      <c r="G408" s="11" t="s">
+      <c r="G408" s="10" t="s">
         <v>1286</v>
       </c>
       <c r="H408" s="1">
         <v>1</v>
-      </c>
-      <c r="I408" s="1">
-        <v>34</v>
       </c>
     </row>
     <row r="409" spans="1:9" ht="17" x14ac:dyDescent="0.2">
@@ -16053,24 +16065,25 @@
       <c r="B409" s="1" t="s">
         <v>1293</v>
       </c>
-      <c r="C409" s="15" t="s">
-        <v>1230</v>
-      </c>
-      <c r="D409" s="9" t="s">
-        <v>1200</v>
-      </c>
-      <c r="E409" s="10" t="s">
-        <v>1260</v>
-      </c>
-      <c r="F409" s="7" t="s">
+      <c r="C409" s="14" t="s">
+        <v>1231</v>
+      </c>
+      <c r="D409" s="8" t="s">
+        <v>1201</v>
+      </c>
+      <c r="E409" s="9" t="s">
+        <v>1261</v>
+      </c>
+      <c r="F409" s="6" t="s">
         <v>1269</v>
       </c>
-      <c r="G409" s="11" t="s">
+      <c r="G409" s="10" t="s">
         <v>1286</v>
       </c>
       <c r="H409" s="1">
         <v>1</v>
       </c>
+      <c r="I409" s="6"/>
     </row>
     <row r="410" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A410" s="1">
@@ -16079,25 +16092,24 @@
       <c r="B410" s="1" t="s">
         <v>1293</v>
       </c>
-      <c r="C410" s="15" t="s">
-        <v>1231</v>
-      </c>
-      <c r="D410" s="9" t="s">
-        <v>1201</v>
-      </c>
-      <c r="E410" s="10" t="s">
-        <v>1261</v>
-      </c>
-      <c r="F410" s="7" t="s">
+      <c r="C410" s="14" t="s">
+        <v>1232</v>
+      </c>
+      <c r="D410" s="8" t="s">
+        <v>1202</v>
+      </c>
+      <c r="E410" s="9" t="s">
+        <v>1262</v>
+      </c>
+      <c r="F410" s="6" t="s">
         <v>1269</v>
       </c>
-      <c r="G410" s="11" t="s">
+      <c r="G410" s="10" t="s">
         <v>1286</v>
       </c>
       <c r="H410" s="1">
         <v>1</v>
       </c>
-      <c r="I410" s="7"/>
     </row>
     <row r="411" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A411" s="1">
@@ -16106,23 +16118,26 @@
       <c r="B411" s="1" t="s">
         <v>1293</v>
       </c>
-      <c r="C411" s="15" t="s">
-        <v>1232</v>
-      </c>
-      <c r="D411" s="9" t="s">
-        <v>1202</v>
-      </c>
-      <c r="E411" s="10" t="s">
-        <v>1262</v>
-      </c>
-      <c r="F411" s="7" t="s">
+      <c r="C411" s="14" t="s">
+        <v>1233</v>
+      </c>
+      <c r="D411" s="8" t="s">
+        <v>1203</v>
+      </c>
+      <c r="E411" s="9" t="s">
+        <v>1263</v>
+      </c>
+      <c r="F411" s="6" t="s">
         <v>1269</v>
       </c>
-      <c r="G411" s="11" t="s">
+      <c r="G411" s="10" t="s">
         <v>1286</v>
       </c>
       <c r="H411" s="1">
         <v>1</v>
+      </c>
+      <c r="I411" s="1">
+        <v>35</v>
       </c>
     </row>
     <row r="412" spans="1:9" ht="17" x14ac:dyDescent="0.2">
@@ -16132,75 +16147,72 @@
       <c r="B412" s="1" t="s">
         <v>1293</v>
       </c>
-      <c r="C412" s="15" t="s">
-        <v>1233</v>
-      </c>
-      <c r="D412" s="9" t="s">
-        <v>1203</v>
-      </c>
-      <c r="E412" s="10" t="s">
-        <v>1263</v>
-      </c>
-      <c r="F412" s="7" t="s">
+      <c r="C412" s="14" t="s">
+        <v>1234</v>
+      </c>
+      <c r="D412" s="8" t="s">
+        <v>1204</v>
+      </c>
+      <c r="E412" s="9" t="s">
+        <v>1264</v>
+      </c>
+      <c r="F412" s="6" t="s">
         <v>1269</v>
       </c>
-      <c r="G412" s="11" t="s">
-        <v>1286</v>
+      <c r="G412" s="10" t="s">
+        <v>1288</v>
       </c>
       <c r="H412" s="1">
         <v>1</v>
       </c>
-      <c r="I412" s="1">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="413" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="413" spans="1:9" ht="31" x14ac:dyDescent="0.2">
       <c r="A413" s="1">
         <v>412</v>
       </c>
       <c r="B413" s="1" t="s">
         <v>1293</v>
       </c>
-      <c r="C413" s="15" t="s">
-        <v>1234</v>
-      </c>
-      <c r="D413" s="9" t="s">
-        <v>1204</v>
-      </c>
-      <c r="E413" s="10" t="s">
-        <v>1264</v>
-      </c>
-      <c r="F413" s="7" t="s">
+      <c r="C413" s="14" t="s">
+        <v>1235</v>
+      </c>
+      <c r="D413" s="8" t="s">
+        <v>1205</v>
+      </c>
+      <c r="E413" s="9" t="s">
+        <v>1265</v>
+      </c>
+      <c r="F413" s="6" t="s">
         <v>1269</v>
       </c>
-      <c r="G413" s="11" t="s">
+      <c r="G413" s="10" t="s">
         <v>1288</v>
       </c>
       <c r="H413" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="414" spans="1:9" ht="31" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A414" s="1">
         <v>413</v>
       </c>
       <c r="B414" s="1" t="s">
         <v>1293</v>
       </c>
-      <c r="C414" s="15" t="s">
-        <v>1235</v>
-      </c>
-      <c r="D414" s="9" t="s">
-        <v>1205</v>
-      </c>
-      <c r="E414" s="10" t="s">
-        <v>1265</v>
-      </c>
-      <c r="F414" s="7" t="s">
+      <c r="C414" s="14" t="s">
+        <v>1236</v>
+      </c>
+      <c r="D414" s="8" t="s">
+        <v>1206</v>
+      </c>
+      <c r="E414" s="9" t="s">
+        <v>1266</v>
+      </c>
+      <c r="F414" s="6" t="s">
         <v>1269</v>
       </c>
-      <c r="G414" s="11" t="s">
-        <v>1288</v>
+      <c r="G414" s="10" t="s">
+        <v>1287</v>
       </c>
       <c r="H414" s="1">
         <v>1</v>
@@ -16213,19 +16225,19 @@
       <c r="B415" s="1" t="s">
         <v>1293</v>
       </c>
-      <c r="C415" s="15" t="s">
-        <v>1236</v>
-      </c>
-      <c r="D415" s="9" t="s">
-        <v>1206</v>
-      </c>
-      <c r="E415" s="10" t="s">
-        <v>1266</v>
-      </c>
-      <c r="F415" s="7" t="s">
+      <c r="C415" s="14" t="s">
+        <v>1237</v>
+      </c>
+      <c r="D415" s="8" t="s">
+        <v>1207</v>
+      </c>
+      <c r="E415" s="9" t="s">
+        <v>1267</v>
+      </c>
+      <c r="F415" s="6" t="s">
         <v>1269</v>
       </c>
-      <c r="G415" s="11" t="s">
+      <c r="G415" s="10" t="s">
         <v>1287</v>
       </c>
       <c r="H415" s="1">
@@ -16239,530 +16251,504 @@
       <c r="B416" s="1" t="s">
         <v>1293</v>
       </c>
-      <c r="C416" s="15" t="s">
-        <v>1237</v>
-      </c>
-      <c r="D416" s="9" t="s">
-        <v>1207</v>
-      </c>
-      <c r="E416" s="10" t="s">
-        <v>1267</v>
-      </c>
-      <c r="F416" s="7" t="s">
+      <c r="C416" s="14" t="s">
+        <v>1238</v>
+      </c>
+      <c r="D416" s="8" t="s">
+        <v>1208</v>
+      </c>
+      <c r="E416" s="9" t="s">
+        <v>1268</v>
+      </c>
+      <c r="F416" s="6" t="s">
         <v>1269</v>
       </c>
-      <c r="G416" s="11" t="s">
-        <v>1287</v>
+      <c r="G416" s="10" t="s">
+        <v>1288</v>
       </c>
       <c r="H416" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="417" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A417" s="1">
-        <v>416</v>
-      </c>
-      <c r="B417" s="1" t="s">
-        <v>1293</v>
-      </c>
-      <c r="C417" s="15" t="s">
-        <v>1238</v>
-      </c>
-      <c r="D417" s="9" t="s">
-        <v>1208</v>
-      </c>
-      <c r="E417" s="10" t="s">
-        <v>1268</v>
-      </c>
-      <c r="F417" s="7" t="s">
-        <v>1269</v>
-      </c>
-      <c r="G417" s="11" t="s">
-        <v>1288</v>
-      </c>
-      <c r="H417" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="418" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C418" s="15"/>
-    </row>
-    <row r="419" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C419" s="15"/>
-    </row>
-    <row r="420" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C420" s="15"/>
-    </row>
-    <row r="421" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C421" s="15"/>
-    </row>
-    <row r="422" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C422" s="15"/>
-    </row>
-    <row r="423" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C423" s="15"/>
-    </row>
-    <row r="424" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C424" s="15"/>
-    </row>
-    <row r="425" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C425" s="15"/>
-    </row>
-    <row r="426" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C426" s="15"/>
-    </row>
-    <row r="427" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C427" s="15"/>
-    </row>
-    <row r="428" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C428" s="15"/>
-    </row>
-    <row r="429" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C429" s="15"/>
-    </row>
-    <row r="430" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C430" s="15"/>
-    </row>
-    <row r="431" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C431" s="15"/>
-    </row>
-    <row r="432" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C432" s="15"/>
+    <row r="417" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C417" s="14"/>
+    </row>
+    <row r="418" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C418" s="14"/>
+    </row>
+    <row r="419" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C419" s="14"/>
+    </row>
+    <row r="420" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C420" s="14"/>
+    </row>
+    <row r="421" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C421" s="14"/>
+    </row>
+    <row r="422" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C422" s="14"/>
+    </row>
+    <row r="423" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C423" s="14"/>
+    </row>
+    <row r="424" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C424" s="14"/>
+    </row>
+    <row r="425" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C425" s="14"/>
+    </row>
+    <row r="426" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C426" s="14"/>
+    </row>
+    <row r="427" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C427" s="14"/>
+    </row>
+    <row r="428" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C428" s="14"/>
+    </row>
+    <row r="429" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C429" s="14"/>
+    </row>
+    <row r="430" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C430" s="14"/>
+    </row>
+    <row r="431" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C431" s="14"/>
+    </row>
+    <row r="432" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C432" s="14"/>
     </row>
     <row r="433" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C433" s="15"/>
+      <c r="C433" s="14"/>
     </row>
     <row r="434" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C434" s="15"/>
+      <c r="C434" s="14"/>
     </row>
     <row r="435" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C435" s="15"/>
+      <c r="C435" s="14"/>
     </row>
     <row r="436" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C436" s="15"/>
+      <c r="C436" s="14"/>
     </row>
     <row r="437" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C437" s="15"/>
+      <c r="C437" s="14"/>
     </row>
     <row r="438" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C438" s="15"/>
+      <c r="C438" s="14"/>
     </row>
     <row r="439" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C439" s="15"/>
+      <c r="C439" s="14"/>
     </row>
     <row r="440" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C440" s="15"/>
+      <c r="C440" s="14"/>
     </row>
     <row r="441" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C441" s="15"/>
+      <c r="C441" s="14"/>
     </row>
     <row r="442" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C442" s="15"/>
+      <c r="C442" s="14"/>
     </row>
     <row r="443" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C443" s="15"/>
+      <c r="C443" s="14"/>
     </row>
     <row r="444" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C444" s="15"/>
+      <c r="C444" s="14"/>
     </row>
     <row r="445" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C445" s="15"/>
+      <c r="C445" s="14"/>
     </row>
     <row r="446" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C446" s="15"/>
+      <c r="C446" s="14"/>
     </row>
     <row r="447" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C447" s="15"/>
+      <c r="C447" s="14"/>
     </row>
     <row r="448" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C448" s="15"/>
+      <c r="C448" s="14"/>
     </row>
     <row r="449" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C449" s="15"/>
+      <c r="C449" s="14"/>
     </row>
     <row r="450" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C450" s="15"/>
+      <c r="C450" s="14"/>
     </row>
     <row r="451" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C451" s="15"/>
+      <c r="C451" s="14"/>
     </row>
     <row r="452" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C452" s="15"/>
+      <c r="C452" s="14"/>
     </row>
     <row r="453" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C453" s="15"/>
+      <c r="C453" s="14"/>
     </row>
     <row r="454" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C454" s="15"/>
+      <c r="C454" s="14"/>
     </row>
     <row r="455" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C455" s="15"/>
+      <c r="C455" s="14"/>
     </row>
     <row r="456" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C456" s="15"/>
+      <c r="C456" s="14"/>
     </row>
     <row r="457" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C457" s="15"/>
+      <c r="C457" s="14"/>
     </row>
     <row r="458" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C458" s="15"/>
+      <c r="C458" s="14"/>
     </row>
     <row r="459" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C459" s="15"/>
+      <c r="C459" s="14"/>
     </row>
     <row r="460" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C460" s="15"/>
+      <c r="C460" s="14"/>
     </row>
     <row r="461" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C461" s="15"/>
+      <c r="C461" s="14"/>
     </row>
     <row r="462" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C462" s="15"/>
+      <c r="C462" s="14"/>
     </row>
     <row r="463" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C463" s="15"/>
+      <c r="C463" s="14"/>
     </row>
     <row r="464" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C464" s="15"/>
+      <c r="C464" s="14"/>
     </row>
     <row r="465" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C465" s="15"/>
+      <c r="C465" s="14"/>
     </row>
     <row r="466" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C466" s="15"/>
+      <c r="C466" s="14"/>
     </row>
     <row r="467" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C467" s="15"/>
+      <c r="C467" s="14"/>
     </row>
     <row r="468" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C468" s="15"/>
+      <c r="C468" s="14"/>
     </row>
     <row r="469" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C469" s="15"/>
+      <c r="C469" s="14"/>
     </row>
     <row r="470" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C470" s="15"/>
+      <c r="C470" s="14"/>
     </row>
     <row r="471" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C471" s="15"/>
+      <c r="C471" s="14"/>
     </row>
     <row r="472" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C472" s="15"/>
+      <c r="C472" s="14"/>
     </row>
     <row r="473" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C473" s="15"/>
+      <c r="C473" s="14"/>
     </row>
     <row r="474" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C474" s="15"/>
+      <c r="C474" s="14"/>
     </row>
     <row r="475" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C475" s="15"/>
+      <c r="C475" s="14"/>
     </row>
     <row r="476" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C476" s="15"/>
+      <c r="C476" s="14"/>
     </row>
     <row r="477" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C477" s="15"/>
+      <c r="C477" s="14"/>
     </row>
     <row r="478" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C478" s="15"/>
+      <c r="C478" s="14"/>
     </row>
     <row r="479" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C479" s="15"/>
+      <c r="C479" s="14"/>
     </row>
     <row r="480" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C480" s="15"/>
+      <c r="C480" s="14"/>
     </row>
     <row r="481" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C481" s="15"/>
+      <c r="C481" s="14"/>
     </row>
     <row r="482" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C482" s="15"/>
+      <c r="C482" s="14"/>
     </row>
     <row r="483" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C483" s="15"/>
+      <c r="C483" s="14"/>
     </row>
     <row r="484" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C484" s="15"/>
+      <c r="C484" s="14"/>
     </row>
     <row r="485" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C485" s="15"/>
+      <c r="C485" s="14"/>
     </row>
     <row r="486" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C486" s="15"/>
+      <c r="C486" s="14"/>
     </row>
     <row r="487" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C487" s="15"/>
+      <c r="C487" s="14"/>
     </row>
     <row r="488" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C488" s="15"/>
+      <c r="C488" s="14"/>
     </row>
     <row r="489" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C489" s="15"/>
+      <c r="C489" s="14"/>
     </row>
     <row r="490" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C490" s="15"/>
+      <c r="C490" s="14"/>
     </row>
     <row r="491" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C491" s="15"/>
+      <c r="C491" s="14"/>
     </row>
     <row r="492" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C492" s="15"/>
+      <c r="C492" s="14"/>
     </row>
     <row r="493" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C493" s="15"/>
+      <c r="C493" s="14"/>
     </row>
     <row r="494" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C494" s="15"/>
+      <c r="C494" s="14"/>
     </row>
     <row r="495" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C495" s="15"/>
+      <c r="C495" s="14"/>
     </row>
     <row r="496" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C496" s="15"/>
+      <c r="C496" s="14"/>
     </row>
     <row r="497" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C497" s="15"/>
+      <c r="C497" s="14"/>
     </row>
     <row r="498" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C498" s="15"/>
+      <c r="C498" s="14"/>
     </row>
     <row r="499" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C499" s="15"/>
+      <c r="C499" s="14"/>
     </row>
     <row r="500" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C500" s="15"/>
+      <c r="C500" s="14"/>
     </row>
     <row r="501" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C501" s="15"/>
+      <c r="C501" s="14"/>
     </row>
     <row r="502" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C502" s="15"/>
+      <c r="C502" s="14"/>
     </row>
     <row r="503" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C503" s="15"/>
+      <c r="C503" s="14"/>
     </row>
     <row r="504" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C504" s="15"/>
+      <c r="C504" s="14"/>
     </row>
     <row r="505" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C505" s="15"/>
+      <c r="C505" s="14"/>
     </row>
     <row r="506" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C506" s="15"/>
+      <c r="C506" s="14"/>
     </row>
     <row r="507" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C507" s="15"/>
+      <c r="C507" s="14"/>
     </row>
     <row r="508" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C508" s="15"/>
+      <c r="C508" s="14"/>
     </row>
     <row r="509" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C509" s="15"/>
+      <c r="C509" s="14"/>
     </row>
     <row r="510" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C510" s="15"/>
+      <c r="C510" s="14"/>
     </row>
     <row r="511" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C511" s="15"/>
+      <c r="C511" s="14"/>
     </row>
     <row r="512" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C512" s="15"/>
+      <c r="C512" s="14"/>
     </row>
     <row r="513" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C513" s="15"/>
+      <c r="C513" s="14"/>
     </row>
     <row r="514" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C514" s="15"/>
+      <c r="C514" s="14"/>
     </row>
     <row r="515" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C515" s="15"/>
+      <c r="C515" s="14"/>
     </row>
     <row r="516" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C516" s="15"/>
+      <c r="C516" s="14"/>
     </row>
     <row r="517" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C517" s="15"/>
+      <c r="C517" s="14"/>
     </row>
     <row r="518" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C518" s="15"/>
+      <c r="C518" s="14"/>
     </row>
     <row r="519" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C519" s="15"/>
+      <c r="C519" s="14"/>
     </row>
     <row r="520" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C520" s="15"/>
+      <c r="C520" s="14"/>
     </row>
     <row r="521" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C521" s="15"/>
+      <c r="C521" s="14"/>
     </row>
     <row r="522" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C522" s="15"/>
+      <c r="C522" s="14"/>
     </row>
     <row r="523" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C523" s="15"/>
+      <c r="C523" s="14"/>
     </row>
     <row r="524" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C524" s="15"/>
+      <c r="C524" s="14"/>
     </row>
     <row r="525" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C525" s="15"/>
+      <c r="C525" s="14"/>
     </row>
     <row r="526" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C526" s="15"/>
+      <c r="C526" s="14"/>
     </row>
     <row r="527" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C527" s="15"/>
+      <c r="C527" s="14"/>
     </row>
     <row r="528" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C528" s="15"/>
+      <c r="C528" s="14"/>
     </row>
     <row r="529" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C529" s="15"/>
+      <c r="C529" s="14"/>
     </row>
     <row r="530" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C530" s="15"/>
+      <c r="C530" s="14"/>
     </row>
     <row r="531" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C531" s="15"/>
+      <c r="C531" s="14"/>
     </row>
     <row r="532" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C532" s="15"/>
+      <c r="C532" s="14"/>
     </row>
     <row r="533" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C533" s="15"/>
+      <c r="C533" s="14"/>
     </row>
     <row r="534" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C534" s="15"/>
+      <c r="C534" s="14"/>
     </row>
     <row r="535" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C535" s="15"/>
+      <c r="C535" s="14"/>
     </row>
     <row r="536" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C536" s="15"/>
+      <c r="C536" s="14"/>
     </row>
     <row r="537" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C537" s="15"/>
+      <c r="C537" s="14"/>
     </row>
     <row r="538" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C538" s="15"/>
+      <c r="C538" s="14"/>
     </row>
     <row r="539" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C539" s="15"/>
+      <c r="C539" s="14"/>
     </row>
     <row r="540" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C540" s="15"/>
+      <c r="C540" s="14"/>
     </row>
     <row r="541" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C541" s="15"/>
+      <c r="C541" s="14"/>
     </row>
     <row r="542" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C542" s="15"/>
+      <c r="C542" s="14"/>
     </row>
     <row r="543" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C543" s="15"/>
+      <c r="C543" s="14"/>
     </row>
     <row r="544" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C544" s="15"/>
+      <c r="C544" s="14"/>
     </row>
     <row r="545" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C545" s="15"/>
+      <c r="C545" s="14"/>
     </row>
     <row r="546" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C546" s="15"/>
+      <c r="C546" s="14"/>
     </row>
     <row r="547" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C547" s="15"/>
+      <c r="C547" s="14"/>
     </row>
     <row r="548" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C548" s="15"/>
+      <c r="C548" s="14"/>
     </row>
     <row r="549" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C549" s="15"/>
+      <c r="C549" s="14"/>
     </row>
     <row r="550" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C550" s="15"/>
+      <c r="C550" s="14"/>
     </row>
     <row r="551" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C551" s="15"/>
+      <c r="C551" s="14"/>
     </row>
     <row r="552" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C552" s="15"/>
+      <c r="C552" s="14"/>
     </row>
     <row r="553" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C553" s="15"/>
+      <c r="C553" s="14"/>
     </row>
     <row r="554" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C554" s="15"/>
+      <c r="C554" s="14"/>
     </row>
     <row r="555" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C555" s="15"/>
+      <c r="C555" s="14"/>
     </row>
     <row r="556" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C556" s="15"/>
+      <c r="C556" s="14"/>
     </row>
     <row r="557" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C557" s="15"/>
+      <c r="C557" s="14"/>
     </row>
     <row r="558" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C558" s="15"/>
+      <c r="C558" s="14"/>
     </row>
     <row r="559" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C559" s="15"/>
+      <c r="C559" s="14"/>
     </row>
     <row r="560" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C560" s="15"/>
+      <c r="C560" s="14"/>
     </row>
     <row r="561" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C561" s="15"/>
+      <c r="C561" s="14"/>
     </row>
     <row r="562" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C562" s="15"/>
+      <c r="C562" s="14"/>
     </row>
     <row r="563" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C563" s="15"/>
+      <c r="C563" s="14"/>
     </row>
     <row r="564" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C564" s="15"/>
+      <c r="C564" s="14"/>
     </row>
     <row r="565" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C565" s="15"/>
+      <c r="C565" s="14"/>
     </row>
     <row r="566" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C566" s="15"/>
+      <c r="C566" s="14"/>
     </row>
     <row r="567" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C567" s="15"/>
+      <c r="C567" s="14"/>
     </row>
     <row r="568" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C568" s="15"/>
+      <c r="C568" s="14"/>
     </row>
     <row r="569" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C569" s="15"/>
+      <c r="C569" s="14"/>
     </row>
     <row r="570" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C570" s="15"/>
+      <c r="C570" s="14"/>
     </row>
     <row r="571" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C571" s="15"/>
+      <c r="C571" s="14"/>
     </row>
     <row r="572" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C572" s="15"/>
+      <c r="C572" s="14"/>
     </row>
     <row r="573" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C573" s="15"/>
+      <c r="C573" s="14"/>
     </row>
     <row r="574" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C574" s="15"/>
+      <c r="C574" s="14"/>
     </row>
     <row r="575" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C575" s="15"/>
+      <c r="C575" s="14"/>
     </row>
     <row r="576" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C576" s="15"/>
-    </row>
-    <row r="577" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C577" s="15"/>
+      <c r="C576" s="14"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
